--- a/template_examples/plasma_template.xlsx
+++ b/template_examples/plasma_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnunes/cidc-schemas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/code/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E639ECC-037E-804F-A62D-BF95EC47F4F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B283E41-43D4-3740-8DC9-5E79D274FC63}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2920" yWindow="-19100" windowWidth="30940" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="51200" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plasma" sheetId="1" r:id="rId1"/>
@@ -498,7 +498,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -576,7 +576,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -729,15 +729,6 @@
     <t>MATERIAL REMAINING</t>
   </si>
   <si>
-    <t>SAMPLE QUALITY STATUS</t>
-  </si>
-  <si>
-    <t>SAMPLE REPLACEMENT</t>
-  </si>
-  <si>
-    <t>SAMPLE STATUS</t>
-  </si>
-  <si>
     <t>USPS</t>
   </si>
   <si>
@@ -792,7 +783,16 @@
     <t>Replacement Tested</t>
   </si>
   <si>
-    <t>Sample Exhausted</t>
+    <t>Aliquot Exhausted</t>
+  </si>
+  <si>
+    <t>ALIQUOT STATUS</t>
+  </si>
+  <si>
+    <t>ALIQUOT REPLACEMENT</t>
+  </si>
+  <si>
+    <t>ALIQUOT QUALITY STATUS</t>
   </si>
 </sst>
 </file>
@@ -900,15 +900,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1249,8 +1249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1263,33 +1263,33 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
     </row>
     <row r="2" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -1333,7 +1333,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1367,7 +1367,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1401,7 +1401,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1435,7 +1435,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1571,7 +1571,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1605,7 +1605,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1673,7 +1673,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1706,7 +1706,7 @@
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>41590</v>
       </c>
       <c r="D14" s="1"/>
@@ -1843,7 +1843,7 @@
         <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1877,7 +1877,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1904,35 +1904,35 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3" t="s">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -2005,13 +2005,13 @@
         <v>45</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="Y22" s="2" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="Z22" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
@@ -2039,29 +2039,29 @@
       <c r="H23">
         <v>12345</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" s="5">
+        <v>41590</v>
+      </c>
+      <c r="K23" s="6">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="L23" s="5">
+        <v>41590</v>
+      </c>
+      <c r="M23" s="6">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="N23" t="s">
+        <v>56</v>
+      </c>
+      <c r="O23" t="s">
+        <v>57</v>
+      </c>
+      <c r="P23" t="s">
         <v>58</v>
-      </c>
-      <c r="J23" s="6">
-        <v>41590</v>
-      </c>
-      <c r="K23" s="7">
-        <v>0.42430555555555555</v>
-      </c>
-      <c r="L23" s="6">
-        <v>41590</v>
-      </c>
-      <c r="M23" s="7">
-        <v>0.42430555555555555</v>
-      </c>
-      <c r="N23" t="s">
-        <v>59</v>
-      </c>
-      <c r="O23" t="s">
-        <v>60</v>
-      </c>
-      <c r="P23" t="s">
-        <v>61</v>
       </c>
       <c r="Q23">
         <v>100</v>
@@ -2070,13 +2070,13 @@
         <v>100</v>
       </c>
       <c r="S23" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U23" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V23">
         <v>123</v>
@@ -2085,13 +2085,13 @@
         <v>122</v>
       </c>
       <c r="X23" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Y23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Z23" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
@@ -3131,7 +3131,7 @@
       <formula1>"Replacement Requested,Replacement Tested,N/A"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z23:Z222" xr:uid="{00000000-0002-0000-0000-00000D000000}">
-      <formula1>"Sample Returned,Sample Exhausted,Remainder used for other Assay,Other,Sample Leftover"</formula1>
+      <formula1>"Aliquot Returned,Aliquot Exhausted,Remainder used for other Assay,Other,Aliquot Leftover"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template_examples/plasma_template.xlsx
+++ b/template_examples/plasma_template.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/code/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B283E41-43D4-3740-8DC9-5E79D274FC63}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA294E5-8776-2049-AA59-AB67AACD0845}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="51200" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plasma" sheetId="1" r:id="rId1"/>
+    <sheet name="shipment" sheetId="1" r:id="rId1"/>
+    <sheet name="aliquots" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -259,7 +260,30 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>CIDC</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{EC547910-C864-EB4C-977E-BD5D9EA310C8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Trial Participant Identifier. Example: PT123.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{935A251B-044D-644B-A3D6-6358A28F918B}">
       <text>
         <r>
           <rPr>
@@ -268,11 +292,63 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Trial identifier used by lead organization, e.g. Center for Experimental Therapeutics Program (CTEP) ID or Industry Sponsored ID.  This is usually a short identifier. Example: E4412.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+          <t>Participant identifier assigned by the CIMAC-CIDC Network. Example: CIMAC-1234.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{9518658C-E8F8-8449-8984-18861ED7CFF4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Identifies the treatment cohort to which the participant belongs. Example: Cohort A.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{3191284E-4D43-4243-88A5-3A81EE68A0F1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Identifies the trial arm to which the participant belongs. Example: Arm A.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{4FC3FD7E-5CD9-5B42-92F2-C0256D2336AE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sample identifier assigned by the biorepository site. Example: EA123-45.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{EA6D2416-E911-F04F-A3AA-A6797E2C1B2F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Specimen identifier assigned by the CIMAC-CIDC Network. Example: CIMAC-12453.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{3F3C6521-79F8-654C-96B0-496427A6CC41}">
       <text>
         <r>
           <rPr>
@@ -281,11 +357,37 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Trial Participant Identifier. Example: PT123.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+          <t>Study related collection time point, as described in the protocol intake form. Example: Progression.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{3D314A87-3735-C54F-8E24-BADF9315EBF6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Study related collection time point, as described in the protocol intake form. Example: Progression.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{F4C73C80-6B75-7E43-A805-FE891BBFFDAD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Date of blood collection.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{699FFB0F-5100-244D-98FA-88B285A2FD7F}">
       <text>
         <r>
           <rPr>
@@ -294,11 +396,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Participant identifier assigned by the CIMAC-CIDC Network. Example: CIMAC-1234.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+          <t>Time of blood collection.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{55B5C52E-B0A3-3E49-8ECC-6A3E38F7361C}">
       <text>
         <r>
           <rPr>
@@ -307,11 +409,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Identifies the treatment cohort to which the participant belongs. Example: Cohort A.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+          <t>Date of blood processing.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{BB2ADBED-9CE4-3947-8A2D-BA1881C4455D}">
       <text>
         <r>
           <rPr>
@@ -320,11 +422,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Identifies the trial arm to which the participant belongs. Example: Arm A.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+          <t>Time of blood processing.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{8E2FC700-6240-384C-BACD-DA213DE3EAC8}">
       <text>
         <r>
           <rPr>
@@ -333,11 +435,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Sample identifier assigned by the biorepository site. Example: EA123-45.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+          <t>Sample location within the shipping container. Example: A1.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{B48CDE12-D4B2-6546-8A0C-1202BC22AE9B}">
       <text>
         <r>
           <rPr>
@@ -346,11 +448,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Specimen identifier assigned by the CIMAC-CIDC Network. Example: CIMAC-12453.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+          <t>Type of sample sent.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{714BA0B7-3639-3848-93C4-D99FC230D2C9}">
       <text>
         <r>
           <rPr>
@@ -359,11 +461,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Study related collection time point, as described in the protocol intake form. Example: Progression.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
+          <t>The format in which the sample was sent.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{F232225C-FD79-A245-B34D-B7AF77F7B847}">
       <text>
         <r>
           <rPr>
@@ -372,11 +474,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Date of blood collection.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
+          <t>Quantity of each sample shipped.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{57AC77E6-CB93-294D-A7D9-4EF2A37F5889}">
       <text>
         <r>
           <rPr>
@@ -385,11 +487,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Time of blood collection.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
+          <t>Volume of sample shipped.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{4B291804-1A5D-AD4A-906F-9F12DC24CC0D}">
       <text>
         <r>
           <rPr>
@@ -398,11 +500,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Date of blood processing.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
+          <t>The unit of biological material from this sample.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{84CA93BB-0A61-F549-BAEB-CC1EE34546B1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Indicates the specimen source of the sample shipped. Example: Na Heparin blood draw aliquots (2 of three), FFPE block #52</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{23B16009-387A-BF40-A9B0-036BC5D2F8FE}">
       <text>
         <r>
           <rPr>
@@ -411,11 +526,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Time of blood processing.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
+          <t>Aliquot identifier assigned by the CIMAC-CIDC Network. Example: CIMAC-12453.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{4AB75E1C-93BB-C14C-955F-75A43B5DAB20}">
       <text>
         <r>
           <rPr>
@@ -424,11 +539,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Sample location within the shipping container. Example: A1.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
+          <t>Receiving site indicates how much material was used for assay purposes.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{86E6E937-79BF-384D-B80A-D4E82B99CD36}">
       <text>
         <r>
           <rPr>
@@ -437,11 +552,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Type of sample sent.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
+          <t>Receiving site indicates how much material remains after assay use.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{05D455CF-6E92-AA4F-8A0B-833D1603E327}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Final status of sample after QC and pathology review.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{12F3F81B-9BB7-E441-993F-D9CC5698F99C}">
       <text>
         <r>
           <rPr>
@@ -450,128 +578,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The format in which the sample was sent.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Quantity of each sample shipped.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Volume of sample shipped.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>The unit of biological material from this sample.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Indicates the specimen source of the sample shipped. Example: Na Heparin blood draw aliquots (2 of three), FFPE block #52</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Aliquot identifier assigned by the CIMAC-CIDC Network. Example: CIMAC-12453.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000027000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Receiving site indicates how much material was used for assay purposes.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000028000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Receiving site indicates how much material remains after assay use.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000029000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Final status of sample after QC and pathology review.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
           <t>Status of sample if replacement is/was requested.</t>
         </r>
       </text>
     </comment>
-    <comment ref="Z22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002B000000}">
+    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{22CBBD6D-F69D-964F-8640-B713817860F1}">
       <text>
         <r>
           <rPr>
@@ -589,7 +600,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="71">
   <si>
     <t>#t</t>
   </si>
@@ -793,6 +804,15 @@
   </si>
   <si>
     <t>ALIQUOT QUALITY STATUS</t>
+  </si>
+  <si>
+    <t>test_prism_trial_id</t>
+  </si>
+  <si>
+    <t>GENOMIC SOURCE</t>
+  </si>
+  <si>
+    <t>Normal</t>
   </si>
 </sst>
 </file>
@@ -1247,10 +1267,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z222"/>
+  <dimension ref="A1:Z217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1298,8 +1318,8 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
-        <v>12341234</v>
+      <c r="C2" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1903,196 +1923,25 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="W22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="X22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z22" s="2" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23">
-        <v>12345</v>
-      </c>
-      <c r="C23">
-        <v>54321</v>
-      </c>
-      <c r="D23">
-        <v>12345</v>
-      </c>
-      <c r="E23">
-        <v>54321</v>
-      </c>
-      <c r="F23">
-        <v>12345</v>
-      </c>
-      <c r="G23">
-        <v>54321</v>
-      </c>
-      <c r="H23">
-        <v>12345</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J23" s="5">
-        <v>41590</v>
-      </c>
-      <c r="K23" s="6">
-        <v>0.42430555555555555</v>
-      </c>
-      <c r="L23" s="5">
-        <v>41590</v>
-      </c>
-      <c r="M23" s="6">
-        <v>0.42430555555555555</v>
-      </c>
-      <c r="N23" t="s">
-        <v>56</v>
-      </c>
-      <c r="O23" t="s">
-        <v>57</v>
-      </c>
-      <c r="P23" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q23">
-        <v>100</v>
-      </c>
-      <c r="R23">
-        <v>100</v>
-      </c>
-      <c r="S23" t="s">
-        <v>59</v>
-      </c>
-      <c r="T23" t="s">
-        <v>60</v>
-      </c>
-      <c r="U23" t="s">
-        <v>61</v>
-      </c>
-      <c r="V23">
-        <v>123</v>
-      </c>
-      <c r="W23">
-        <v>122</v>
-      </c>
-      <c r="X23" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -3064,36 +2913,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="B1:Z1"/>
-    <mergeCell ref="B21:T21"/>
-    <mergeCell ref="U21:Z21"/>
   </mergeCells>
   <dataValidations count="12">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -3108,33 +2930,1270 @@
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="C14" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>AND(ISNUMBER(C14),LEFT(CELL("format",C14),1)="D")</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="L23:L222 J23:J222" xr:uid="{00000000-0002-0000-0000-000004000000}">
-      <formula1>AND(ISNUMBER(J23:J222),LEFT(CELL("format",J23:J222),1)="D")</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="L20:L217 J20:J217" xr:uid="{00000000-0002-0000-0000-000004000000}">
+      <formula1>AND(ISNUMBER(J20:J219),LEFT(CELL("format",J20:J219),1)="D")</formula1>
     </dataValidation>
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter time in format hh:mm" sqref="M23:M222 K23:K222" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter time in format hh:mm" sqref="M20:M217 K20:K217" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>0</formula1>
       <formula2>0.999305555555555</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O23:O222" xr:uid="{00000000-0002-0000-0000-000008000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O20:O217" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>"Core Needle Biopsy,Surgical Resection,Endoscopic Biopsy,Punch Biopsy,Plasma,PBMC,Whole Blood,Stool Sample,Bone Marrow Aspirate,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P23:P222" xr:uid="{00000000-0002-0000-0000-000009000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P20:P217" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>"FFPE Block,FFPE Scroll,FFPE Core Punch,Unstained Slide,Frozen Tissue,Sodium Heparin Green-Top Tube,Streck Tube,EDTA Tube,Archival FFPE Block,Archival FFPE Slides,Archival FFPE Core Punch,Archival FFPE Scroll,Frozen Stool,DNA-Preserved Stool,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S23:S222" xr:uid="{00000000-0002-0000-0000-00000A000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S20:S217" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>"µL,mL,mg,ng,Vials,Slides,Scrolls,Blocks,ng/µL,cells/ml,N/A,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X23:X222" xr:uid="{00000000-0002-0000-0000-00000B000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X20:X217" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>"Usable for Assay,Not Usable for Assay,Verifying,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y23:Y222" xr:uid="{00000000-0002-0000-0000-00000C000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y20:Y217" xr:uid="{00000000-0002-0000-0000-00000C000000}">
       <formula1>"Replacement Requested,Replacement Tested,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z23:Z222" xr:uid="{00000000-0002-0000-0000-00000D000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z20:Z217" xr:uid="{00000000-0002-0000-0000-00000D000000}">
       <formula1>"Aliquot Returned,Aliquot Exhausted,Remainder used for other Assay,Other,Aliquot Leftover"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388937D4-38F1-4D4B-8CBD-B4257A889C3B}">
+  <dimension ref="A1:Z202"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="101" width="30.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>54321</v>
+      </c>
+      <c r="C3">
+        <v>12345</v>
+      </c>
+      <c r="D3">
+        <v>54321</v>
+      </c>
+      <c r="E3">
+        <v>12345</v>
+      </c>
+      <c r="F3">
+        <v>54321</v>
+      </c>
+      <c r="G3">
+        <v>12345</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="5">
+        <v>41590</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="L3" s="5">
+        <v>41590</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="N3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q3">
+        <v>100</v>
+      </c>
+      <c r="R3">
+        <v>100</v>
+      </c>
+      <c r="S3" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U3" t="s">
+        <v>61</v>
+      </c>
+      <c r="V3">
+        <v>123</v>
+      </c>
+      <c r="W3">
+        <v>122</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:T1"/>
+    <mergeCell ref="U1:Z1"/>
+  </mergeCells>
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z3:Z202" xr:uid="{50E8F547-A5F4-6041-B05C-A9FDF94D9571}">
+      <formula1>"Aliquot Returned,Aliquot Exhausted,Remainder used for other Assay,Other,Aliquot Leftover"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y202" xr:uid="{21FFDD75-584F-9C45-B2B2-E450ADF3AE38}">
+      <formula1>"Replacement Requested,Replacement Tested,N/A"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X202" xr:uid="{9710329D-B696-B747-AE31-30F14637C5A3}">
+      <formula1>"Usable for Assay,Not Usable for Assay,Verifying,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S202" xr:uid="{8212F2F7-7ECF-DA41-8CE0-ABE0AFEA044B}">
+      <formula1>"µL,mL,mg,ng,Vials,Slides,Scrolls,Blocks,ng/µL,cells/ml,N/A,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P202" xr:uid="{2D56F86E-B097-CA44-A3AC-D5CEA00E0D30}">
+      <formula1>"FFPE Block,FFPE Scroll,FFPE Core Punch,Unstained Slide,Frozen Tissue,Sodium Heparin Green-Top Tube,Streck Tube,EDTA Tube,Archival FFPE Block,Archival FFPE Slides,Archival FFPE Core Punch,Archival FFPE Scroll,Frozen Stool,DNA-Preserved Stool,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O202" xr:uid="{54EF59A4-65D5-3342-8D9C-EC7642236E05}">
+      <formula1>"Core Needle Biopsy,Surgical Resection,Endoscopic Biopsy,Punch Biopsy,Plasma,PBMC,Whole Blood,Stool Sample,Bone Marrow Aspirate,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter time in format hh:mm" sqref="K3:K202 M3:M202" xr:uid="{D56F8F14-3D50-A049-99CD-46CB3556FCA9}">
+      <formula1>0</formula1>
+      <formula2>0.999305555555555</formula2>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="J3:J202 L3:L202" xr:uid="{7B9A35E8-02E2-6B4C-A415-26E5865B99F6}">
+      <formula1>AND(ISNUMBER(J3:J202),LEFT(CELL("format",J3:J202),1)="D")</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/template_examples/plasma_template.xlsx
+++ b/template_examples/plasma_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/code/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA294E5-8776-2049-AA59-AB67AACD0845}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143022ED-A65D-814B-A056-925CD0C58131}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -283,20 +283,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{935A251B-044D-644B-A3D6-6358A28F918B}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Participant identifier assigned by the CIMAC-CIDC Network. Example: CIMAC-1234.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{9518658C-E8F8-8449-8984-18861ED7CFF4}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{9518658C-E8F8-8449-8984-18861ED7CFF4}">
       <text>
         <r>
           <rPr>
@@ -309,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{3191284E-4D43-4243-88A5-3A81EE68A0F1}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{3191284E-4D43-4243-88A5-3A81EE68A0F1}">
       <text>
         <r>
           <rPr>
@@ -322,12 +309,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{4FC3FD7E-5CD9-5B42-92F2-C0256D2336AE}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{4FC3FD7E-5CD9-5B42-92F2-C0256D2336AE}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -335,12 +322,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{EA6D2416-E911-F04F-A3AA-A6797E2C1B2F}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{EA6D2416-E911-F04F-A3AA-A6797E2C1B2F}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -348,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{3F3C6521-79F8-654C-96B0-496427A6CC41}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{3F3C6521-79F8-654C-96B0-496427A6CC41}">
       <text>
         <r>
           <rPr>
@@ -361,7 +348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{3D314A87-3735-C54F-8E24-BADF9315EBF6}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{3D314A87-3735-C54F-8E24-BADF9315EBF6}">
       <text>
         <r>
           <rPr>
@@ -374,7 +361,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{F4C73C80-6B75-7E43-A805-FE891BBFFDAD}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{F4C73C80-6B75-7E43-A805-FE891BBFFDAD}">
       <text>
         <r>
           <rPr>
@@ -387,7 +374,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{699FFB0F-5100-244D-98FA-88B285A2FD7F}">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{699FFB0F-5100-244D-98FA-88B285A2FD7F}">
       <text>
         <r>
           <rPr>
@@ -400,7 +387,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{55B5C52E-B0A3-3E49-8ECC-6A3E38F7361C}">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{55B5C52E-B0A3-3E49-8ECC-6A3E38F7361C}">
       <text>
         <r>
           <rPr>
@@ -413,7 +400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{BB2ADBED-9CE4-3947-8A2D-BA1881C4455D}">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{BB2ADBED-9CE4-3947-8A2D-BA1881C4455D}">
       <text>
         <r>
           <rPr>
@@ -426,7 +413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{8E2FC700-6240-384C-BACD-DA213DE3EAC8}">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{8E2FC700-6240-384C-BACD-DA213DE3EAC8}">
       <text>
         <r>
           <rPr>
@@ -439,7 +426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{B48CDE12-D4B2-6546-8A0C-1202BC22AE9B}">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{B48CDE12-D4B2-6546-8A0C-1202BC22AE9B}">
       <text>
         <r>
           <rPr>
@@ -452,7 +439,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{714BA0B7-3639-3848-93C4-D99FC230D2C9}">
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{714BA0B7-3639-3848-93C4-D99FC230D2C9}">
       <text>
         <r>
           <rPr>
@@ -465,7 +452,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{F232225C-FD79-A245-B34D-B7AF77F7B847}">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{F232225C-FD79-A245-B34D-B7AF77F7B847}">
       <text>
         <r>
           <rPr>
@@ -478,7 +465,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{57AC77E6-CB93-294D-A7D9-4EF2A37F5889}">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{57AC77E6-CB93-294D-A7D9-4EF2A37F5889}">
       <text>
         <r>
           <rPr>
@@ -491,7 +478,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{4B291804-1A5D-AD4A-906F-9F12DC24CC0D}">
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{4B291804-1A5D-AD4A-906F-9F12DC24CC0D}">
       <text>
         <r>
           <rPr>
@@ -504,7 +491,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{84CA93BB-0A61-F549-BAEB-CC1EE34546B1}">
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{84CA93BB-0A61-F549-BAEB-CC1EE34546B1}">
       <text>
         <r>
           <rPr>
@@ -517,20 +504,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{23B16009-387A-BF40-A9B0-036BC5D2F8FE}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Aliquot identifier assigned by the CIMAC-CIDC Network. Example: CIMAC-12453.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{4AB75E1C-93BB-C14C-955F-75A43B5DAB20}">
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{4AB75E1C-93BB-C14C-955F-75A43B5DAB20}">
       <text>
         <r>
           <rPr>
@@ -543,7 +517,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{86E6E937-79BF-384D-B80A-D4E82B99CD36}">
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{86E6E937-79BF-384D-B80A-D4E82B99CD36}">
       <text>
         <r>
           <rPr>
@@ -556,7 +530,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{05D455CF-6E92-AA4F-8A0B-833D1603E327}">
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{05D455CF-6E92-AA4F-8A0B-833D1603E327}">
       <text>
         <r>
           <rPr>
@@ -569,7 +543,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{12F3F81B-9BB7-E441-993F-D9CC5698F99C}">
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{12F3F81B-9BB7-E441-993F-D9CC5698F99C}">
       <text>
         <r>
           <rPr>
@@ -582,7 +556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{22CBBD6D-F69D-964F-8640-B713817860F1}">
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{22CBBD6D-F69D-964F-8640-B713817860F1}">
       <text>
         <r>
           <rPr>
@@ -600,7 +574,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="69">
   <si>
     <t>#t</t>
   </si>
@@ -680,9 +654,6 @@
     <t>TRIAL PARTICIPANT ID</t>
   </si>
   <si>
-    <t>CIMAC PARTICIPANT ID</t>
-  </si>
-  <si>
     <t>COHORT ID</t>
   </si>
   <si>
@@ -692,9 +663,6 @@
     <t>SITE SAMPLE ID</t>
   </si>
   <si>
-    <t>CIMAC SAMPLE ID</t>
-  </si>
-  <si>
     <t>TIME POINT</t>
   </si>
   <si>
@@ -731,9 +699,6 @@
     <t>SAMPLE SOURCE</t>
   </si>
   <si>
-    <t>CIMAC ALIQUOT ID</t>
-  </si>
-  <si>
     <t>MATERIAL USED</t>
   </si>
   <si>
@@ -785,9 +750,6 @@
     <t>FFPE block #52</t>
   </si>
   <si>
-    <t>CIMAC-12345</t>
-  </si>
-  <si>
     <t>Usable for Assay</t>
   </si>
   <si>
@@ -813,6 +775,12 @@
   </si>
   <si>
     <t>Normal</t>
+  </si>
+  <si>
+    <t>CIMAC ID</t>
+  </si>
+  <si>
+    <t>CM-TEST-PART-01</t>
   </si>
 </sst>
 </file>
@@ -1319,7 +1287,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1353,7 +1321,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1387,7 +1355,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1421,7 +1389,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1455,7 +1423,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1591,7 +1559,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1625,7 +1593,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1693,7 +1661,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1863,7 +1831,7 @@
         <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1897,7 +1865,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -2963,19 +2931,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388937D4-38F1-4D4B-8CBD-B4257A889C3B}">
-  <dimension ref="A1:Z202"/>
+  <dimension ref="A1:X202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
-    <col min="2" max="101" width="30.6640625" customWidth="1"/>
+    <col min="2" max="98" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
         <v>21</v>
       </c>
@@ -2996,17 +2964,15 @@
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>22</v>
       </c>
+      <c r="U1" s="7"/>
       <c r="V1" s="7"/>
       <c r="W1" s="7"/>
       <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -3023,70 +2989,64 @@
         <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="V2" s="2" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -3094,139 +3054,133 @@
         <v>54321</v>
       </c>
       <c r="C3">
+        <v>54321</v>
+      </c>
+      <c r="D3">
         <v>12345</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>54321</v>
       </c>
-      <c r="E3">
-        <v>12345</v>
-      </c>
-      <c r="F3">
-        <v>54321</v>
-      </c>
-      <c r="G3">
-        <v>12345</v>
+      <c r="F3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="5">
+        <v>41590</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="K3" s="5">
+        <v>41590</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="M3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J3" s="5">
-        <v>41590</v>
-      </c>
-      <c r="K3" s="6">
-        <v>0.42430555555555555</v>
-      </c>
-      <c r="L3" s="5">
-        <v>41590</v>
-      </c>
-      <c r="M3" s="6">
-        <v>0.42430555555555555</v>
-      </c>
-      <c r="N3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O3" t="s">
-        <v>57</v>
-      </c>
-      <c r="P3" t="s">
-        <v>58</v>
+      <c r="P3">
+        <v>100</v>
       </c>
       <c r="Q3">
         <v>100</v>
       </c>
-      <c r="R3">
-        <v>100</v>
+      <c r="R3" t="s">
+        <v>56</v>
       </c>
       <c r="S3" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3">
+        <v>123</v>
+      </c>
+      <c r="U3">
+        <v>122</v>
+      </c>
+      <c r="V3" t="s">
+        <v>58</v>
+      </c>
+      <c r="W3" t="s">
         <v>59</v>
       </c>
-      <c r="T3" t="s">
+      <c r="X3" t="s">
         <v>60</v>
       </c>
-      <c r="U3" t="s">
-        <v>61</v>
-      </c>
-      <c r="V3">
-        <v>123</v>
-      </c>
-      <c r="W3">
-        <v>122</v>
-      </c>
-      <c r="X3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -4163,34 +4117,34 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:T1"/>
-    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="B1:S1"/>
+    <mergeCell ref="T1:X1"/>
   </mergeCells>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z3:Z202" xr:uid="{50E8F547-A5F4-6041-B05C-A9FDF94D9571}">
-      <formula1>"Aliquot Returned,Aliquot Exhausted,Remainder used for other Assay,Other,Aliquot Leftover"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y202" xr:uid="{21FFDD75-584F-9C45-B2B2-E450ADF3AE38}">
-      <formula1>"Replacement Requested,Replacement Tested,N/A"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X202" xr:uid="{9710329D-B696-B747-AE31-30F14637C5A3}">
-      <formula1>"Usable for Assay,Not Usable for Assay,Verifying,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S202" xr:uid="{8212F2F7-7ECF-DA41-8CE0-ABE0AFEA044B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R202" xr:uid="{8212F2F7-7ECF-DA41-8CE0-ABE0AFEA044B}">
       <formula1>"µL,mL,mg,ng,Vials,Slides,Scrolls,Blocks,ng/µL,cells/ml,N/A,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P202" xr:uid="{2D56F86E-B097-CA44-A3AC-D5CEA00E0D30}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O202" xr:uid="{2D56F86E-B097-CA44-A3AC-D5CEA00E0D30}">
       <formula1>"FFPE Block,FFPE Scroll,FFPE Core Punch,Unstained Slide,Frozen Tissue,Sodium Heparin Green-Top Tube,Streck Tube,EDTA Tube,Archival FFPE Block,Archival FFPE Slides,Archival FFPE Core Punch,Archival FFPE Scroll,Frozen Stool,DNA-Preserved Stool,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O202" xr:uid="{54EF59A4-65D5-3342-8D9C-EC7642236E05}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N202" xr:uid="{54EF59A4-65D5-3342-8D9C-EC7642236E05}">
       <formula1>"Core Needle Biopsy,Surgical Resection,Endoscopic Biopsy,Punch Biopsy,Plasma,PBMC,Whole Blood,Stool Sample,Bone Marrow Aspirate,Other"</formula1>
     </dataValidation>
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter time in format hh:mm" sqref="K3:K202 M3:M202" xr:uid="{D56F8F14-3D50-A049-99CD-46CB3556FCA9}">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter time in format hh:mm" sqref="J3:J202 L3:L202" xr:uid="{D56F8F14-3D50-A049-99CD-46CB3556FCA9}">
       <formula1>0</formula1>
       <formula2>0.999305555555555</formula2>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="J3:J202 L3:L202" xr:uid="{7B9A35E8-02E2-6B4C-A415-26E5865B99F6}">
-      <formula1>AND(ISNUMBER(J3:J202),LEFT(CELL("format",J3:J202),1)="D")</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="I3:I202 K3:K202" xr:uid="{7B9A35E8-02E2-6B4C-A415-26E5865B99F6}">
+      <formula1>AND(ISNUMBER(I3:I202),LEFT(CELL("format",I3:I202),1)="D")</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X4 X6:X202 X1" xr:uid="{50E8F547-A5F4-6041-B05C-A9FDF94D9571}">
+      <formula1>"Aliquot Returned,Aliquot Exhausted,Remainder used for other Assay,Other,Aliquot Leftover"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W4 W6:W202 W1" xr:uid="{21FFDD75-584F-9C45-B2B2-E450ADF3AE38}">
+      <formula1>"Replacement Requested,Replacement Tested,N/A"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V4 V6:V202 V1" xr:uid="{9710329D-B696-B747-AE31-30F14637C5A3}">
+      <formula1>"Usable for Assay,Not Usable for Assay,Verifying,Other"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template_examples/plasma_template.xlsx
+++ b/template_examples/plasma_template.xlsx
@@ -1,32 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27417"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/code/cidc-schemas/template_examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jlindsay/Documents/Code/cidc/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143022ED-A65D-814B-A056-925CD0C58131}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31460" yWindow="5420" windowWidth="25600" windowHeight="14160"/>
   </bookViews>
   <sheets>
     <sheet name="shipment" sheetId="1" r:id="rId1"/>
     <sheet name="aliquots" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>CIDC</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="B4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="B5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="B6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -91,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="B7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="B8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="B9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="B10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -143,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="B11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -156,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="B12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -169,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="B13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -182,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="B14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -195,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="B15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -208,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="B16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="B17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -234,7 +241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="B18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -247,7 +254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="B19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -265,12 +272,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>CIDC</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{EC547910-C864-EB4C-977E-BD5D9EA310C8}">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -283,7 +290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{9518658C-E8F8-8449-8984-18861ED7CFF4}">
+    <comment ref="C2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -292,11 +299,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Participant identifier assigned by the CIMAC-CIDC Network. Example: CIMAC-1234.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Identifies the treatment cohort to which the participant belongs. Example: Cohort A.</t>
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{3191284E-4D43-4243-88A5-3A81EE68A0F1}">
+    <comment ref="E2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -309,7 +329,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{4FC3FD7E-5CD9-5B42-92F2-C0256D2336AE}">
+    <comment ref="F2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sample identifier assigned by the biorepository site. Example: EA123-45.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Specimen identifier assigned by the CIMAC-CIDC Network. Example: CIMAC-12453.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -318,11 +364,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Sample identifier assigned by the biorepository site. Example: EA123-45.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{EA6D2416-E911-F04F-A3AA-A6797E2C1B2F}">
+          <t>Study related collection time point, as described in the protocol intake form. Example: Progression.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -331,11 +377,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Specimen identifier assigned by the CIMAC-CIDC Network. Example: CIMAC-12453.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{3F3C6521-79F8-654C-96B0-496427A6CC41}">
+          <t>Study related collection time point, as described in the protocol intake form. Example: Progression.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -344,11 +390,128 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Study related collection time point, as described in the protocol intake form. Example: Progression.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{3D314A87-3735-C54F-8E24-BADF9315EBF6}">
+          <t>Date of blood collection.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Time of blood collection.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Date of blood processing.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Time of blood processing.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sample location within the shipping container. Example: A1.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Type of sample sent.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The format in which the sample was sent.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Quantity of each sample shipped.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Volume of sample shipped.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The unit of biological material from this sample.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -357,11 +520,50 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Study related collection time point, as described in the protocol intake form. Example: Progression.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{F4C73C80-6B75-7E43-A805-FE891BBFFDAD}">
+          <t>Indicates the specimen source of the sample shipped. Example: Na Heparin blood draw aliquots (2 of three), FFPE block #52</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Aliquot identifier assigned by the CIMAC-CIDC Network. Example: CIMAC-12453.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Receiving site indicates how much material was used for assay purposes.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Receiving site indicates how much material remains after assay use.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -370,11 +572,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Date of blood collection.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{699FFB0F-5100-244D-98FA-88B285A2FD7F}">
+          <t>Final status of sample after QC and pathology review.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -383,180 +585,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Time of blood collection.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{55B5C52E-B0A3-3E49-8ECC-6A3E38F7361C}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Date of blood processing.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{BB2ADBED-9CE4-3947-8A2D-BA1881C4455D}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Time of blood processing.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{8E2FC700-6240-384C-BACD-DA213DE3EAC8}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sample location within the shipping container. Example: A1.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{B48CDE12-D4B2-6546-8A0C-1202BC22AE9B}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Type of sample sent.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{714BA0B7-3639-3848-93C4-D99FC230D2C9}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>The format in which the sample was sent.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{F232225C-FD79-A245-B34D-B7AF77F7B847}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Quantity of each sample shipped.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{57AC77E6-CB93-294D-A7D9-4EF2A37F5889}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Volume of sample shipped.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{4B291804-1A5D-AD4A-906F-9F12DC24CC0D}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>The unit of biological material from this sample.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{84CA93BB-0A61-F549-BAEB-CC1EE34546B1}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Indicates the specimen source of the sample shipped. Example: Na Heparin blood draw aliquots (2 of three), FFPE block #52</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{4AB75E1C-93BB-C14C-955F-75A43B5DAB20}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Receiving site indicates how much material was used for assay purposes.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{86E6E937-79BF-384D-B80A-D4E82B99CD36}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Receiving site indicates how much material remains after assay use.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{05D455CF-6E92-AA4F-8A0B-833D1603E327}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Final status of sample after QC and pathology review.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{12F3F81B-9BB7-E441-993F-D9CC5698F99C}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
           <t>Status of sample if replacement is/was requested.</t>
         </r>
       </text>
     </comment>
-    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{22CBBD6D-F69D-964F-8640-B713817860F1}">
+    <comment ref="Z2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -574,7 +607,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="71">
   <si>
     <t>#t</t>
   </si>
@@ -585,9 +618,6 @@
     <t>#p</t>
   </si>
   <si>
-    <t>LEAD ORGANIZATION STUDY ID</t>
-  </si>
-  <si>
     <t>MANIFEST ID</t>
   </si>
   <si>
@@ -654,6 +684,9 @@
     <t>TRIAL PARTICIPANT ID</t>
   </si>
   <si>
+    <t>CIMAC PARTICIPANT ID</t>
+  </si>
+  <si>
     <t>COHORT ID</t>
   </si>
   <si>
@@ -663,6 +696,9 @@
     <t>SITE SAMPLE ID</t>
   </si>
   <si>
+    <t>CIMAC SAMPLE ID</t>
+  </si>
+  <si>
     <t>TIME POINT</t>
   </si>
   <si>
@@ -699,6 +735,9 @@
     <t>SAMPLE SOURCE</t>
   </si>
   <si>
+    <t>CIMAC ALIQUOT ID</t>
+  </si>
+  <si>
     <t>MATERIAL USED</t>
   </si>
   <si>
@@ -750,6 +789,9 @@
     <t>FFPE block #52</t>
   </si>
   <si>
+    <t>CIMAC-12345</t>
+  </si>
+  <si>
     <t>Usable for Assay</t>
   </si>
   <si>
@@ -777,16 +819,13 @@
     <t>Normal</t>
   </si>
   <si>
-    <t>CIMAC ID</t>
-  </si>
-  <si>
-    <t>CM-TEST-PART-01</t>
+    <t>PROTOCOL ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -960,9 +999,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -990,31 +1029,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1042,23 +1064,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1234,11 +1239,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z217"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1279,15 +1284,15 @@
       <c r="Y1" s="7"/>
       <c r="Z1" s="7"/>
     </row>
-    <row r="2" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1313,15 +1318,15 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1347,15 +1352,15 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1381,15 +1386,15 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1415,15 +1420,15 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1449,12 +1454,12 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
         <v>123</v>
@@ -1483,12 +1488,12 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1">
         <v>321</v>
@@ -1517,12 +1522,12 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1">
         <v>123</v>
@@ -1551,15 +1556,15 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1585,15 +1590,15 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1619,12 +1624,12 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1">
         <v>12345678</v>
@@ -1653,15 +1658,15 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1687,12 +1692,12 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="3">
         <v>41590</v>
@@ -1721,12 +1726,12 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -1755,12 +1760,12 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -1789,12 +1794,12 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -1823,15 +1828,15 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1857,15 +1862,15 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1893,992 +1898,992 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2886,41 +2891,41 @@
     <mergeCell ref="B1:Z1"/>
   </mergeCells>
   <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
       <formula1>"Assay-1,Assay-2,Assay-3,Assay-4,Assay-5,Assay-6,Assay-7,Assay-8,Assay-9,Assay-10,Assay-11,Assay-12,Assay-13,Assay-14,Assay-15,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10">
       <formula1>"FEDEX,USPS,UPC"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13">
       <formula1>"Frozen (Dry Ice),Frozen (Dry Shipper),Ambient (Ice Pack),Ambient,Other"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="C14" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="C14">
       <formula1>AND(ISNUMBER(C14),LEFT(CELL("format",C14),1)="D")</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="L20:L217 J20:J217" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="L20:L217 J20:J217">
       <formula1>AND(ISNUMBER(J20:J219),LEFT(CELL("format",J20:J219),1)="D")</formula1>
     </dataValidation>
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter time in format hh:mm" sqref="M20:M217 K20:K217" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter time in format hh:mm" sqref="M20:M217 K20:K217">
       <formula1>0</formula1>
       <formula2>0.999305555555555</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O20:O217" xr:uid="{00000000-0002-0000-0000-000008000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O20:O217">
       <formula1>"Core Needle Biopsy,Surgical Resection,Endoscopic Biopsy,Punch Biopsy,Plasma,PBMC,Whole Blood,Stool Sample,Bone Marrow Aspirate,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P20:P217" xr:uid="{00000000-0002-0000-0000-000009000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P20:P217">
       <formula1>"FFPE Block,FFPE Scroll,FFPE Core Punch,Unstained Slide,Frozen Tissue,Sodium Heparin Green-Top Tube,Streck Tube,EDTA Tube,Archival FFPE Block,Archival FFPE Slides,Archival FFPE Core Punch,Archival FFPE Scroll,Frozen Stool,DNA-Preserved Stool,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S20:S217" xr:uid="{00000000-0002-0000-0000-00000A000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S20:S217">
       <formula1>"µL,mL,mg,ng,Vials,Slides,Scrolls,Blocks,ng/µL,cells/ml,N/A,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X20:X217" xr:uid="{00000000-0002-0000-0000-00000B000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X20:X217">
       <formula1>"Usable for Assay,Not Usable for Assay,Verifying,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y20:Y217" xr:uid="{00000000-0002-0000-0000-00000C000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y20:Y217">
       <formula1>"Replacement Requested,Replacement Tested,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z20:Z217" xr:uid="{00000000-0002-0000-0000-00000D000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z20:Z217">
       <formula1>"Aliquot Returned,Aliquot Exhausted,Remainder used for other Assay,Other,Aliquot Leftover"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2930,22 +2935,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388937D4-38F1-4D4B-8CBD-B4257A889C3B}">
-  <dimension ref="A1:X202"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y1:Y1048576"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
-    <col min="2" max="98" width="30.6640625" customWidth="1"/>
+    <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -2964,41 +2969,43 @@
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
-      <c r="T1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="U1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="V1" s="7"/>
       <c r="W1" s="7"/>
       <c r="X1" s="7"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>31</v>
@@ -3037,1114 +3044,1126 @@
         <v>42</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>54321</v>
       </c>
       <c r="C3">
+        <v>12345</v>
+      </c>
+      <c r="D3">
         <v>54321</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>12345</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>54321</v>
       </c>
-      <c r="F3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>52</v>
+      <c r="G3">
+        <v>12345</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="5">
+        <v>54</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="5">
         <v>41590</v>
       </c>
-      <c r="J3" s="6">
+      <c r="K3" s="6">
         <v>0.42430555555555555</v>
       </c>
-      <c r="K3" s="5">
+      <c r="L3" s="5">
         <v>41590</v>
       </c>
-      <c r="L3" s="6">
+      <c r="M3" s="6">
         <v>0.42430555555555555</v>
       </c>
-      <c r="M3" t="s">
-        <v>53</v>
-      </c>
       <c r="N3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P3">
-        <v>100</v>
+        <v>56</v>
+      </c>
+      <c r="P3" t="s">
+        <v>57</v>
       </c>
       <c r="Q3">
         <v>100</v>
       </c>
-      <c r="R3" t="s">
-        <v>56</v>
+      <c r="R3">
+        <v>100</v>
       </c>
       <c r="S3" t="s">
-        <v>57</v>
-      </c>
-      <c r="T3">
+        <v>58</v>
+      </c>
+      <c r="T3" t="s">
+        <v>59</v>
+      </c>
+      <c r="U3" t="s">
+        <v>60</v>
+      </c>
+      <c r="V3">
         <v>123</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>122</v>
       </c>
-      <c r="V3" t="s">
-        <v>58</v>
-      </c>
-      <c r="W3" t="s">
-        <v>59</v>
-      </c>
       <c r="X3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:S1"/>
-    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="B1:T1"/>
+    <mergeCell ref="U1:Z1"/>
   </mergeCells>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R202" xr:uid="{8212F2F7-7ECF-DA41-8CE0-ABE0AFEA044B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z3:Z202">
+      <formula1>"Aliquot Returned,Aliquot Exhausted,Remainder used for other Assay,Other,Aliquot Leftover"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y202">
+      <formula1>"Replacement Requested,Replacement Tested,N/A"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X202">
+      <formula1>"Usable for Assay,Not Usable for Assay,Verifying,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S202">
       <formula1>"µL,mL,mg,ng,Vials,Slides,Scrolls,Blocks,ng/µL,cells/ml,N/A,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O202" xr:uid="{2D56F86E-B097-CA44-A3AC-D5CEA00E0D30}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P202">
       <formula1>"FFPE Block,FFPE Scroll,FFPE Core Punch,Unstained Slide,Frozen Tissue,Sodium Heparin Green-Top Tube,Streck Tube,EDTA Tube,Archival FFPE Block,Archival FFPE Slides,Archival FFPE Core Punch,Archival FFPE Scroll,Frozen Stool,DNA-Preserved Stool,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N202" xr:uid="{54EF59A4-65D5-3342-8D9C-EC7642236E05}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O202">
       <formula1>"Core Needle Biopsy,Surgical Resection,Endoscopic Biopsy,Punch Biopsy,Plasma,PBMC,Whole Blood,Stool Sample,Bone Marrow Aspirate,Other"</formula1>
     </dataValidation>
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter time in format hh:mm" sqref="J3:J202 L3:L202" xr:uid="{D56F8F14-3D50-A049-99CD-46CB3556FCA9}">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter time in format hh:mm" sqref="K3:K202 M3:M202">
       <formula1>0</formula1>
       <formula2>0.999305555555555</formula2>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="I3:I202 K3:K202" xr:uid="{7B9A35E8-02E2-6B4C-A415-26E5865B99F6}">
-      <formula1>AND(ISNUMBER(I3:I202),LEFT(CELL("format",I3:I202),1)="D")</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X4 X6:X202 X1" xr:uid="{50E8F547-A5F4-6041-B05C-A9FDF94D9571}">
-      <formula1>"Aliquot Returned,Aliquot Exhausted,Remainder used for other Assay,Other,Aliquot Leftover"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W4 W6:W202 W1" xr:uid="{21FFDD75-584F-9C45-B2B2-E450ADF3AE38}">
-      <formula1>"Replacement Requested,Replacement Tested,N/A"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V4 V6:V202 V1" xr:uid="{9710329D-B696-B747-AE31-30F14637C5A3}">
-      <formula1>"Usable for Assay,Not Usable for Assay,Verifying,Other"</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="J3:J202 L3:L202">
+      <formula1>AND(ISNUMBER(J3:J202),LEFT(CELL("format",J3:J202),1)="D")</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template_examples/plasma_template.xlsx
+++ b/template_examples/plasma_template.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jlindsay/Documents/Code/cidc/cidc-schemas/template_examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/code/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCD24CE-BD71-8D48-8DC8-AFE536D6A68E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32000" yWindow="2440" windowWidth="30360" windowHeight="16140" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shipment" sheetId="1" r:id="rId1"/>
     <sheet name="Essential Patient Data" sheetId="2" r:id="rId2"/>
     <sheet name="Samples" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,12 +30,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>CIDC</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -60,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -86,7 +87,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assay and sample type used. Example: Green-top tube - Plasma (Olink).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -95,11 +109,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Assay and sample type used. Example: Green-top tube - Plasma (Olink).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B7" authorId="0">
+          <t>The number corresponding to the batch sent for this assay.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -108,11 +122,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The number corresponding to the batch sent for this assay.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B8" authorId="0">
+          <t>Box identifier for samples, if sample shipment container includes multiple boxes for each sample/assay type.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -121,11 +135,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Box identifier for samples, if sample shipment container includes multiple boxes for each sample/assay type.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B9" authorId="0">
+          <t>Assay run number for samples received.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -134,11 +148,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Assay run number for samples received.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B10" authorId="0">
+          <t>Courier utilized for shipment.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -147,11 +161,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Courier utilized for shipment.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B11" authorId="0">
+          <t>Air bill number assigned to shipment. Example: 4567788343.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -160,11 +174,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Air bill number assigned to shipment. Example: 4567788343.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B12" authorId="0">
+          <t>Courier account number to pay for shipping if available. Example: 45465732.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -173,11 +187,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Courier account number to pay for shipping if available. Example: 45465732.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B13" authorId="0">
+          <t>Type of shipment made.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -186,11 +200,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Type of shipment made.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B14" authorId="0">
+          <t>Date of shipment.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -199,11 +213,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Date of shipment.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B15" authorId="0">
+          <t>Date of reciept.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -212,11 +226,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Date of reciept.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B16" authorId="0">
+          <t>Count of specimen(s) distributed by site.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -225,11 +239,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Count of specimen(s) distributed by site.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B17" authorId="0">
+          <t>Number of Sample(s) Received in Good Condition.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -238,11 +252,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Number of Sample(s) Received in Good Condition.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B18" authorId="0">
+          <t>Number of pathology report(s) received.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -251,24 +265,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Number of pathology report(s) received.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
           <t>Shipping from [free text: person or organization, address, phone number, email address.]</t>
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="0">
+    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -286,12 +287,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>CIDC</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -304,7 +305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -317,7 +318,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Descritpion of the topography category. e.g LUNG AND BRONCHUS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ICD-0-3 topography site code from which a specimen was isolated. e.g. C34.1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -326,11 +353,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Descritpion of the topography category. e.g LUNG AND BRONCHUS</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E2" authorId="0">
+          <t>ICD-0-3 site code description. e.g. Upper lobe, lung</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -339,11 +366,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>ICD-0-3 topography site code from which a specimen was isolated. e.g. C34.1</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F2" authorId="0">
+          <t>ICD-0-3 code for histology and behavior. e.g. 9665/3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -352,11 +379,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>ICD-0-3 site code description. e.g. Upper lobe, lung</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G2" authorId="0">
+          <t>ICD-0-3 histology and behavior code description. e.g. Hodgkin lymphoma, nod. scler., grade 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -365,37 +392,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>ICD-0-3 code for histology and behavior. e.g. 9665/3</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>ICD-0-3 histology and behavior code description. e.g. Hodgkin lymphoma, nod. scler., grade 1</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
           <t>Identifies the gender of the participant.</t>
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -409,7 +410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -428,12 +429,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>CIDC</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -446,7 +447,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -459,7 +460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -472,7 +473,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -485,7 +486,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Aliquot identifier assigned by the biorepository site: EA123-45-1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Specimen identifier assigned by the CIMAC-CIDC Network. Formated as CM-????-????-??</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -494,11 +521,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Aliquot identifier assigned by the biorepository site: EA123-45-1</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G2" authorId="0">
+          <t>Categorical description of timepoint at which the sample was taken.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -507,11 +534,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Specimen identifier assigned by the CIMAC-CIDC Network. Formated as CM-????-????-??</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H2" authorId="0">
+          <t>The type of material submitted - tumor/normal/etc</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -520,11 +547,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Categorical description of timepoint at which the sample was taken.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="0">
+          <t>Date of blood collection.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -533,11 +560,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The type of material submitted - tumor/normal/etc</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J2" authorId="0">
+          <t>Time of blood collection.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -546,11 +573,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Date of blood collection.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K2" authorId="0">
+          <t>Date of blood processing.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -559,11 +586,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Time of blood collection.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L2" authorId="0">
+          <t>Time of blood processing.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -572,11 +599,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Date of blood processing.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M2" authorId="0">
+          <t>Records if a sample processing (blood or tissue) is not compliant with protocol.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -585,11 +612,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Time of blood processing.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N2" authorId="0">
+          <t>Sample location within the shipping container. Example: A1.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -598,11 +625,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Records if a sample processing (blood or tissue) is not compliant with protocol.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O2" authorId="0">
+          <t>Type of sample sent.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
       <text>
         <r>
           <rPr>
@@ -611,11 +638,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Sample location within the shipping container. Example: A1.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P2" authorId="0">
+          <t>Indicates the specimen source of the sample shipped. Example: Na Heparin blood draw aliquots (2 of three), FFPE block #52</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000011000000}">
       <text>
         <r>
           <rPr>
@@ -624,11 +651,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Type of sample sent.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q2" authorId="0">
+          <t>The format in which the sample was sent.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000012000000}">
       <text>
         <r>
           <rPr>
@@ -637,11 +664,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Indicates the specimen source of the sample shipped. Example: Na Heparin blood draw aliquots (2 of three), FFPE block #52</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R2" authorId="0">
+          <t>Quantity of each aliquot shipped.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
       <text>
         <r>
           <rPr>
@@ -650,11 +677,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The format in which the sample was sent.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S2" authorId="0">
+          <t>Volume of aliquot shipped.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000014000000}">
       <text>
         <r>
           <rPr>
@@ -663,11 +690,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Quantity of each aliquot shipped.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T2" authorId="0">
+          <t>The unit of biological material from this sample.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000015000000}">
       <text>
         <r>
           <rPr>
@@ -676,11 +703,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Volume of aliquot shipped.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U2" authorId="0">
+          <t>Receiving site indicates how much material was used for assay purposes.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000016000000}">
       <text>
         <r>
           <rPr>
@@ -689,11 +716,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The unit of biological material from this sample.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V2" authorId="0">
+          <t>Units for the amount of material used; should be the same value as Specimen Analyte units.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000017000000}">
       <text>
         <r>
           <rPr>
@@ -702,11 +729,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Receiving site indicates how much material was used for assay purposes.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W2" authorId="0">
+          <t>Receiving site indicates how much material remains after assay use.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000018000000}">
       <text>
         <r>
           <rPr>
@@ -715,11 +742,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Units for the amount of material used; should be the same value as Specimen Analyte units.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X2" authorId="0">
+          <t>Units for the amount of material remaining.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000019000000}">
       <text>
         <r>
           <rPr>
@@ -728,11 +755,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Receiving site indicates how much material remains after assay use.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y2" authorId="0">
+          <t>Final status of aliquot after QC and pathology review.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -741,11 +768,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Units for the amount of material remaining.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z2" authorId="0">
+          <t>Final status of sample after QC and pathology review.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -754,11 +781,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Final status of aliquot after QC and pathology review.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA2" authorId="0">
+          <t>Indication if sample replacement is/was requested.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -767,37 +794,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Final status of sample after QC and pathology review.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Indication if sample replacement is/was requested.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AC2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
           <t>Indication if sample was sent to another location or returned back to biorepository.</t>
         </r>
       </text>
     </comment>
-    <comment ref="AD2" authorId="0">
+    <comment ref="AD2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -815,7 +816,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="102">
   <si>
     <t>#t</t>
   </si>
@@ -973,9 +974,6 @@
     <t>TYPE OF SAMPLE</t>
   </si>
   <si>
-    <t>SAMPLE_COLLECTION_PROCEDURE</t>
-  </si>
-  <si>
     <t>TYPE OF PRIMARY CONTAINER</t>
   </si>
   <si>
@@ -1115,13 +1113,22 @@
   </si>
   <si>
     <t>Neoplasm, malignant</t>
+  </si>
+  <si>
+    <t>ship from</t>
+  </si>
+  <si>
+    <t>ship to</t>
+  </si>
+  <si>
+    <t>SAMPLE COLLECTION PROCEDURE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1140,6 +1147,12 @@
     <font>
       <sz val="10"/>
       <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -1236,6 +1249,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1527,11 +1543,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F223"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1552,7 +1568,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1560,13 +1576,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1574,13 +1590,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1588,13 +1604,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1602,13 +1618,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1616,13 +1632,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1636,7 +1652,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1650,7 +1666,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1664,7 +1680,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1672,13 +1688,13 @@
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1692,7 +1708,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1706,7 +1722,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1714,13 +1730,13 @@
         <v>14</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1734,7 +1750,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1748,7 +1764,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1756,13 +1772,13 @@
         <v>17</v>
       </c>
       <c r="C16" s="2">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1770,13 +1786,13 @@
         <v>18</v>
       </c>
       <c r="C17" s="2">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1784,35 +1800,35 @@
         <v>19</v>
       </c>
       <c r="C18" s="2">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="2">
-        <v>123</v>
+      <c r="C19" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="2">
-        <v>123</v>
+      <c r="C20" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -2827,21 +2843,18 @@
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
   </mergeCells>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Assay-1,Assay-2,Assay-3,Assay-4,Assay-5,Assay-6,Assay-7,Assay-8,Assay-9,Assay-10,Assay-11,Assay-12,Assay-13,Assay-14,Assay-15,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"FEDEX,USPS,UPC"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Frozen (Dry Ice),Frozen (Dry Shipper),Ambient (Ice Pack),Ambient,Other"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="C14">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="C14:C15" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>AND(ISNUMBER(C14),LEFT(CELL("format",C14),1)="D")</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="C15">
-      <formula1>AND(ISNUMBER(C15),LEFT(CELL("format",C15),1)="D")</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2850,11 +2863,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2863,7 +2876,7 @@
     <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
@@ -2920,34 +2933,34 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" t="s">
         <v>91</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>92</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>93</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>94</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" t="s">
         <v>95</v>
       </c>
-      <c r="H3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>96</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>97</v>
-      </c>
-      <c r="K3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -3951,28 +3964,28 @@
     <mergeCell ref="I1:K1"/>
   </mergeCells>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D202">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D202" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"ACCESSORY SINUS, NOS,ADRENAL GLANDS,ANAL CANAL &amp; ANUS,APPENDIX,BASE OF TONGUE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E202">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E202" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"C00,C00.0,C00.1,C00.2,C00.3,C00.4,C00.5,C00.6,C00.8,C00.9,C01,C01.9"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F202">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F202" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"LIP,External upper lip,External lower lip,External lip, NOS,Mucosa of upper lip,Mucosa of lower lip,Mucosa of lip, NOS,Commissure of lip,Overlapping lesion of lip,Lip, NOS"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G202">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G202" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>"8000/3,8001/3,8002/3,8003/3,8004/3,8005/3,8010/2,8010/3,8011/3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H202">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H202" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>"Neoplasm, malignant,Tumor cells, malignant,Malignant tumor, small cell type,Malignant tumor, giant cell type,Malignant tumor, spindle cell type,Malignant tumor, clear cell type"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I202">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I202" xr:uid="{00000000-0002-0000-0100-000005000000}">
       <formula1>"Male,Female,Not Specified,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J202">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J202" xr:uid="{00000000-0002-0000-0100-000006000000}">
       <formula1>"American Indian/Alaska Native,Asian,Black/African American,Native Hawaiian/Pacific Islander,White,Not Reported,Unknown,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K202">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K202" xr:uid="{00000000-0002-0000-0100-000007000000}">
       <formula1>"Hispanic or Latino,Not Hispanic or Latino,Not reported,Unknown,Other"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3982,11 +3995,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD202"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4080,46 +4093,46 @@
         <v>51</v>
       </c>
       <c r="Q2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
@@ -4130,25 +4143,25 @@
         <v>54321</v>
       </c>
       <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
         <v>67</v>
       </c>
-      <c r="D3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>68</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>69</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>70</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>71</v>
-      </c>
-      <c r="I3" t="s">
-        <v>72</v>
       </c>
       <c r="J3" s="4">
         <v>37174</v>
@@ -4163,19 +4176,19 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="N3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O3">
         <v>123</v>
       </c>
       <c r="P3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q3" t="s">
         <v>74</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>75</v>
-      </c>
-      <c r="R3" t="s">
-        <v>76</v>
       </c>
       <c r="S3">
         <v>1</v>
@@ -4184,34 +4197,34 @@
         <v>1</v>
       </c>
       <c r="U3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V3">
         <v>1</v>
       </c>
       <c r="W3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X3">
         <v>1</v>
       </c>
       <c r="Y3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z3" t="s">
         <v>78</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>79</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>80</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>81</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>82</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
@@ -5214,55 +5227,45 @@
     <mergeCell ref="B1:U1"/>
     <mergeCell ref="V1:AD1"/>
   </mergeCells>
-  <dataValidations count="16">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I202">
+  <dataValidations count="13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I202" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Tumor,Normal,Metastasis"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="J3:J202 L3">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="J3:J202 L3:L202" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>AND(ISNUMBER(J3:J202),LEFT(CELL("format",J3:J202),1)="D")</formula1>
     </dataValidation>
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter time in format hh:mm" sqref="K3:K202 M3">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter time in format hh:mm" sqref="K3:K202 M3:M202" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>0</formula1>
       <formula2>0.999305555555555</formula2>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="L4:L202">
-      <formula1>AND(ISNUMBER(L4:L203),LEFT(CELL("format",L4:L203),1)="D")</formula1>
-    </dataValidation>
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter time in format hh:mm" sqref="M4:M202">
-      <formula1>0</formula1>
-      <formula2>0.999305555555555</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N202">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N202" xr:uid="{00000000-0002-0000-0200-000005000000}">
       <formula1>"Compliant_processing,Noncompliant_tissue_fixation_24_to_36_hrs,Noncompliant_tissue_fixation_over_36_hrs,Noncompliant_blood_processing_ 24_to_48_hrs,Noncompliant_blood_processing_over_48_hrs,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P202">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P202" xr:uid="{00000000-0002-0000-0200-000006000000}">
       <formula1>"Tumor Tissue,Normal Tissue,Skin Tissue,Blood,Bone Marrow,Cerebrospinal Fluid,Stool,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q202">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q202" xr:uid="{00000000-0002-0000-0200-000007000000}">
       <formula1>"Blood Draw,Excision,Core Biopsy,Punch Biopsy,Endoscopic Biopsy,Bone Marrow Core Biopsy,Bone Marrow Aspirate,Lumbar Puncture,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R202">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R202" xr:uid="{00000000-0002-0000-0200-000008000000}">
       <formula1>"Sodium heparin,Blood specimen container with EDTA,Potassium EDTA,Streck Blood Collection Tube,Stool collection container with DNA stabilizer,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U202">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U202" xr:uid="{00000000-0002-0000-0200-000009000000}">
       <formula1>"Microliter,Milliliter,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W202">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W202 Y3:Y202" xr:uid="{00000000-0002-0000-0200-00000A000000}">
       <formula1>"Microliters,Milliliters,Nanogram per Microliter,Milligram per Milliliter,Micrograms per Microliter,Cells per Vial,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y202">
-      <formula1>"Microliters,Milliliters,Nanogram per Microliter,Milligram per Milliliter,Micrograms per Microliter,Cells per Vial,Not Reported,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z3:Z202">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z3:Z202" xr:uid="{00000000-0002-0000-0200-00000C000000}">
       <formula1>"Specimen shipment received in good condition,Specimen shipment received in poor condition,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AA202">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AA202" xr:uid="{00000000-0002-0000-0200-00000D000000}">
       <formula1>"Pass,Fail,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB3:AB202">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB3:AB202" xr:uid="{00000000-0002-0000-0200-00000E000000}">
       <formula1>"Sample Sent to Another Lab,Sample received from CIMAC,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC202">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC202" xr:uid="{00000000-0002-0000-0200-00000F000000}">
       <formula1>"Sample Returned,Sample Sent to Another Lab,Sample received from CIMAC,Not Reported,Other"</formula1>
     </dataValidation>
   </dataValidations>

--- a/template_examples/plasma_template.xlsx
+++ b/template_examples/plasma_template.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/code/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCD24CE-BD71-8D48-8DC8-AFE536D6A68E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B4900AF-ADC9-1F4F-B635-C7E0AAE30854}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="720" windowWidth="24280" windowHeight="13280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shipment" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,6 @@
     <sheet name="Samples" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -92,7 +84,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -213,7 +205,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Date of reciept.</t>
+          <t>Date of receipt.</t>
         </r>
       </text>
     </comment>
@@ -226,11 +218,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Final status of aliquot after QC and pathology review.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Count of specimen(s) distributed by site.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -243,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -256,7 +261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -269,7 +274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -323,7 +328,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -336,7 +341,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -491,7 +496,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -504,7 +509,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -755,7 +760,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Final status of aliquot after QC and pathology review.</t>
+          <t>Final status of sample after QC and pathology review.</t>
         </r>
       </text>
     </comment>
@@ -768,7 +773,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Final status of sample after QC and pathology review.</t>
+          <t>Indication if sample replacement is/was requested.</t>
         </r>
       </text>
     </comment>
@@ -781,24 +786,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Indication if sample replacement is/was requested.</t>
+          <t>Indication if sample was sent to another location or returned back to biorepository.</t>
         </r>
       </text>
     </comment>
     <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Indication if sample was sent to another location or returned back to biorepository.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AD2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -816,7 +808,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="102">
   <si>
     <t>#t</t>
   </si>
@@ -869,6 +861,9 @@
     <t>DATE RECIEVED</t>
   </si>
   <si>
+    <t>QUALITY OF SHIPMENT</t>
+  </si>
+  <si>
     <t>NUM OF SAMPLES SHIPPED</t>
   </si>
   <si>
@@ -974,6 +969,9 @@
     <t>TYPE OF SAMPLE</t>
   </si>
   <si>
+    <t>SAMPLE COLLECTION PROCEDURE</t>
+  </si>
+  <si>
     <t>TYPE OF PRIMARY CONTAINER</t>
   </si>
   <si>
@@ -998,9 +996,6 @@
     <t>MATERIAL REMAINING UNITS</t>
   </si>
   <si>
-    <t>QUALITY OF SHIPMENT</t>
-  </si>
-  <si>
     <t>QUALITY OF SAMPLE</t>
   </si>
   <si>
@@ -1013,21 +1008,78 @@
     <t>COMMENTS</t>
   </si>
   <si>
+    <t>TEST123</t>
+  </si>
+  <si>
+    <t>TEST123_plasma</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Assay-1</t>
+  </si>
+  <si>
+    <t>Not sure about this value</t>
+  </si>
+  <si>
+    <t>USPS</t>
+  </si>
+  <si>
+    <t>Frozen (Dry Ice)</t>
+  </si>
+  <si>
+    <t>Specimen shipment received in good condition</t>
+  </si>
+  <si>
+    <t>ship from</t>
+  </si>
+  <si>
+    <t>ship to</t>
+  </si>
+  <si>
+    <t>CM-TEST-PA01-A1</t>
+  </si>
+  <si>
+    <t>Tumor_Pre_1</t>
+  </si>
+  <si>
+    <t>ADRENAL GLANDS</t>
+  </si>
+  <si>
+    <t>C00.2</t>
+  </si>
+  <si>
+    <t>External lower lip</t>
+  </si>
+  <si>
+    <t>8003/3</t>
+  </si>
+  <si>
+    <t>Neoplasm, malignant</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Black/African American</t>
+  </si>
+  <si>
+    <t>Not Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>RESPONDER</t>
+  </si>
+  <si>
     <t>ARM B</t>
   </si>
   <si>
-    <t>RESPONDER</t>
-  </si>
-  <si>
     <t>TRIALGROUP 1</t>
   </si>
   <si>
     <t>BIOBANK 1</t>
   </si>
   <si>
-    <t>CM-TEST-PA01-A1</t>
-  </si>
-  <si>
     <t>Level_1_starting</t>
   </si>
   <si>
@@ -1052,9 +1104,6 @@
     <t>Milliliters</t>
   </si>
   <si>
-    <t>Specimen shipment received in poor condition</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
@@ -1065,70 +1114,13 @@
   </si>
   <si>
     <t>Comment</t>
-  </si>
-  <si>
-    <t>TEST123</t>
-  </si>
-  <si>
-    <t>OLINK-123</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>Assay-1</t>
-  </si>
-  <si>
-    <t>Not sure about this value</t>
-  </si>
-  <si>
-    <t>USPS</t>
-  </si>
-  <si>
-    <t>Frozen (Dry Ice)</t>
-  </si>
-  <si>
-    <t>Tumor_Pre_1</t>
-  </si>
-  <si>
-    <t>ADRENAL GLANDS</t>
-  </si>
-  <si>
-    <t>C00.2</t>
-  </si>
-  <si>
-    <t>External lower lip</t>
-  </si>
-  <si>
-    <t>8003/3</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Black/African American</t>
-  </si>
-  <si>
-    <t>Not Hispanic or Latino</t>
-  </si>
-  <si>
-    <t>Neoplasm, malignant</t>
-  </si>
-  <si>
-    <t>ship from</t>
-  </si>
-  <si>
-    <t>ship to</t>
-  </si>
-  <si>
-    <t>SAMPLE COLLECTION PROCEDURE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1147,12 +1139,6 @@
     <font>
       <sz val="10"/>
       <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -1232,14 +1218,14 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1303,9 +1289,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1333,14 +1319,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1368,6 +1371,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1544,10 +1564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F223"/>
+  <dimension ref="A1:F224"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C2" sqref="C2:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1556,19 +1576,19 @@
     <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1576,13 +1596,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1590,7 +1610,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1604,7 +1624,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1618,7 +1638,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1632,7 +1652,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1688,7 +1708,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1730,7 +1750,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1743,7 +1763,7 @@
       <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>37174</v>
       </c>
       <c r="D14" s="2"/>
@@ -1757,22 +1777,22 @@
       <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>37539</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="2">
-        <v>1</v>
+      <c r="C16" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1813,8 +1833,8 @@
       <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>99</v>
+      <c r="C19" s="2">
+        <v>1</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1828,16 +1848,25 @@
         <v>21</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="C21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -1846,1015 +1875,1023 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
   </mergeCells>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{10701B2F-C0C6-C44B-B423-FC17011593C8}">
       <formula1>"Assay-1,Assay-2,Assay-3,Assay-4,Assay-5,Assay-6,Assay-7,Assay-8,Assay-9,Assay-10,Assay-11,Assay-12,Assay-13,Assay-14,Assay-15,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{D988D5F7-140E-4F4C-A49A-7DEDEB31A676}">
       <formula1>"FEDEX,USPS,UPC"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{D1688E35-AE77-744D-B349-B1CF85F2138A}">
       <formula1>"Frozen (Dry Ice),Frozen (Dry Shipper),Ambient (Ice Pack),Ambient,Other"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="C14:C15" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="C14:C15" xr:uid="{EDA8B141-47CD-8E44-861D-17AE10001EE5}">
       <formula1>AND(ISNUMBER(C14),LEFT(CELL("format",C14),1)="D")</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16" xr:uid="{C933B8BB-D59C-C14D-AC0F-32A5E5DD89A0}">
+      <formula1>"Specimen shipment received in good condition,Specimen shipment received in poor condition,Not Reported,Other"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2866,8 +2903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K202"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="B3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2878,1084 +2915,1084 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="I3" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J3" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K3" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3996,10 +4033,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AD202"/>
+  <dimension ref="A1:AC202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4008,187 +4045,183 @@
     <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>54321</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="I3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J3" s="4">
+        <v>91</v>
+      </c>
+      <c r="J3" s="6">
         <v>37174</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="6">
         <v>37174</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="7">
         <v>0.33333333333333331</v>
       </c>
       <c r="N3" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="O3">
         <v>123</v>
       </c>
       <c r="P3" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="Q3" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="R3" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="S3">
         <v>1</v>
@@ -4197,1044 +4230,1041 @@
         <v>1</v>
       </c>
       <c r="U3" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="V3">
         <v>1</v>
       </c>
       <c r="W3" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="X3">
         <v>1</v>
       </c>
       <c r="Y3" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="Z3" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AA3" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AB3" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AC3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:U1"/>
-    <mergeCell ref="V1:AD1"/>
+    <mergeCell ref="V1:AC1"/>
   </mergeCells>
-  <dataValidations count="13">
+  <dataValidations count="12">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I202" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Tumor,Normal,Metastasis"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="J3:J202 L3:L202" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="L3:L202 J3:J202" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>AND(ISNUMBER(J3:J202),LEFT(CELL("format",J3:J202),1)="D")</formula1>
     </dataValidation>
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter time in format hh:mm" sqref="K3:K202 M3:M202" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter time in format hh:mm" sqref="M3:M202 K3:K202" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>0</formula1>
       <formula2>0.999305555555555</formula2>
     </dataValidation>
@@ -5253,19 +5283,16 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U202" xr:uid="{00000000-0002-0000-0200-000009000000}">
       <formula1>"Microliter,Milliliter,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W202 Y3:Y202" xr:uid="{00000000-0002-0000-0200-00000A000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y202 W3:W202" xr:uid="{00000000-0002-0000-0200-00000A000000}">
       <formula1>"Microliters,Milliliters,Nanogram per Microliter,Milligram per Milliliter,Micrograms per Microliter,Cells per Vial,Not Reported,Other"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z3:Z202" xr:uid="{00000000-0002-0000-0200-00000C000000}">
-      <formula1>"Specimen shipment received in good condition,Specimen shipment received in poor condition,Not Reported,Other"</formula1>
+      <formula1>"Pass,Fail,Not Reported,Other"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AA202" xr:uid="{00000000-0002-0000-0200-00000D000000}">
-      <formula1>"Pass,Fail,Not Reported,Other"</formula1>
+      <formula1>"Sample Sent to Another Lab,Sample received from CIMAC,Not Reported,Other"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB3:AB202" xr:uid="{00000000-0002-0000-0200-00000E000000}">
-      <formula1>"Sample Sent to Another Lab,Sample received from CIMAC,Not Reported,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC202" xr:uid="{00000000-0002-0000-0200-00000F000000}">
       <formula1>"Sample Returned,Sample Sent to Another Lab,Sample received from CIMAC,Not Reported,Other"</formula1>
     </dataValidation>
   </dataValidations>

--- a/template_examples/plasma_template.xlsx
+++ b/template_examples/plasma_template.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/code/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143022ED-A65D-814B-A056-925CD0C58131}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B4900AF-ADC9-1F4F-B635-C7E0AAE30854}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="720" windowWidth="24280" windowHeight="13280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="shipment" sheetId="1" r:id="rId1"/>
-    <sheet name="aliquots" sheetId="2" r:id="rId2"/>
+    <sheet name="Shipment" sheetId="1" r:id="rId1"/>
+    <sheet name="Essential Patient Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Samples" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -35,7 +36,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Trial identifier used by lead organization, e.g. Center for Experimental Therapeutics Program (CTEP) ID or Industry Sponsored ID.  This is usually a short identifier. Example: E4412.</t>
+          <t>Trial identifier used by lead organization, ie. Center for Experimental Therapeutics Program (CTEP) ID or Industry Sponsored ID.  This is usually a short identifier. Example: E4412.</t>
         </r>
       </text>
     </comment>
@@ -165,7 +166,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Courier account number to pay for shipping if avaialable. Example: 45465732.</t>
+          <t>Courier account number to pay for shipping if available. Example: 45465732.</t>
         </r>
       </text>
     </comment>
@@ -178,7 +179,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Type of shippment made.</t>
+          <t>Type of shipment made.</t>
         </r>
       </text>
     </comment>
@@ -204,7 +205,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Count of specimens distributed by site.</t>
+          <t>Date of receipt.</t>
         </r>
       </text>
     </comment>
@@ -217,7 +218,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Number of Samples Received in Good Condition.</t>
+          <t>Final status of aliquot after QC and pathology review.</t>
         </r>
       </text>
     </comment>
@@ -230,7 +231,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Number if pathology report received.</t>
+          <t>Count of specimen(s) distributed by site.</t>
         </r>
       </text>
     </comment>
@@ -243,11 +244,37 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Number of Sample(s) Received in Good Condition.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Number of pathology report(s) received.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Shipping from [free text: person or organization, address, phone number, email address.]</t>
         </r>
       </text>
     </comment>
-    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -270,12 +297,154 @@
     <author>CIDC</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{EC547910-C864-EB4C-977E-BD5D9EA310C8}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Specimen identifier assigned by the CIMAC-CIDC Network. Formated as CM-????-????-??</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Categorical description of timepoint at which the sample was taken.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Descritpion of the topography category. e.g LUNG AND BRONCHUS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ICD-0-3 topography site code from which a specimen was isolated. e.g. C34.1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ICD-0-3 site code description. e.g. Upper lobe, lung</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ICD-0-3 code for histology and behavior. e.g. 9665/3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ICD-0-3 histology and behavior code description. e.g. Hodgkin lymphoma, nod. scler., grade 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Identifies the gender of the participant.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">'NIH Racial and Ethnic Categories and Definitions for NIH Diversity Programs and for Other Reporting Purposes (NOT-OD-15-089),  Release Date: April 8, 2015.'
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">'NIH Racial and Ethnic Categories and Definitions for NIH Diversity Programs and for Other Reporting Purposes (NOT-OD-15-089),  Release Date: April 8, 2015.'
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>CIDC</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -283,20 +452,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{9518658C-E8F8-8449-8984-18861ED7CFF4}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Identifies the treatment cohort to which the participant belongs. Example: Cohort A.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{3191284E-4D43-4243-88A5-3A81EE68A0F1}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Categorical description of cohorts, arms, and treatment groups. Example: Cohort A.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -309,12 +478,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{4FC3FD7E-5CD9-5B42-92F2-C0256D2336AE}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -322,51 +491,64 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{EA6D2416-E911-F04F-A3AA-A6797E2C1B2F}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Specimen identifier assigned by the CIMAC-CIDC Network. Example: CIMAC-12453.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{3F3C6521-79F8-654C-96B0-496427A6CC41}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Study related collection time point, as described in the protocol intake form. Example: Progression.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{3D314A87-3735-C54F-8E24-BADF9315EBF6}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Study related collection time point, as described in the protocol intake form. Example: Progression.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{F4C73C80-6B75-7E43-A805-FE891BBFFDAD}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Aliquot identifier assigned by the biorepository site: EA123-45-1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Specimen identifier assigned by the CIMAC-CIDC Network. Formated as CM-????-????-??</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Categorical description of timepoint at which the sample was taken.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The type of material submitted - tumor/normal/etc</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -374,7 +556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{699FFB0F-5100-244D-98FA-88B285A2FD7F}">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -387,7 +569,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{55B5C52E-B0A3-3E49-8ECC-6A3E38F7361C}">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -400,7 +582,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{BB2ADBED-9CE4-3947-8A2D-BA1881C4455D}">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -413,7 +595,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{8E2FC700-6240-384C-BACD-DA213DE3EAC8}">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Records if a sample processing (blood or tissue) is not compliant with protocol.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -426,7 +621,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{B48CDE12-D4B2-6546-8A0C-1202BC22AE9B}">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -439,7 +634,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{714BA0B7-3639-3848-93C4-D99FC230D2C9}">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Indicates the specimen source of the sample shipped. Example: Na Heparin blood draw aliquots (2 of three), FFPE block #52</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000011000000}">
       <text>
         <r>
           <rPr>
@@ -452,33 +660,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{F232225C-FD79-A245-B34D-B7AF77F7B847}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Quantity of each sample shipped.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{57AC77E6-CB93-294D-A7D9-4EF2A37F5889}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Volume of sample shipped.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{4B291804-1A5D-AD4A-906F-9F12DC24CC0D}">
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000012000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Quantity of each aliquot shipped.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Volume of aliquot shipped.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000014000000}">
       <text>
         <r>
           <rPr>
@@ -491,20 +699,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{84CA93BB-0A61-F549-BAEB-CC1EE34546B1}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Indicates the specimen source of the sample shipped. Example: Na Heparin blood draw aliquots (2 of three), FFPE block #52</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{4AB75E1C-93BB-C14C-955F-75A43B5DAB20}">
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000015000000}">
       <text>
         <r>
           <rPr>
@@ -517,7 +712,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{86E6E937-79BF-384D-B80A-D4E82B99CD36}">
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000016000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Units for the amount of material used; should be the same value as Specimen Analyte units.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000017000000}">
       <text>
         <r>
           <rPr>
@@ -530,12 +738,25 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{05D455CF-6E92-AA4F-8A0B-833D1603E327}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
+    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000018000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Units for the amount of material remaining.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000019000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -543,29 +764,42 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{12F3F81B-9BB7-E441-993F-D9CC5698F99C}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Status of sample if replacement is/was requested.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{22CBBD6D-F69D-964F-8640-B713817860F1}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Status of sample used for other assay, exhausted, destroyed, or returned.</t>
+    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Indication if sample replacement is/was requested.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Indication if sample was sent to another location or returned back to biorepository.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Comments on sample testing.</t>
         </r>
       </text>
     </comment>
@@ -574,7 +808,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="102">
   <si>
     <t>#t</t>
   </si>
@@ -585,7 +819,7 @@
     <t>#p</t>
   </si>
   <si>
-    <t>LEAD ORGANIZATION STUDY ID</t>
+    <t>PROTOCOL ID</t>
   </si>
   <si>
     <t>MANIFEST ID</t>
@@ -624,6 +858,12 @@
     <t>DATE SHIPPED</t>
   </si>
   <si>
+    <t>DATE RECIEVED</t>
+  </si>
+  <si>
+    <t>QUALITY OF SHIPMENT</t>
+  </si>
+  <si>
     <t>NUM OF SAMPLES SHIPPED</t>
   </si>
   <si>
@@ -639,31 +879,73 @@
     <t>SHIP TO</t>
   </si>
   <si>
+    <t>#h</t>
+  </si>
+  <si>
+    <t>#d</t>
+  </si>
+  <si>
+    <t>Path Concordance Verification</t>
+  </si>
+  <si>
+    <t>ICD-0-3 Code/Description</t>
+  </si>
+  <si>
+    <t>Demographics</t>
+  </si>
+  <si>
+    <t>CIMAC ID</t>
+  </si>
+  <si>
+    <t>COLLECTION EVENT NAME</t>
+  </si>
+  <si>
+    <t>SITE DESCRIPTION</t>
+  </si>
+  <si>
+    <t>TOPOGRAPHY CODE</t>
+  </si>
+  <si>
+    <t>TOPOGRAPHY DESCRIPTION</t>
+  </si>
+  <si>
+    <t>HISTOLOGY/BEHAVIOR</t>
+  </si>
+  <si>
+    <t>HISTOLOGY/BEHAVIOR DESCRIPTION</t>
+  </si>
+  <si>
+    <t>SEX</t>
+  </si>
+  <si>
+    <t>RACE</t>
+  </si>
+  <si>
+    <t>ETHNIC GROUP</t>
+  </si>
+  <si>
     <t>Filled by Biorepository</t>
   </si>
   <si>
     <t>Filled by CIMAC Lab</t>
   </si>
   <si>
-    <t>#h</t>
-  </si>
-  <si>
-    <t>#d</t>
-  </si>
-  <si>
-    <t>TRIAL PARTICIPANT ID</t>
-  </si>
-  <si>
-    <t>COHORT ID</t>
+    <t>PARTICIPANT ID</t>
+  </si>
+  <si>
+    <t>COHORT NAME</t>
   </si>
   <si>
     <t>ARM ID</t>
   </si>
   <si>
-    <t>SITE SAMPLE ID</t>
-  </si>
-  <si>
-    <t>TIME POINT</t>
+    <t>PARENT SAMPLE ID</t>
+  </si>
+  <si>
+    <t>PROCESSED SAMPLE ID</t>
+  </si>
+  <si>
+    <t>GENOMIC SOURCE</t>
   </si>
   <si>
     <t>BLOOD COLLECTION DATE</t>
@@ -678,116 +960,167 @@
     <t>BLOOD PROCESSING TIME</t>
   </si>
   <si>
+    <t>SAMPLE PROCESSING COMPLIANCE</t>
+  </si>
+  <si>
     <t>SAMPLE LOCATION</t>
   </si>
   <si>
-    <t>SPECIMEN TYPE</t>
-  </si>
-  <si>
-    <t>SPECIMEN FORMAT</t>
+    <t>TYPE OF SAMPLE</t>
+  </si>
+  <si>
+    <t>SAMPLE COLLECTION PROCEDURE</t>
+  </si>
+  <si>
+    <t>TYPE OF PRIMARY CONTAINER</t>
   </si>
   <si>
     <t>QUANTITY</t>
   </si>
   <si>
-    <t>VOLUME QUANTITY</t>
-  </si>
-  <si>
-    <t>UNITS</t>
-  </si>
-  <si>
-    <t>SAMPLE SOURCE</t>
+    <t>SAMPLE VOLUME</t>
+  </si>
+  <si>
+    <t>SAMPLE VOLUME UNITS</t>
   </si>
   <si>
     <t>MATERIAL USED</t>
   </si>
   <si>
+    <t>MATERIAL USED UNITS</t>
+  </si>
+  <si>
     <t>MATERIAL REMAINING</t>
   </si>
   <si>
+    <t>MATERIAL REMAINING UNITS</t>
+  </si>
+  <si>
+    <t>QUALITY OF SAMPLE</t>
+  </si>
+  <si>
+    <t>SAMPLE REPLACEMENT</t>
+  </si>
+  <si>
+    <t>RESIDUAL SAMPLE USE</t>
+  </si>
+  <si>
+    <t>COMMENTS</t>
+  </si>
+  <si>
+    <t>TEST123</t>
+  </si>
+  <si>
+    <t>TEST123_plasma</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Assay-1</t>
+  </si>
+  <si>
+    <t>Not sure about this value</t>
+  </si>
+  <si>
     <t>USPS</t>
   </si>
   <si>
-    <t>T1234</t>
-  </si>
-  <si>
-    <t>E441_plasm</t>
-  </si>
-  <si>
-    <t>a123</t>
-  </si>
-  <si>
-    <t>Assay-4</t>
-  </si>
-  <si>
-    <t>Green-top-tube-Plasma (Olink)</t>
-  </si>
-  <si>
     <t>Frozen (Dry Ice)</t>
   </si>
   <si>
-    <t>DFCI</t>
-  </si>
-  <si>
-    <t>Stanford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baseline </t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>Plasma</t>
-  </si>
-  <si>
-    <t>EDTA Tube</t>
-  </si>
-  <si>
-    <t>mL</t>
-  </si>
-  <si>
-    <t>FFPE block #52</t>
-  </si>
-  <si>
-    <t>Usable for Assay</t>
-  </si>
-  <si>
-    <t>Replacement Tested</t>
-  </si>
-  <si>
-    <t>Aliquot Exhausted</t>
-  </si>
-  <si>
-    <t>ALIQUOT STATUS</t>
-  </si>
-  <si>
-    <t>ALIQUOT REPLACEMENT</t>
-  </si>
-  <si>
-    <t>ALIQUOT QUALITY STATUS</t>
-  </si>
-  <si>
-    <t>test_prism_trial_id</t>
-  </si>
-  <si>
-    <t>GENOMIC SOURCE</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>CIMAC ID</t>
-  </si>
-  <si>
-    <t>CM-TEST-PART-01</t>
+    <t>Specimen shipment received in good condition</t>
+  </si>
+  <si>
+    <t>ship from</t>
+  </si>
+  <si>
+    <t>ship to</t>
+  </si>
+  <si>
+    <t>CM-TEST-PA01-A1</t>
+  </si>
+  <si>
+    <t>Tumor_Pre_1</t>
+  </si>
+  <si>
+    <t>ADRENAL GLANDS</t>
+  </si>
+  <si>
+    <t>C00.2</t>
+  </si>
+  <si>
+    <t>External lower lip</t>
+  </si>
+  <si>
+    <t>8003/3</t>
+  </si>
+  <si>
+    <t>Neoplasm, malignant</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Black/African American</t>
+  </si>
+  <si>
+    <t>Not Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>RESPONDER</t>
+  </si>
+  <si>
+    <t>ARM B</t>
+  </si>
+  <si>
+    <t>TRIALGROUP 1</t>
+  </si>
+  <si>
+    <t>BIOBANK 1</t>
+  </si>
+  <si>
+    <t>Level_1_starting</t>
+  </si>
+  <si>
+    <t>Tumor</t>
+  </si>
+  <si>
+    <t>Noncompliant_tissue_fixation_over_36_hrs</t>
+  </si>
+  <si>
+    <t>Blood</t>
+  </si>
+  <si>
+    <t>Core Biopsy</t>
+  </si>
+  <si>
+    <t>Stool collection container with DNA stabilizer</t>
+  </si>
+  <si>
+    <t>Not Reported</t>
+  </si>
+  <si>
+    <t>Milliliters</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Sample received from CIMAC</t>
+  </si>
+  <si>
+    <t>Sample Returned</t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -806,12 +1139,6 @@
     <font>
       <sz val="10"/>
       <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -882,21 +1209,23 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1235,10 +1564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z217"/>
+  <dimension ref="A1:F224"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C2" sqref="C2:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1247,711 +1576,339 @@
     <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-    </row>
-    <row r="2" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-    </row>
-    <row r="3" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="C2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-    </row>
-    <row r="4" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="C3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-    </row>
-    <row r="5" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="C4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-    </row>
-    <row r="6" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="C5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-    </row>
-    <row r="7" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="C6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1">
-        <v>123</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-    </row>
-    <row r="8" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1">
-        <v>321</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-    </row>
-    <row r="9" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1">
-        <v>123</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-    </row>
-    <row r="10" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-    </row>
-    <row r="11" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="C10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-    </row>
-    <row r="12" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="C11" s="2">
+        <v>123</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1">
-        <v>12345678</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-    </row>
-    <row r="13" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="C12" s="2">
+        <v>123</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-    </row>
-    <row r="14" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="C13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="3">
-        <v>41590</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-    </row>
-    <row r="15" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="C14" s="5">
+        <v>37174</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-    </row>
-    <row r="16" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="C15" s="5">
+        <v>37539</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-    </row>
-    <row r="17" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="C16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>1</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-    </row>
-    <row r="18" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-    </row>
-    <row r="19" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -2881,47 +2838,60 @@
         <v>24</v>
       </c>
     </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:Z1"/>
+    <mergeCell ref="B1:F1"/>
   </mergeCells>
-  <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{10701B2F-C0C6-C44B-B423-FC17011593C8}">
       <formula1>"Assay-1,Assay-2,Assay-3,Assay-4,Assay-5,Assay-6,Assay-7,Assay-8,Assay-9,Assay-10,Assay-11,Assay-12,Assay-13,Assay-14,Assay-15,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{D988D5F7-140E-4F4C-A49A-7DEDEB31A676}">
       <formula1>"FEDEX,USPS,UPC"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{D1688E35-AE77-744D-B349-B1CF85F2138A}">
       <formula1>"Frozen (Dry Ice),Frozen (Dry Shipper),Ambient (Ice Pack),Ambient,Other"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="C14" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="C14:C15" xr:uid="{EDA8B141-47CD-8E44-861D-17AE10001EE5}">
       <formula1>AND(ISNUMBER(C14),LEFT(CELL("format",C14),1)="D")</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="L20:L217 J20:J217" xr:uid="{00000000-0002-0000-0000-000004000000}">
-      <formula1>AND(ISNUMBER(J20:J219),LEFT(CELL("format",J20:J219),1)="D")</formula1>
-    </dataValidation>
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter time in format hh:mm" sqref="M20:M217 K20:K217" xr:uid="{00000000-0002-0000-0000-000005000000}">
-      <formula1>0</formula1>
-      <formula2>0.999305555555555</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O20:O217" xr:uid="{00000000-0002-0000-0000-000008000000}">
-      <formula1>"Core Needle Biopsy,Surgical Resection,Endoscopic Biopsy,Punch Biopsy,Plasma,PBMC,Whole Blood,Stool Sample,Bone Marrow Aspirate,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P20:P217" xr:uid="{00000000-0002-0000-0000-000009000000}">
-      <formula1>"FFPE Block,FFPE Scroll,FFPE Core Punch,Unstained Slide,Frozen Tissue,Sodium Heparin Green-Top Tube,Streck Tube,EDTA Tube,Archival FFPE Block,Archival FFPE Slides,Archival FFPE Core Punch,Archival FFPE Scroll,Frozen Stool,DNA-Preserved Stool,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S20:S217" xr:uid="{00000000-0002-0000-0000-00000A000000}">
-      <formula1>"µL,mL,mg,ng,Vials,Slides,Scrolls,Blocks,ng/µL,cells/ml,N/A,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X20:X217" xr:uid="{00000000-0002-0000-0000-00000B000000}">
-      <formula1>"Usable for Assay,Not Usable for Assay,Verifying,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y20:Y217" xr:uid="{00000000-0002-0000-0000-00000C000000}">
-      <formula1>"Replacement Requested,Replacement Tested,N/A"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z20:Z217" xr:uid="{00000000-0002-0000-0000-00000D000000}">
-      <formula1>"Aliquot Returned,Aliquot Exhausted,Remainder used for other Assay,Other,Aliquot Leftover"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16" xr:uid="{C933B8BB-D59C-C14D-AC0F-32A5E5DD89A0}">
+      <formula1>"Specimen shipment received in good condition,Specimen shipment received in poor condition,Not Reported,Other"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2930,257 +2900,1424 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388937D4-38F1-4D4B-8CBD-B4257A889C3B}">
-  <dimension ref="A1:X202"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y1:Y1048576"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="B3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
-    <col min="2" max="98" width="30.6640625" customWidth="1"/>
+    <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D202" xr:uid="{00000000-0002-0000-0100-000000000000}">
+      <formula1>"ACCESSORY SINUS, NOS,ADRENAL GLANDS,ANAL CANAL &amp; ANUS,APPENDIX,BASE OF TONGUE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E202" xr:uid="{00000000-0002-0000-0100-000001000000}">
+      <formula1>"C00,C00.0,C00.1,C00.2,C00.3,C00.4,C00.5,C00.6,C00.8,C00.9,C01,C01.9"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F202" xr:uid="{00000000-0002-0000-0100-000002000000}">
+      <formula1>"LIP,External upper lip,External lower lip,External lip, NOS,Mucosa of upper lip,Mucosa of lower lip,Mucosa of lip, NOS,Commissure of lip,Overlapping lesion of lip,Lip, NOS"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G202" xr:uid="{00000000-0002-0000-0100-000003000000}">
+      <formula1>"8000/3,8001/3,8002/3,8003/3,8004/3,8005/3,8010/2,8010/3,8011/3"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H202" xr:uid="{00000000-0002-0000-0100-000004000000}">
+      <formula1>"Neoplasm, malignant,Tumor cells, malignant,Malignant tumor, small cell type,Malignant tumor, giant cell type,Malignant tumor, spindle cell type,Malignant tumor, clear cell type"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I202" xr:uid="{00000000-0002-0000-0100-000005000000}">
+      <formula1>"Male,Female,Not Specified,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J202" xr:uid="{00000000-0002-0000-0100-000006000000}">
+      <formula1>"American Indian/Alaska Native,Asian,Black/African American,Native Hawaiian/Pacific Islander,White,Not Reported,Unknown,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K202" xr:uid="{00000000-0002-0000-0100-000007000000}">
+      <formula1>"Hispanic or Latino,Not Hispanic or Latino,Not reported,Unknown,Other"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AC202"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="101" width="30.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
       <c r="B3">
         <v>54321</v>
       </c>
-      <c r="C3">
-        <v>54321</v>
-      </c>
-      <c r="D3">
-        <v>12345</v>
-      </c>
-      <c r="E3">
-        <v>54321</v>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="5">
-        <v>41590</v>
+        <v>89</v>
+      </c>
+      <c r="G3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" t="s">
+        <v>91</v>
       </c>
       <c r="J3" s="6">
-        <v>0.42430555555555555</v>
-      </c>
-      <c r="K3" s="5">
-        <v>41590</v>
+        <v>37174</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0.33333333333333331</v>
       </c>
       <c r="L3" s="6">
-        <v>0.42430555555555555</v>
-      </c>
-      <c r="M3" t="s">
-        <v>53</v>
+        <v>37174</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0.33333333333333331</v>
       </c>
       <c r="N3" t="s">
-        <v>54</v>
-      </c>
-      <c r="O3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P3">
+        <v>92</v>
+      </c>
+      <c r="O3">
+        <v>123</v>
+      </c>
+      <c r="P3" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>94</v>
+      </c>
+      <c r="R3" t="s">
+        <v>95</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3" t="s">
+        <v>96</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3" t="s">
+        <v>97</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB3" t="s">
         <v>100</v>
       </c>
-      <c r="Q3">
-        <v>100</v>
-      </c>
-      <c r="R3" t="s">
-        <v>56</v>
-      </c>
-      <c r="S3" t="s">
-        <v>57</v>
-      </c>
-      <c r="T3">
-        <v>123</v>
-      </c>
-      <c r="U3">
-        <v>122</v>
-      </c>
-      <c r="V3" t="s">
-        <v>58</v>
-      </c>
-      <c r="W3" t="s">
-        <v>59</v>
-      </c>
-      <c r="X3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="AC3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -4117,34 +5254,46 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:S1"/>
-    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="B1:U1"/>
+    <mergeCell ref="V1:AC1"/>
   </mergeCells>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R202" xr:uid="{8212F2F7-7ECF-DA41-8CE0-ABE0AFEA044B}">
-      <formula1>"µL,mL,mg,ng,Vials,Slides,Scrolls,Blocks,ng/µL,cells/ml,N/A,Other"</formula1>
+  <dataValidations count="12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I202" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>"Tumor,Normal,Metastasis"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O202" xr:uid="{2D56F86E-B097-CA44-A3AC-D5CEA00E0D30}">
-      <formula1>"FFPE Block,FFPE Scroll,FFPE Core Punch,Unstained Slide,Frozen Tissue,Sodium Heparin Green-Top Tube,Streck Tube,EDTA Tube,Archival FFPE Block,Archival FFPE Slides,Archival FFPE Core Punch,Archival FFPE Scroll,Frozen Stool,DNA-Preserved Stool,Other"</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="L3:L202 J3:J202" xr:uid="{00000000-0002-0000-0200-000001000000}">
+      <formula1>AND(ISNUMBER(J3:J202),LEFT(CELL("format",J3:J202),1)="D")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N202" xr:uid="{54EF59A4-65D5-3342-8D9C-EC7642236E05}">
-      <formula1>"Core Needle Biopsy,Surgical Resection,Endoscopic Biopsy,Punch Biopsy,Plasma,PBMC,Whole Blood,Stool Sample,Bone Marrow Aspirate,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter time in format hh:mm" sqref="J3:J202 L3:L202" xr:uid="{D56F8F14-3D50-A049-99CD-46CB3556FCA9}">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter time in format hh:mm" sqref="M3:M202 K3:K202" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>0</formula1>
       <formula2>0.999305555555555</formula2>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="I3:I202 K3:K202" xr:uid="{7B9A35E8-02E2-6B4C-A415-26E5865B99F6}">
-      <formula1>AND(ISNUMBER(I3:I202),LEFT(CELL("format",I3:I202),1)="D")</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N202" xr:uid="{00000000-0002-0000-0200-000005000000}">
+      <formula1>"Compliant_processing,Noncompliant_tissue_fixation_24_to_36_hrs,Noncompliant_tissue_fixation_over_36_hrs,Noncompliant_blood_processing_ 24_to_48_hrs,Noncompliant_blood_processing_over_48_hrs,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X4 X6:X202 X1" xr:uid="{50E8F547-A5F4-6041-B05C-A9FDF94D9571}">
-      <formula1>"Aliquot Returned,Aliquot Exhausted,Remainder used for other Assay,Other,Aliquot Leftover"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P202" xr:uid="{00000000-0002-0000-0200-000006000000}">
+      <formula1>"Tumor Tissue,Normal Tissue,Skin Tissue,Blood,Bone Marrow,Cerebrospinal Fluid,Stool,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W4 W6:W202 W1" xr:uid="{21FFDD75-584F-9C45-B2B2-E450ADF3AE38}">
-      <formula1>"Replacement Requested,Replacement Tested,N/A"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q202" xr:uid="{00000000-0002-0000-0200-000007000000}">
+      <formula1>"Blood Draw,Excision,Core Biopsy,Punch Biopsy,Endoscopic Biopsy,Bone Marrow Core Biopsy,Bone Marrow Aspirate,Lumbar Puncture,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V4 V6:V202 V1" xr:uid="{9710329D-B696-B747-AE31-30F14637C5A3}">
-      <formula1>"Usable for Assay,Not Usable for Assay,Verifying,Other"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R202" xr:uid="{00000000-0002-0000-0200-000008000000}">
+      <formula1>"Sodium heparin,Blood specimen container with EDTA,Potassium EDTA,Streck Blood Collection Tube,Stool collection container with DNA stabilizer,Not Reported,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U202" xr:uid="{00000000-0002-0000-0200-000009000000}">
+      <formula1>"Microliter,Milliliter,Not Reported,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y202 W3:W202" xr:uid="{00000000-0002-0000-0200-00000A000000}">
+      <formula1>"Microliters,Milliliters,Nanogram per Microliter,Milligram per Milliliter,Micrograms per Microliter,Cells per Vial,Not Reported,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z3:Z202" xr:uid="{00000000-0002-0000-0200-00000C000000}">
+      <formula1>"Pass,Fail,Not Reported,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AA202" xr:uid="{00000000-0002-0000-0200-00000D000000}">
+      <formula1>"Sample Sent to Another Lab,Sample received from CIMAC,Not Reported,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB3:AB202" xr:uid="{00000000-0002-0000-0200-00000E000000}">
+      <formula1>"Sample Returned,Sample Sent to Another Lab,Sample received from CIMAC,Not Reported,Other"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template_examples/plasma_template.xlsx
+++ b/template_examples/plasma_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/code/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B4900AF-ADC9-1F4F-B635-C7E0AAE30854}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A086E6B-85B9-5540-B13D-F0670746574C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="720" windowWidth="24280" windowHeight="13280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9820" yWindow="1560" windowWidth="24680" windowHeight="12460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shipment" sheetId="1" r:id="rId1"/>
@@ -760,11 +760,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Units for the amount of material remaining.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Final status of sample after QC and pathology review.</t>
         </r>
       </text>
     </comment>
-    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001A000000}">
+    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -777,7 +790,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001B000000}">
+    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -790,7 +803,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001C000000}">
+    <comment ref="AD2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -808,7 +821,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="104">
   <si>
     <t>#t</t>
   </si>
@@ -996,6 +1009,9 @@
     <t>MATERIAL REMAINING UNITS</t>
   </si>
   <si>
+    <t>MATERIAL STORAGE CONDITION</t>
+  </si>
+  <si>
     <t>QUALITY OF SAMPLE</t>
   </si>
   <si>
@@ -1114,6 +1130,9 @@
   </si>
   <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t>(-20)oC</t>
   </si>
 </sst>
 </file>
@@ -1169,7 +1188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1203,15 +1222,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1220,6 +1258,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
@@ -1576,297 +1620,297 @@
     <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="C3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="C5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="C6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="C10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>123</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>123</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="C13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="6">
         <v>37174</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="6">
         <v>37539</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="C16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="C20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="C21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -2878,19 +2922,19 @@
     <mergeCell ref="B1:F1"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{10701B2F-C0C6-C44B-B423-FC17011593C8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{78867842-8ABC-D849-9F66-AE59B4EEBCE0}">
       <formula1>"Assay-1,Assay-2,Assay-3,Assay-4,Assay-5,Assay-6,Assay-7,Assay-8,Assay-9,Assay-10,Assay-11,Assay-12,Assay-13,Assay-14,Assay-15,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{D988D5F7-140E-4F4C-A49A-7DEDEB31A676}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{0B86C6B9-1F94-0D45-B32F-A3CDF0B39D22}">
       <formula1>"FEDEX,USPS,UPC"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{D1688E35-AE77-744D-B349-B1CF85F2138A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{573B7453-86F8-604B-AABE-4F637DC9ECAA}">
       <formula1>"Frozen (Dry Ice),Frozen (Dry Shipper),Ambient (Ice Pack),Ambient,Other"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="C14:C15" xr:uid="{EDA8B141-47CD-8E44-861D-17AE10001EE5}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="C14:C15" xr:uid="{2AEE5588-5CCE-C645-9113-401982D9F88A}">
       <formula1>AND(ISNUMBER(C14),LEFT(CELL("format",C14),1)="D")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16" xr:uid="{C933B8BB-D59C-C14D-AC0F-32A5E5DD89A0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16" xr:uid="{9D70B1DA-E00E-2A40-A607-DAFEF1356309}">
       <formula1>"Specimen shipment received in good condition,Specimen shipment received in poor condition,Not Reported,Other"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2903,7 +2947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K202"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="B3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -2913,55 +2957,56 @@
     <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2970,34 +3015,34 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -3996,9 +4041,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D202" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -4033,10 +4079,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AC202"/>
+  <dimension ref="A1:AD202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4045,130 +4091,134 @@
     <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AA2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AB2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AC2" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD2" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -4176,52 +4226,52 @@
         <v>54321</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J3" s="6">
+        <v>92</v>
+      </c>
+      <c r="J3" s="7">
         <v>37174</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="7">
         <v>37174</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="N3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O3">
         <v>123</v>
       </c>
       <c r="P3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="S3">
         <v>1</v>
@@ -4230,22 +4280,22 @@
         <v>1</v>
       </c>
       <c r="U3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="V3">
         <v>1</v>
       </c>
       <c r="W3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="X3">
         <v>1</v>
       </c>
       <c r="Y3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Z3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="AA3" t="s">
         <v>99</v>
@@ -4256,68 +4306,71 @@
       <c r="AC3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -5255,9 +5308,9 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:U1"/>
-    <mergeCell ref="V1:AC1"/>
+    <mergeCell ref="V1:AD1"/>
   </mergeCells>
-  <dataValidations count="12">
+  <dataValidations count="13">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I202" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Tumor,Normal,Metastasis"</formula1>
     </dataValidation>
@@ -5287,12 +5340,15 @@
       <formula1>"Microliters,Milliliters,Nanogram per Microliter,Milligram per Milliliter,Micrograms per Microliter,Cells per Vial,Not Reported,Other"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z3:Z202" xr:uid="{00000000-0002-0000-0200-00000C000000}">
+      <formula1>"RT,4oC,(-20)oC,(-80)oC,LN,Not Reported,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AA202" xr:uid="{00000000-0002-0000-0200-00000D000000}">
       <formula1>"Pass,Fail,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AA202" xr:uid="{00000000-0002-0000-0200-00000D000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB3:AB202" xr:uid="{00000000-0002-0000-0200-00000E000000}">
       <formula1>"Sample Sent to Another Lab,Sample received from CIMAC,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB3:AB202" xr:uid="{00000000-0002-0000-0200-00000E000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC202" xr:uid="{00000000-0002-0000-0200-00000F000000}">
       <formula1>"Sample Returned,Sample Sent to Another Lab,Sample received from CIMAC,Not Reported,Other"</formula1>
     </dataValidation>
   </dataValidations>

--- a/template_examples/plasma_template.xlsx
+++ b/template_examples/plasma_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/code/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A086E6B-85B9-5540-B13D-F0670746574C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB1448A-D504-4741-B34D-63A5A34D3E26}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9820" yWindow="1560" windowWidth="24680" windowHeight="12460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9820" yWindow="1560" windowWidth="24680" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shipment" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -832,9 +832,6 @@
     <t>#p</t>
   </si>
   <si>
-    <t>PROTOCOL ID</t>
-  </si>
-  <si>
     <t>MANIFEST ID</t>
   </si>
   <si>
@@ -1133,13 +1130,16 @@
   </si>
   <si>
     <t>(-20)oC</t>
+  </si>
+  <si>
+    <t>PROTOCOL IDENTIFIER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1158,6 +1158,12 @@
     <font>
       <sz val="10"/>
       <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -1256,6 +1262,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1265,11 +1276,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1610,8 +1616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F224"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1624,23 +1630,23 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1651,10 +1657,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1665,10 +1671,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1679,10 +1685,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1693,10 +1699,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1707,7 +1713,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -1721,7 +1727,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -1735,7 +1741,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -1749,10 +1755,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1763,7 +1769,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1">
         <v>123</v>
@@ -1777,7 +1783,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1">
         <v>123</v>
@@ -1791,10 +1797,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1805,9 +1811,9 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="6">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3">
         <v>37174</v>
       </c>
       <c r="D14" s="1"/>
@@ -1819,9 +1825,9 @@
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="6">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3">
         <v>37539</v>
       </c>
       <c r="D15" s="1"/>
@@ -1833,10 +1839,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1847,7 +1853,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -1861,7 +1867,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -1875,7 +1881,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -1889,10 +1895,10 @@
         <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1903,10 +1909,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1914,1007 +1920,1007 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2958,1086 +2964,1086 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
         <v>77</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>78</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>79</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>80</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>81</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>82</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>83</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>84</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>85</v>
-      </c>
-      <c r="K3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -4081,7 +4087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+    <sheetView topLeftCell="X1" workbookViewId="0">
       <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
@@ -4092,186 +4098,186 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>54321</v>
       </c>
       <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
         <v>87</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>88</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>89</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" t="s">
         <v>90</v>
       </c>
-      <c r="G3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>91</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" s="4">
+        <v>37174</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L3" s="4">
+        <v>37174</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N3" t="s">
         <v>92</v>
-      </c>
-      <c r="J3" s="7">
-        <v>37174</v>
-      </c>
-      <c r="K3" s="8">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L3" s="7">
-        <v>37174</v>
-      </c>
-      <c r="M3" s="8">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N3" t="s">
-        <v>93</v>
       </c>
       <c r="O3">
         <v>123</v>
       </c>
       <c r="P3" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q3" t="s">
         <v>94</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>95</v>
-      </c>
-      <c r="R3" t="s">
-        <v>96</v>
       </c>
       <c r="S3">
         <v>1</v>
@@ -4280,1029 +4286,1029 @@
         <v>1</v>
       </c>
       <c r="U3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V3">
         <v>1</v>
       </c>
       <c r="W3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X3">
         <v>1</v>
       </c>
       <c r="Y3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA3" t="s">
         <v>98</v>
       </c>
-      <c r="Z3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>99</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>100</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>101</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/template_examples/plasma_template.xlsx
+++ b/template_examples/plasma_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/code/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB1448A-D504-4741-B34D-63A5A34D3E26}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF15ADB-DCC8-B04C-AC45-2F9639EF4E83}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9820" yWindow="1560" windowWidth="24680" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9820" yWindow="1560" windowWidth="24680" windowHeight="12460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shipment" sheetId="1" r:id="rId1"/>
@@ -53,25 +53,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assigns a request identifier (mandatory or optional) for the assay.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -79,12 +66,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -92,25 +79,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>The number corresponding to the batch sent for this assay.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -118,20 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assay run number for samples received.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -144,12 +105,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -157,12 +118,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -170,12 +131,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -183,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -196,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -209,12 +170,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -222,7 +183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -235,38 +196,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Number of Sample(s) Received in Good Condition.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Number of pathology report(s) received.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -274,12 +209,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -465,20 +400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Identifies the trial arm to which the participant belongs. Example: Arm A.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -491,7 +413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -504,7 +426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -517,7 +439,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -530,7 +452,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -543,59 +465,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Date of blood collection.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Time of blood collection.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Date of blood processing.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Time of blood processing.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -608,7 +478,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -621,7 +491,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -634,7 +504,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
       <text>
         <r>
           <rPr>
@@ -647,7 +517,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000011000000}">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000011000000}">
       <text>
         <r>
           <rPr>
@@ -660,7 +530,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000012000000}">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000012000000}">
       <text>
         <r>
           <rPr>
@@ -673,7 +543,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
       <text>
         <r>
           <rPr>
@@ -686,7 +556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000014000000}">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000014000000}">
       <text>
         <r>
           <rPr>
@@ -699,7 +569,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000015000000}">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000015000000}">
       <text>
         <r>
           <rPr>
@@ -712,7 +582,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000016000000}">
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000016000000}">
       <text>
         <r>
           <rPr>
@@ -725,7 +595,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000017000000}">
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000017000000}">
       <text>
         <r>
           <rPr>
@@ -738,7 +608,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000018000000}">
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000018000000}">
       <text>
         <r>
           <rPr>
@@ -751,7 +621,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000019000000}">
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000019000000}">
       <text>
         <r>
           <rPr>
@@ -764,7 +634,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001A000000}">
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -777,7 +647,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001B000000}">
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -790,7 +660,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001C000000}">
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -803,7 +673,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001D000000}">
+    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -821,7 +691,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="92">
   <si>
     <t>#t</t>
   </si>
@@ -835,24 +705,15 @@
     <t>MANIFEST ID</t>
   </si>
   <si>
-    <t>REQUEST</t>
-  </si>
-  <si>
     <t>ASSAY PRIORITY</t>
   </si>
   <si>
     <t>ASSAY TYPE</t>
   </si>
   <si>
-    <t>BATCH NUMBER</t>
-  </si>
-  <si>
     <t>BOX NUMBER</t>
   </si>
   <si>
-    <t>ASSAY RUN NUMBER</t>
-  </si>
-  <si>
     <t>COURIER</t>
   </si>
   <si>
@@ -877,12 +738,6 @@
     <t>NUM OF SAMPLES SHIPPED</t>
   </si>
   <si>
-    <t>NUM OF SAMPLES GOOD</t>
-  </si>
-  <si>
-    <t>NUM OF PATH REPORT</t>
-  </si>
-  <si>
     <t>SHIP FROM</t>
   </si>
   <si>
@@ -946,9 +801,6 @@
     <t>COHORT NAME</t>
   </si>
   <si>
-    <t>ARM ID</t>
-  </si>
-  <si>
     <t>PARENT SAMPLE ID</t>
   </si>
   <si>
@@ -958,18 +810,6 @@
     <t>GENOMIC SOURCE</t>
   </si>
   <si>
-    <t>BLOOD COLLECTION DATE</t>
-  </si>
-  <si>
-    <t>BLOOD COLLECTION TIME</t>
-  </si>
-  <si>
-    <t>BLOOD PROCESSING DATE</t>
-  </si>
-  <si>
-    <t>BLOOD PROCESSING TIME</t>
-  </si>
-  <si>
     <t>SAMPLE PROCESSING COMPLIANCE</t>
   </si>
   <si>
@@ -1027,9 +867,6 @@
     <t>TEST123_plasma</t>
   </si>
   <si>
-    <t>value</t>
-  </si>
-  <si>
     <t>Assay-1</t>
   </si>
   <si>
@@ -1082,9 +919,6 @@
   </si>
   <si>
     <t>RESPONDER</t>
-  </si>
-  <si>
-    <t>ARM B</t>
   </si>
   <si>
     <t>TRIALGROUP 1</t>
@@ -1254,7 +1088,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
@@ -1265,8 +1099,6 @@
     <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1614,10 +1446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F224"/>
+  <dimension ref="A1:F219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1630,23 +1462,23 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1660,7 +1492,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1674,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1688,7 +1520,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1701,8 +1533,8 @@
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>70</v>
+      <c r="C6" s="1">
+        <v>1</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1715,8 +1547,8 @@
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1">
-        <v>1</v>
+      <c r="C7" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1730,7 +1562,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1744,7 +1576,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1758,7 +1590,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1771,8 +1603,8 @@
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1">
-        <v>123</v>
+      <c r="C11" s="3">
+        <v>37174</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1785,14 +1617,14 @@
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="1">
-        <v>123</v>
+      <c r="C12" s="3">
+        <v>37539</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1800,7 +1632,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1813,8 +1645,8 @@
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="3">
-        <v>37174</v>
+      <c r="C14" s="1">
+        <v>1</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1827,14 +1659,14 @@
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="3">
-        <v>37539</v>
+      <c r="C15" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1842,1085 +1674,1015 @@
         <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2928,19 +2690,19 @@
     <mergeCell ref="B1:F1"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{78867842-8ABC-D849-9F66-AE59B4EEBCE0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{78867842-8ABC-D849-9F66-AE59B4EEBCE0}">
       <formula1>"Assay-1,Assay-2,Assay-3,Assay-4,Assay-5,Assay-6,Assay-7,Assay-8,Assay-9,Assay-10,Assay-11,Assay-12,Assay-13,Assay-14,Assay-15,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{0B86C6B9-1F94-0D45-B32F-A3CDF0B39D22}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{0B86C6B9-1F94-0D45-B32F-A3CDF0B39D22}">
       <formula1>"FEDEX,USPS,UPC"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{573B7453-86F8-604B-AABE-4F637DC9ECAA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{573B7453-86F8-604B-AABE-4F637DC9ECAA}">
       <formula1>"Frozen (Dry Ice),Frozen (Dry Shipper),Ambient (Ice Pack),Ambient,Other"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="C14:C15" xr:uid="{2AEE5588-5CCE-C645-9113-401982D9F88A}">
-      <formula1>AND(ISNUMBER(C14),LEFT(CELL("format",C14),1)="D")</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="C11:C12" xr:uid="{2AEE5588-5CCE-C645-9113-401982D9F88A}">
+      <formula1>AND(ISNUMBER(C11),LEFT(CELL("format",C11),1)="D")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16" xr:uid="{9D70B1DA-E00E-2A40-A607-DAFEF1356309}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{9D70B1DA-E00E-2A40-A607-DAFEF1356309}">
       <formula1>"Specimen shipment received in good condition,Specimen shipment received in poor condition,Not Reported,Other"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2964,1086 +2726,1086 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="J3" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="K3" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -4085,1276 +3847,1234 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AD202"/>
+  <dimension ref="A1:Y202"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
-    <col min="2" max="101" width="30.6640625" customWidth="1"/>
+    <col min="2" max="96" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6" t="s">
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>54321</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J3" s="4">
-        <v>37174</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L3" s="4">
-        <v>37174</v>
-      </c>
-      <c r="M3" s="5">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N3" t="s">
-        <v>92</v>
+        <v>80</v>
+      </c>
+      <c r="J3">
+        <v>123</v>
+      </c>
+      <c r="K3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>94</v>
+        <v>84</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
       </c>
       <c r="R3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="S3">
         <v>1</v>
       </c>
-      <c r="T3">
-        <v>1</v>
+      <c r="T3" t="s">
+        <v>85</v>
       </c>
       <c r="U3" t="s">
-        <v>96</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="V3" t="s">
+        <v>86</v>
       </c>
       <c r="W3" t="s">
-        <v>97</v>
-      </c>
-      <c r="X3">
-        <v>1</v>
+        <v>87</v>
+      </c>
+      <c r="X3" t="s">
+        <v>88</v>
       </c>
       <c r="Y3" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:U1"/>
-    <mergeCell ref="V1:AD1"/>
+    <mergeCell ref="B1:P1"/>
+    <mergeCell ref="Q1:Y1"/>
   </mergeCells>
-  <dataValidations count="13">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I202" xr:uid="{00000000-0002-0000-0200-000000000000}">
+  <dataValidations count="11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H202" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Tumor,Normal,Metastasis"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="L3:L202 J3:J202" xr:uid="{00000000-0002-0000-0200-000001000000}">
-      <formula1>AND(ISNUMBER(J3:J202),LEFT(CELL("format",J3:J202),1)="D")</formula1>
-    </dataValidation>
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter time in format hh:mm" sqref="M3:M202 K3:K202" xr:uid="{00000000-0002-0000-0200-000002000000}">
-      <formula1>0</formula1>
-      <formula2>0.999305555555555</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N202" xr:uid="{00000000-0002-0000-0200-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I202" xr:uid="{00000000-0002-0000-0200-000005000000}">
       <formula1>"Compliant_processing,Noncompliant_tissue_fixation_24_to_36_hrs,Noncompliant_tissue_fixation_over_36_hrs,Noncompliant_blood_processing_ 24_to_48_hrs,Noncompliant_blood_processing_over_48_hrs,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P202" xr:uid="{00000000-0002-0000-0200-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K202" xr:uid="{00000000-0002-0000-0200-000006000000}">
       <formula1>"Tumor Tissue,Normal Tissue,Skin Tissue,Blood,Bone Marrow,Cerebrospinal Fluid,Stool,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q202" xr:uid="{00000000-0002-0000-0200-000007000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L202" xr:uid="{00000000-0002-0000-0200-000007000000}">
       <formula1>"Blood Draw,Excision,Core Biopsy,Punch Biopsy,Endoscopic Biopsy,Bone Marrow Core Biopsy,Bone Marrow Aspirate,Lumbar Puncture,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R202" xr:uid="{00000000-0002-0000-0200-000008000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M202" xr:uid="{00000000-0002-0000-0200-000008000000}">
       <formula1>"Sodium heparin,Blood specimen container with EDTA,Potassium EDTA,Streck Blood Collection Tube,Stool collection container with DNA stabilizer,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U202" xr:uid="{00000000-0002-0000-0200-000009000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P202" xr:uid="{00000000-0002-0000-0200-000009000000}">
       <formula1>"Microliter,Milliliter,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y202 W3:W202" xr:uid="{00000000-0002-0000-0200-00000A000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T202 R3:R202" xr:uid="{00000000-0002-0000-0200-00000A000000}">
       <formula1>"Microliters,Milliliters,Nanogram per Microliter,Milligram per Milliliter,Micrograms per Microliter,Cells per Vial,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z3:Z202" xr:uid="{00000000-0002-0000-0200-00000C000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U202" xr:uid="{00000000-0002-0000-0200-00000C000000}">
       <formula1>"RT,4oC,(-20)oC,(-80)oC,LN,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AA202" xr:uid="{00000000-0002-0000-0200-00000D000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V202" xr:uid="{00000000-0002-0000-0200-00000D000000}">
       <formula1>"Pass,Fail,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB3:AB202" xr:uid="{00000000-0002-0000-0200-00000E000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W202" xr:uid="{00000000-0002-0000-0200-00000E000000}">
       <formula1>"Sample Sent to Another Lab,Sample received from CIMAC,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC202" xr:uid="{00000000-0002-0000-0200-00000F000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X202" xr:uid="{00000000-0002-0000-0200-00000F000000}">
       <formula1>"Sample Returned,Sample Sent to Another Lab,Sample received from CIMAC,Not Reported,Other"</formula1>
     </dataValidation>
   </dataValidations>

--- a/template_examples/plasma_template.xlsx
+++ b/template_examples/plasma_template.xlsx
@@ -8,16 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/code/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF15ADB-DCC8-B04C-AC45-2F9639EF4E83}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E05448-8889-0B46-9B39-EA1365F5A309}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9820" yWindow="1560" windowWidth="24680" windowHeight="12460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9820" yWindow="1560" windowWidth="24680" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shipment" sheetId="1" r:id="rId1"/>
     <sheet name="Essential Patient Data" sheetId="2" r:id="rId2"/>
     <sheet name="Samples" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -27,20 +35,7 @@
     <author>CIDC</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Trial identifier used by lead organization, ie. Center for Experimental Therapeutics Program (CTEP) ID or Industry Sponsored ID.  This is usually a short identifier. Example: E4412.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{360103EB-8164-664D-A0FB-E31AEEF88BB4}">
       <text>
         <r>
           <rPr>
@@ -53,7 +48,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{1C306A4F-CE6E-F54B-BA0B-D77EA66F51A2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Trial identifier used by lead organization, ie. Center for Experimental Therapeutics Program (CTEP) ID or Industry Sponsored ID.  This is usually a short identifier. Example: E4412.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{A7D0E3C6-0874-4246-8D31-D0B96FF35DDD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Priority of the assay as it appears on the intake form.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{B7FFD1B2-D89F-7D43-A032-5774F41CC8DA}">
       <text>
         <r>
           <rPr>
@@ -62,11 +83,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Priority of the assay as it appears on the intake form.</t>
+          <t>Assay and sample type used.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{35EC672E-3E12-4E41-8B50-80C9768E217A}">
       <text>
         <r>
           <rPr>
@@ -75,11 +96,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Assay and sample type used. Example: Green-top tube - Plasma (Olink).</t>
+          <t>Site where sample was shipped to be assayed.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{889AC744-9363-9944-A57A-D30BC1CD344A}">
       <text>
         <r>
           <rPr>
@@ -92,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{BF6876E5-84DF-9742-8515-4841188084FC}">
       <text>
         <r>
           <rPr>
@@ -105,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{980489B4-B67B-A94A-88B5-C313742505EC}">
       <text>
         <r>
           <rPr>
@@ -118,12 +139,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{CD28B9DF-268B-DE4A-9344-EDBEE2BD68AA}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -131,12 +152,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{25F3F54C-A9B3-8543-8CF8-525266B2E948}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -144,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{071B3CF9-791D-9C44-B62A-678377C23A6B}">
       <text>
         <r>
           <rPr>
@@ -157,7 +178,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{434CDD7C-E7D9-7848-8496-3B269B5DC54B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Date of receipt.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{620EDD77-15CC-3A49-B43D-D1E23959C719}">
       <text>
         <r>
           <rPr>
@@ -166,11 +200,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Date of receipt.</t>
+          <t>Indication that specimens were received in good condition.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{CFE24D36-5D4C-6E45-A9E7-495A749B3DC2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Contact information for shipment.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{9C1781D2-B6A3-EA4C-947D-8836792F983A}">
       <text>
         <r>
           <rPr>
@@ -179,46 +226,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Final status of aliquot after QC and pathology review.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Count of specimen(s) distributed by site.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Shipping from [free text: person or organization, address, phone number, email address.]</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Shipping to [free text: person or organization, address, phone number, email address.]</t>
+          <t>Physical shipping address of the destination.</t>
         </r>
       </text>
     </comment>
@@ -691,7 +699,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="94">
   <si>
     <t>#t</t>
   </si>
@@ -735,9 +743,6 @@
     <t>QUALITY OF SHIPMENT</t>
   </si>
   <si>
-    <t>NUM OF SAMPLES SHIPPED</t>
-  </si>
-  <si>
     <t>SHIP FROM</t>
   </si>
   <si>
@@ -867,18 +872,9 @@
     <t>TEST123_plasma</t>
   </si>
   <si>
-    <t>Assay-1</t>
-  </si>
-  <si>
-    <t>Not sure about this value</t>
-  </si>
-  <si>
     <t>USPS</t>
   </si>
   <si>
-    <t>Frozen (Dry Ice)</t>
-  </si>
-  <si>
     <t>Specimen shipment received in good condition</t>
   </si>
   <si>
@@ -967,6 +963,24 @@
   </si>
   <si>
     <t>PROTOCOL IDENTIFIER</t>
+  </si>
+  <si>
+    <t>Olink</t>
+  </si>
+  <si>
+    <t>RECEIVING PARTY</t>
+  </si>
+  <si>
+    <t>MDA_CIMAC</t>
+  </si>
+  <si>
+    <t>TrackN</t>
+  </si>
+  <si>
+    <t>AccN</t>
+  </si>
+  <si>
+    <t>Frozen_Dry_Ice</t>
   </si>
 </sst>
 </file>
@@ -1448,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F219"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1458,7 +1472,7 @@
     <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1470,12 +1484,12 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -1484,29 +1498,29 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>58</v>
+      <c r="C4" s="1">
+        <v>4</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1520,7 +1534,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1531,10 +1545,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
+        <v>89</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1545,10 +1559,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1559,10 +1573,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1">
-        <v>123</v>
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1573,80 +1587,80 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1">
-        <v>123</v>
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3">
-        <v>37174</v>
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="3">
-        <v>37539</v>
+        <v>37174</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>12</v>
+      </c>
+      <c r="C13" s="3">
+        <v>37539</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1657,10 +1671,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1671,10 +1685,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1682,1028 +1696,1034 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
   </mergeCells>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{78867842-8ABC-D849-9F66-AE59B4EEBCE0}">
-      <formula1>"Assay-1,Assay-2,Assay-3,Assay-4,Assay-5,Assay-6,Assay-7,Assay-8,Assay-9,Assay-10,Assay-11,Assay-12,Assay-13,Assay-14,Assay-15,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{0B86C6B9-1F94-0D45-B32F-A3CDF0B39D22}">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{0B86C6B9-1F94-0D45-B32F-A3CDF0B39D22}">
       <formula1>"FEDEX,USPS,UPC"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{573B7453-86F8-604B-AABE-4F637DC9ECAA}">
-      <formula1>"Frozen (Dry Ice),Frozen (Dry Shipper),Ambient (Ice Pack),Ambient,Other"</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="C12:C13" xr:uid="{2AEE5588-5CCE-C645-9113-401982D9F88A}">
+      <formula1>AND(ISNUMBER(C12),LEFT(CELL("format",C12),1)="D")</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="C11:C12" xr:uid="{2AEE5588-5CCE-C645-9113-401982D9F88A}">
-      <formula1>AND(ISNUMBER(C11),LEFT(CELL("format",C11),1)="D")</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14" xr:uid="{9D70B1DA-E00E-2A40-A607-DAFEF1356309}">
+      <formula1>"Specimen shipment received in good condition,Specimen shipment received in poor condition,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{9D70B1DA-E00E-2A40-A607-DAFEF1356309}">
-      <formula1>"Specimen shipment received in good condition,Specimen shipment received in poor condition,Not Reported,Other"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{C649DC40-9022-374C-9352-A66F53352BB1}">
+      <formula1>"Olink,Not Reported,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{E7BD11CE-54FD-0644-ACA7-B97309F1F483}">
+      <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,Not Reported,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11" xr:uid="{1B3F1846-600B-E040-A211-73717BB9C698}">
+      <formula1>"Frozen_Dry_Ice,Frozen_Shipper,Ice_Pack,Ambient,Not Reported,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{548FBDDA-CADC-2840-A6DC-55B1FCF9B871}">
+      <formula1>"MDA_CIMAC,MSSM_CIMAC,STAN_CIMAC,DFCI_CIMAC,Broad_CIMAC,FNLCR_MoCha,Nationwide Children's Hospital,Adaptive Biotechnologies,Not Reported,Other"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2715,7 +2735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K202"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -2727,1085 +2747,1085 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" t="s">
         <v>65</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
         <v>66</v>
       </c>
-      <c r="D3" t="s">
+      <c r="H3" t="s">
         <v>67</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
         <v>68</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
         <v>69</v>
       </c>
-      <c r="G3" t="s">
+      <c r="K3" t="s">
         <v>70</v>
-      </c>
-      <c r="H3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -3849,7 +3869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D2" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -3861,7 +3881,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -3878,7 +3898,7 @@
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
@@ -3891,120 +3911,120 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>54321</v>
       </c>
       <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" t="s">
         <v>75</v>
       </c>
-      <c r="D3" t="s">
+      <c r="I3" t="s">
         <v>76</v>
-      </c>
-      <c r="E3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I3" t="s">
-        <v>80</v>
       </c>
       <c r="J3">
         <v>123</v>
       </c>
       <c r="K3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -4013,1029 +4033,1029 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Q3">
         <v>1</v>
       </c>
       <c r="R3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="S3">
         <v>1</v>
       </c>
       <c r="T3" t="s">
+        <v>81</v>
+      </c>
+      <c r="U3" t="s">
+        <v>86</v>
+      </c>
+      <c r="V3" t="s">
+        <v>82</v>
+      </c>
+      <c r="W3" t="s">
+        <v>83</v>
+      </c>
+      <c r="X3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y3" t="s">
         <v>85</v>
-      </c>
-      <c r="U3" t="s">
-        <v>90</v>
-      </c>
-      <c r="V3" t="s">
-        <v>86</v>
-      </c>
-      <c r="W3" t="s">
-        <v>87</v>
-      </c>
-      <c r="X3" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/template_examples/plasma_template.xlsx
+++ b/template_examples/plasma_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/code/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E05448-8889-0B46-9B39-EA1365F5A309}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FDFA02-547C-6241-9137-13E7B4FEA58A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9820" yWindow="1560" windowWidth="24680" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9820" yWindow="1560" windowWidth="24680" windowHeight="12460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shipment" sheetId="1" r:id="rId1"/>
@@ -196,7 +196,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -245,7 +245,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -258,7 +258,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -382,12 +382,12 @@
     <author>CIDC</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{0A41D762-2EEF-0440-8716-9D84D8D2E033}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -395,12 +395,25 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{C651CFF8-A99C-7942-B385-91C71D85D265}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Categorical description of timepoint at which the sample was taken.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{69FC998A-A403-F54C-B0F7-A5E583AC1A4F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -408,12 +421,25 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{C7D08886-337B-534F-8D4D-9573813A1D3F}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Trial Participant Identifier. Example: PT123.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{CD4205A2-D69F-3F41-B5B6-C51EECDE5DA1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -421,12 +447,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{0A307C26-C75C-7547-94BA-5A1A10D689C4}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -434,12 +460,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{2F790BE6-1C36-AD4E-AA88-EE8B6BB90C40}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -447,51 +473,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Categorical description of timepoint at which the sample was taken.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>The type of material submitted - tumor/normal/etc</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Records if a sample processing (blood or tissue) is not compliant with protocol.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -499,7 +486,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -512,7 +499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
       <text>
         <r>
           <rPr>
@@ -525,7 +512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000011000000}">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000011000000}">
       <text>
         <r>
           <rPr>
@@ -538,12 +525,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000012000000}">
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{43119ABD-75B6-3A40-A60F-182CB67C07B1}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -551,33 +538,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Volume of aliquot shipped.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000014000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>The unit of biological material from this sample.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000015000000}">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000015000000}">
       <text>
         <r>
           <rPr>
@@ -590,7 +551,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000016000000}">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000016000000}">
       <text>
         <r>
           <rPr>
@@ -603,7 +564,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000017000000}">
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000017000000}">
       <text>
         <r>
           <rPr>
@@ -616,7 +577,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000018000000}">
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000018000000}">
       <text>
         <r>
           <rPr>
@@ -629,7 +590,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000019000000}">
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000019000000}">
       <text>
         <r>
           <rPr>
@@ -642,7 +603,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001A000000}">
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -655,7 +616,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001B000000}">
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -668,7 +629,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001C000000}">
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -681,7 +642,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001D000000}">
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -699,7 +660,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="110">
   <si>
     <t>#t</t>
   </si>
@@ -812,12 +773,6 @@
     <t>PROCESSED SAMPLE ID</t>
   </si>
   <si>
-    <t>GENOMIC SOURCE</t>
-  </si>
-  <si>
-    <t>SAMPLE PROCESSING COMPLIANCE</t>
-  </si>
-  <si>
     <t>SAMPLE LOCATION</t>
   </si>
   <si>
@@ -830,15 +785,6 @@
     <t>TYPE OF PRIMARY CONTAINER</t>
   </si>
   <si>
-    <t>QUANTITY</t>
-  </si>
-  <si>
-    <t>SAMPLE VOLUME</t>
-  </si>
-  <si>
-    <t>SAMPLE VOLUME UNITS</t>
-  </si>
-  <si>
     <t>MATERIAL USED</t>
   </si>
   <si>
@@ -926,12 +872,6 @@
     <t>Level_1_starting</t>
   </si>
   <si>
-    <t>Tumor</t>
-  </si>
-  <si>
-    <t>Noncompliant_tissue_fixation_over_36_hrs</t>
-  </si>
-  <si>
     <t>Blood</t>
   </si>
   <si>
@@ -941,9 +881,6 @@
     <t>Stool collection container with DNA stabilizer</t>
   </si>
   <si>
-    <t>Not Reported</t>
-  </si>
-  <si>
     <t>Milliliters</t>
   </si>
   <si>
@@ -981,6 +918,78 @@
   </si>
   <si>
     <t>Frozen_Dry_Ice</t>
+  </si>
+  <si>
+    <t>IDs</t>
+  </si>
+  <si>
+    <t>Entry (#)</t>
+  </si>
+  <si>
+    <t>TEST-PAR1-01</t>
+  </si>
+  <si>
+    <t>TEST-PAR1-02</t>
+  </si>
+  <si>
+    <t>TRIALGROUP 2</t>
+  </si>
+  <si>
+    <t>TEST-PAR1-03</t>
+  </si>
+  <si>
+    <t>TRIALGROUP 3</t>
+  </si>
+  <si>
+    <t>TEST-PAR2-01</t>
+  </si>
+  <si>
+    <t>TRIALGROUP 4</t>
+  </si>
+  <si>
+    <t>CM-TEST-PAR2-01</t>
+  </si>
+  <si>
+    <t>TEST-PAR2-02</t>
+  </si>
+  <si>
+    <t>TRIALGROUP 5</t>
+  </si>
+  <si>
+    <t>CM-TEST-PAR2-02</t>
+  </si>
+  <si>
+    <t>TEST-PAR2-03</t>
+  </si>
+  <si>
+    <t>TRIALGROUP 6</t>
+  </si>
+  <si>
+    <t>CM-TEST-PAR2-03</t>
+  </si>
+  <si>
+    <t>processed sample type</t>
+  </si>
+  <si>
+    <t>Processed sample volume</t>
+  </si>
+  <si>
+    <t>Plasma</t>
+  </si>
+  <si>
+    <t>Processed sample volume units</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>No comment</t>
+  </si>
+  <si>
+    <t>CM-TEST-PA01-A2</t>
+  </si>
+  <si>
+    <t>CM-TEST-PA01-A3</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1051,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1098,11 +1107,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
@@ -1121,6 +1187,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1462,8 +1549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1492,7 +1579,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1503,10 +1590,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1534,7 +1621,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1545,10 +1632,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1576,7 +1663,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1590,7 +1677,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1604,7 +1691,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1618,7 +1705,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1660,7 +1747,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1674,7 +1761,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1688,7 +1775,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -2736,7 +2823,7 @@
   <dimension ref="A1:K202"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="A3:XFD3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2803,34 +2890,34 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" t="s">
         <v>61</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
         <v>62</v>
       </c>
-      <c r="D3" t="s">
+      <c r="I3" t="s">
         <v>63</v>
       </c>
-      <c r="E3" t="s">
+      <c r="J3" t="s">
         <v>64</v>
       </c>
-      <c r="F3" t="s">
+      <c r="K3" t="s">
         <v>65</v>
-      </c>
-      <c r="G3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -3867,39 +3954,41 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Y202"/>
+  <dimension ref="A1:X202"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
-    <col min="2" max="96" width="30.6640625" customWidth="1"/>
+    <col min="2" max="95" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4" t="s">
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
@@ -3907,223 +3996,549 @@
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3">
-        <v>54321</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3">
+        <v>123</v>
+      </c>
+      <c r="J3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" t="s">
         <v>71</v>
       </c>
-      <c r="D3" t="s">
+      <c r="L3" t="s">
         <v>72</v>
       </c>
-      <c r="E3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3">
-        <v>123</v>
-      </c>
-      <c r="K3" t="s">
-        <v>77</v>
-      </c>
-      <c r="L3" t="s">
-        <v>78</v>
-      </c>
       <c r="M3" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P3">
         <v>1</v>
       </c>
-      <c r="P3" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q3">
+      <c r="Q3" t="s">
+        <v>73</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
+        <v>73</v>
+      </c>
+      <c r="T3" t="s">
+        <v>78</v>
+      </c>
+      <c r="U3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V3" t="s">
+        <v>75</v>
+      </c>
+      <c r="W3" t="s">
+        <v>76</v>
+      </c>
+      <c r="X3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4">
+        <v>123</v>
+      </c>
+      <c r="J4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4" t="s">
+        <v>104</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>106</v>
+      </c>
+      <c r="P4">
         <v>1</v>
       </c>
-      <c r="R3" t="s">
-        <v>81</v>
-      </c>
-      <c r="S3">
+      <c r="Q4" t="s">
+        <v>73</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
+        <v>73</v>
+      </c>
+      <c r="T4" t="s">
+        <v>78</v>
+      </c>
+      <c r="U4" t="s">
+        <v>74</v>
+      </c>
+      <c r="V4" t="s">
+        <v>75</v>
+      </c>
+      <c r="W4" t="s">
+        <v>76</v>
+      </c>
+      <c r="X4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5">
+        <v>123</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="s">
+        <v>104</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>106</v>
+      </c>
+      <c r="P5">
         <v>1</v>
       </c>
-      <c r="T3" t="s">
-        <v>81</v>
-      </c>
-      <c r="U3" t="s">
-        <v>86</v>
-      </c>
-      <c r="V3" t="s">
-        <v>82</v>
-      </c>
-      <c r="W3" t="s">
-        <v>83</v>
-      </c>
-      <c r="X3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Q5" t="s">
+        <v>73</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5" t="s">
+        <v>73</v>
+      </c>
+      <c r="T5" t="s">
+        <v>78</v>
+      </c>
+      <c r="U5" t="s">
+        <v>74</v>
+      </c>
+      <c r="V5" t="s">
+        <v>75</v>
+      </c>
+      <c r="W5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6">
+        <v>123</v>
+      </c>
+      <c r="J6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6" t="s">
+        <v>106</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>73</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
+        <v>73</v>
+      </c>
+      <c r="T6" t="s">
+        <v>78</v>
+      </c>
+      <c r="U6" t="s">
+        <v>74</v>
+      </c>
+      <c r="V6" t="s">
+        <v>75</v>
+      </c>
+      <c r="W6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7">
+        <v>123</v>
+      </c>
+      <c r="J7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" t="s">
+        <v>104</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>73</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7" t="s">
+        <v>73</v>
+      </c>
+      <c r="T7" t="s">
+        <v>78</v>
+      </c>
+      <c r="U7" t="s">
+        <v>74</v>
+      </c>
+      <c r="V7" t="s">
+        <v>75</v>
+      </c>
+      <c r="W7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8">
+        <v>123</v>
+      </c>
+      <c r="J8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" t="s">
+        <v>104</v>
+      </c>
+      <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="O8" t="s">
+        <v>106</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>73</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T8" t="s">
+        <v>78</v>
+      </c>
+      <c r="U8" t="s">
+        <v>74</v>
+      </c>
+      <c r="V8" t="s">
+        <v>75</v>
+      </c>
+      <c r="W8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -5059,46 +5474,45 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:P1"/>
-    <mergeCell ref="Q1:Y1"/>
+  <mergeCells count="3">
+    <mergeCell ref="P1:X1"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:O1"/>
   </mergeCells>
-  <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H202" xr:uid="{00000000-0002-0000-0200-000000000000}">
-      <formula1>"Tumor,Normal,Metastasis"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I202" xr:uid="{00000000-0002-0000-0200-000005000000}">
-      <formula1>"Compliant_processing,Noncompliant_tissue_fixation_24_to_36_hrs,Noncompliant_tissue_fixation_over_36_hrs,Noncompliant_blood_processing_ 24_to_48_hrs,Noncompliant_blood_processing_over_48_hrs,Not Reported,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K202" xr:uid="{00000000-0002-0000-0200-000006000000}">
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J202" xr:uid="{00000000-0002-0000-0200-000006000000}">
       <formula1>"Tumor Tissue,Normal Tissue,Skin Tissue,Blood,Bone Marrow,Cerebrospinal Fluid,Stool,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L202" xr:uid="{00000000-0002-0000-0200-000007000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K202" xr:uid="{00000000-0002-0000-0200-000007000000}">
       <formula1>"Blood Draw,Excision,Core Biopsy,Punch Biopsy,Endoscopic Biopsy,Bone Marrow Core Biopsy,Bone Marrow Aspirate,Lumbar Puncture,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M202" xr:uid="{00000000-0002-0000-0200-000008000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L202" xr:uid="{00000000-0002-0000-0200-000008000000}">
       <formula1>"Sodium heparin,Blood specimen container with EDTA,Potassium EDTA,Streck Blood Collection Tube,Stool collection container with DNA stabilizer,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P202" xr:uid="{00000000-0002-0000-0200-000009000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O9:O202" xr:uid="{00000000-0002-0000-0200-000009000000}">
       <formula1>"Microliter,Milliliter,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T202 R3:R202" xr:uid="{00000000-0002-0000-0200-00000A000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q202 S3:S202" xr:uid="{00000000-0002-0000-0200-00000A000000}">
       <formula1>"Microliters,Milliliters,Nanogram per Microliter,Milligram per Milliliter,Micrograms per Microliter,Cells per Vial,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U202" xr:uid="{00000000-0002-0000-0200-00000C000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T202" xr:uid="{00000000-0002-0000-0200-00000C000000}">
       <formula1>"RT,4oC,(-20)oC,(-80)oC,LN,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V202" xr:uid="{00000000-0002-0000-0200-00000D000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U202" xr:uid="{00000000-0002-0000-0200-00000D000000}">
       <formula1>"Pass,Fail,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W202" xr:uid="{00000000-0002-0000-0200-00000E000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V202" xr:uid="{00000000-0002-0000-0200-00000E000000}">
       <formula1>"Sample Sent to Another Lab,Sample received from CIMAC,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X202" xr:uid="{00000000-0002-0000-0200-00000F000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W202" xr:uid="{00000000-0002-0000-0200-00000F000000}">
       <formula1>"Sample Returned,Sample Sent to Another Lab,Sample received from CIMAC,Not Reported,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H13:H202 H2 H6:H8" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>"Tumor,Normal,Metastasis"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/template_examples/plasma_template.xlsx
+++ b/template_examples/plasma_template.xlsx
@@ -8,24 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/code/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FDFA02-547C-6241-9137-13E7B4FEA58A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229E4A07-97C0-0446-95EF-5838888E2308}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9820" yWindow="1560" windowWidth="24680" windowHeight="12460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="18040" windowHeight="15060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shipment" sheetId="1" r:id="rId1"/>
     <sheet name="Essential Patient Data" sheetId="2" r:id="rId2"/>
     <sheet name="Samples" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -35,7 +27,7 @@
     <author>CIDC</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{360103EB-8164-664D-A0FB-E31AEEF88BB4}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -48,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{1C306A4F-CE6E-F54B-BA0B-D77EA66F51A2}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -61,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{A7D0E3C6-0874-4246-8D31-D0B96FF35DDD}">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -74,12 +66,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{B7FFD1B2-D89F-7D43-A032-5774F41CC8DA}">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -87,12 +79,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{35EC672E-3E12-4E41-8B50-80C9768E217A}">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -100,12 +92,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{889AC744-9363-9944-A57A-D30BC1CD344A}">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -113,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{BF6876E5-84DF-9742-8515-4841188084FC}">
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -126,12 +118,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{980489B4-B67B-A94A-88B5-C313742505EC}">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -139,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{CD28B9DF-268B-DE4A-9344-EDBEE2BD68AA}">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -152,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{25F3F54C-A9B3-8543-8CF8-525266B2E948}">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -165,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{071B3CF9-791D-9C44-B62A-678377C23A6B}">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -178,12 +170,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{434CDD7C-E7D9-7848-8496-3B269B5DC54B}">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -191,12 +183,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{620EDD77-15CC-3A49-B43D-D1E23959C719}">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -204,7 +196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{CFE24D36-5D4C-6E45-A9E7-495A749B3DC2}">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -217,12 +209,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{9C1781D2-B6A3-EA4C-947D-8836792F983A}">
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -245,7 +237,33 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Provides a numbered identifier for patient (sample) entry in a shipment manifest.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Trial Participant Identifier.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -253,7 +271,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>A unique identifier so someone can find the surgical pathology report.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>A unique identifier so someone can find the clinical report.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -266,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -279,7 +323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -292,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -305,7 +349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -318,7 +362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -331,7 +375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -344,7 +388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -358,7 +402,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -382,7 +426,46 @@
     <author>CIDC</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{0A41D762-2EEF-0440-8716-9D84D8D2E033}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Provides a numbered identifier for patient (sample) entry in a shipment manifest.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Categorical description of timepoint at which the sample was taken.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Categorical description of cohorts, arms, and treatment groups.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -391,55 +474,16 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Trial Participant Identifier. Example: PT123.</t>
+          <t>Trial Participant Identifier.</t>
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{C651CFF8-A99C-7942-B385-91C71D85D265}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Categorical description of timepoint at which the sample was taken.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{69FC998A-A403-F54C-B0F7-A5E583AC1A4F}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Categorical description of cohorts, arms, and treatment groups. Example: Cohort A.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{C7D08886-337B-534F-8D4D-9573813A1D3F}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Trial Participant Identifier. Example: PT123.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{CD4205A2-D69F-3F41-B5B6-C51EECDE5DA1}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -447,12 +491,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{0A307C26-C75C-7547-94BA-5A1A10D689C4}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -460,12 +504,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{2F790BE6-1C36-AD4E-AA88-EE8B6BB90C40}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -473,12 +517,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -486,7 +530,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -499,7 +543,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -512,7 +556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000011000000}">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -525,20 +569,46 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{43119ABD-75B6-3A40-A60F-182CB67C07B1}">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Quantity of each aliquot shipped.</t>
+          <t>The type of processing that was performed on the collected specimen by the Biobank for storage.</t>
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000015000000}">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Volume of the processed sample.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Volume units of each processed sample.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -551,7 +621,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000016000000}">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
       <text>
         <r>
           <rPr>
@@ -564,7 +634,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000017000000}">
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000011000000}">
       <text>
         <r>
           <rPr>
@@ -577,7 +647,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000018000000}">
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000012000000}">
       <text>
         <r>
           <rPr>
@@ -590,7 +660,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000019000000}">
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
       <text>
         <r>
           <rPr>
@@ -599,11 +669,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Units for the amount of material remaining.</t>
+          <t>Storage condition of the material once it was received.</t>
         </r>
       </text>
     </comment>
-    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001A000000}">
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000014000000}">
       <text>
         <r>
           <rPr>
@@ -616,7 +686,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001B000000}">
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000015000000}">
       <text>
         <r>
           <rPr>
@@ -629,7 +699,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001C000000}">
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000016000000}">
       <text>
         <r>
           <rPr>
@@ -642,7 +712,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001D000000}">
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000017000000}">
       <text>
         <r>
           <rPr>
@@ -660,54 +730,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="115">
   <si>
     <t>#t</t>
   </si>
   <si>
-    <t>SHIPPING MANIFEST FOR PLASMA SAMPLES</t>
+    <t>Shipping manifest for plasma samples</t>
   </si>
   <si>
     <t>#p</t>
   </si>
   <si>
-    <t>MANIFEST ID</t>
-  </si>
-  <si>
-    <t>ASSAY PRIORITY</t>
-  </si>
-  <si>
-    <t>ASSAY TYPE</t>
-  </si>
-  <si>
-    <t>BOX NUMBER</t>
-  </si>
-  <si>
-    <t>COURIER</t>
-  </si>
-  <si>
-    <t>TRACKING NUMBER</t>
-  </si>
-  <si>
-    <t>ACCOUNT NUMBER</t>
-  </si>
-  <si>
-    <t>SHIPPING CONDITION</t>
-  </si>
-  <si>
-    <t>DATE SHIPPED</t>
-  </si>
-  <si>
-    <t>DATE RECIEVED</t>
-  </si>
-  <si>
-    <t>QUALITY OF SHIPMENT</t>
-  </si>
-  <si>
-    <t>SHIP FROM</t>
-  </si>
-  <si>
-    <t>SHIP TO</t>
+    <t>Manifest id</t>
+  </si>
+  <si>
+    <t>Protocol identifier</t>
+  </si>
+  <si>
+    <t>Assay priority</t>
+  </si>
+  <si>
+    <t>Assay type</t>
+  </si>
+  <si>
+    <t>Receiving party</t>
+  </si>
+  <si>
+    <t>Box number</t>
+  </si>
+  <si>
+    <t>Courier</t>
+  </si>
+  <si>
+    <t>Tracking number</t>
+  </si>
+  <si>
+    <t>Account number</t>
+  </si>
+  <si>
+    <t>Shipping condition</t>
+  </si>
+  <si>
+    <t>Date shipped</t>
+  </si>
+  <si>
+    <t>Date recieved</t>
+  </si>
+  <si>
+    <t>Quality of shipment</t>
+  </si>
+  <si>
+    <t>Ship from</t>
+  </si>
+  <si>
+    <t>Ship to</t>
   </si>
   <si>
     <t>#h</t>
@@ -725,102 +801,138 @@
     <t>Demographics</t>
   </si>
   <si>
-    <t>CIMAC ID</t>
-  </si>
-  <si>
-    <t>COLLECTION EVENT NAME</t>
-  </si>
-  <si>
-    <t>SITE DESCRIPTION</t>
-  </si>
-  <si>
-    <t>TOPOGRAPHY CODE</t>
-  </si>
-  <si>
-    <t>TOPOGRAPHY DESCRIPTION</t>
-  </si>
-  <si>
-    <t>HISTOLOGY/BEHAVIOR</t>
-  </si>
-  <si>
-    <t>HISTOLOGY/BEHAVIOR DESCRIPTION</t>
-  </si>
-  <si>
-    <t>SEX</t>
-  </si>
-  <si>
-    <t>RACE</t>
-  </si>
-  <si>
-    <t>ETHNIC GROUP</t>
-  </si>
-  <si>
-    <t>Filled by Biorepository</t>
+    <t>Entry (#)</t>
+  </si>
+  <si>
+    <t>Participant id</t>
+  </si>
+  <si>
+    <t>Cimac id</t>
+  </si>
+  <si>
+    <t>Surgical pathology report id</t>
+  </si>
+  <si>
+    <t>Clinical report id</t>
+  </si>
+  <si>
+    <t>Collection event name</t>
+  </si>
+  <si>
+    <t>Site description</t>
+  </si>
+  <si>
+    <t>Topography code</t>
+  </si>
+  <si>
+    <t>Topography description</t>
+  </si>
+  <si>
+    <t>Histology/behavior</t>
+  </si>
+  <si>
+    <t>Histology/behavior description</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>Ethnic group</t>
+  </si>
+  <si>
+    <t>IDs</t>
+  </si>
+  <si>
+    <t>Specimen Info Filled by Biorepository</t>
   </si>
   <si>
     <t>Filled by CIMAC Lab</t>
   </si>
   <si>
-    <t>PARTICIPANT ID</t>
-  </si>
-  <si>
-    <t>COHORT NAME</t>
-  </si>
-  <si>
-    <t>PARENT SAMPLE ID</t>
-  </si>
-  <si>
-    <t>PROCESSED SAMPLE ID</t>
-  </si>
-  <si>
-    <t>SAMPLE LOCATION</t>
-  </si>
-  <si>
-    <t>TYPE OF SAMPLE</t>
-  </si>
-  <si>
-    <t>SAMPLE COLLECTION PROCEDURE</t>
-  </si>
-  <si>
-    <t>TYPE OF PRIMARY CONTAINER</t>
-  </si>
-  <si>
-    <t>MATERIAL USED</t>
-  </si>
-  <si>
-    <t>MATERIAL USED UNITS</t>
-  </si>
-  <si>
-    <t>MATERIAL REMAINING</t>
-  </si>
-  <si>
-    <t>MATERIAL REMAINING UNITS</t>
-  </si>
-  <si>
-    <t>MATERIAL STORAGE CONDITION</t>
-  </si>
-  <si>
-    <t>QUALITY OF SAMPLE</t>
-  </si>
-  <si>
-    <t>SAMPLE REPLACEMENT</t>
-  </si>
-  <si>
-    <t>RESIDUAL SAMPLE USE</t>
-  </si>
-  <si>
-    <t>COMMENTS</t>
+    <t>Cohort name</t>
+  </si>
+  <si>
+    <t>Parent sample id</t>
+  </si>
+  <si>
+    <t>Processed sample id</t>
+  </si>
+  <si>
+    <t>Sample location</t>
+  </si>
+  <si>
+    <t>Type of sample</t>
+  </si>
+  <si>
+    <t>Sample collection procedure</t>
+  </si>
+  <si>
+    <t>Type of primary container</t>
+  </si>
+  <si>
+    <t>Processed sample type</t>
+  </si>
+  <si>
+    <t>Processed sample volume</t>
+  </si>
+  <si>
+    <t>Processed sample volume units</t>
+  </si>
+  <si>
+    <t>Material used</t>
+  </si>
+  <si>
+    <t>Material used units</t>
+  </si>
+  <si>
+    <t>Material remaining</t>
+  </si>
+  <si>
+    <t>Material remaining units</t>
+  </si>
+  <si>
+    <t>Material storage condition</t>
+  </si>
+  <si>
+    <t>Quality of sample</t>
+  </si>
+  <si>
+    <t>Sample replacement</t>
+  </si>
+  <si>
+    <t>Residual sample use</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>TEST123_plasma</t>
   </si>
   <si>
     <t>TEST123</t>
   </si>
   <si>
-    <t>TEST123_plasma</t>
+    <t>Olink</t>
+  </si>
+  <si>
+    <t>MDA_CIMAC</t>
   </si>
   <si>
     <t>USPS</t>
   </si>
   <si>
+    <t>TrackN</t>
+  </si>
+  <si>
+    <t>AccN</t>
+  </si>
+  <si>
+    <t>Frozen_Dry_Ice</t>
+  </si>
+  <si>
     <t>Specimen shipment received in good condition</t>
   </si>
   <si>
@@ -833,9 +945,6 @@
     <t>CM-TEST-PA01-A1</t>
   </si>
   <si>
-    <t>Tumor_Pre_1</t>
-  </si>
-  <si>
     <t>ADRENAL GLANDS</t>
   </si>
   <si>
@@ -860,7 +969,16 @@
     <t>Not Hispanic or Latino</t>
   </si>
   <si>
-    <t>RESPONDER</t>
+    <t>clinical report 1</t>
+  </si>
+  <si>
+    <t>Surgical pathology report 1</t>
+  </si>
+  <si>
+    <t>TEST-PA01-A1</t>
+  </si>
+  <si>
+    <t>TEST-PAR1-01</t>
   </si>
   <si>
     <t>TRIALGROUP 1</t>
@@ -869,9 +987,6 @@
     <t>BIOBANK 1</t>
   </si>
   <si>
-    <t>Level_1_starting</t>
-  </si>
-  <si>
     <t>Blood</t>
   </si>
   <si>
@@ -881,9 +996,18 @@
     <t>Stool collection container with DNA stabilizer</t>
   </si>
   <si>
+    <t>Plasma</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
     <t>Milliliters</t>
   </si>
   <si>
+    <t>(-20)oC</t>
+  </si>
+  <si>
     <t>Pass</t>
   </si>
   <si>
@@ -896,51 +1020,27 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>(-20)oC</t>
-  </si>
-  <si>
-    <t>PROTOCOL IDENTIFIER</t>
-  </si>
-  <si>
-    <t>Olink</t>
-  </si>
-  <si>
-    <t>RECEIVING PARTY</t>
-  </si>
-  <si>
-    <t>MDA_CIMAC</t>
-  </si>
-  <si>
-    <t>TrackN</t>
-  </si>
-  <si>
-    <t>AccN</t>
-  </si>
-  <si>
-    <t>Frozen_Dry_Ice</t>
-  </si>
-  <si>
-    <t>IDs</t>
-  </si>
-  <si>
-    <t>Entry (#)</t>
-  </si>
-  <si>
-    <t>TEST-PAR1-01</t>
-  </si>
-  <si>
     <t>TEST-PAR1-02</t>
   </si>
   <si>
     <t>TRIALGROUP 2</t>
   </si>
   <si>
+    <t>CM-TEST-PA01-A2</t>
+  </si>
+  <si>
+    <t>No comment</t>
+  </si>
+  <si>
     <t>TEST-PAR1-03</t>
   </si>
   <si>
     <t>TRIALGROUP 3</t>
   </si>
   <si>
+    <t>CM-TEST-PA01-A3</t>
+  </si>
+  <si>
     <t>TEST-PAR2-01</t>
   </si>
   <si>
@@ -968,28 +1068,13 @@
     <t>CM-TEST-PAR2-03</t>
   </si>
   <si>
-    <t>processed sample type</t>
-  </si>
-  <si>
-    <t>Processed sample volume</t>
-  </si>
-  <si>
-    <t>Plasma</t>
-  </si>
-  <si>
-    <t>Processed sample volume units</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>No comment</t>
-  </si>
-  <si>
-    <t>CM-TEST-PA01-A2</t>
-  </si>
-  <si>
-    <t>CM-TEST-PA01-A3</t>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>Arm_A</t>
+  </si>
+  <si>
+    <t>Arm_Z</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1136,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1085,90 +1170,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
@@ -1176,38 +1182,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1550,7 +1529,7 @@
   <dimension ref="A1:F219"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+      <selection activeCell="C2" sqref="C2:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1563,13 +1542,13 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1579,21 +1558,21 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1604,7 +1583,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
@@ -1613,40 +1592,40 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -1655,29 +1634,29 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1688,10 +1667,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1702,10 +1681,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1716,9 +1695,9 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4">
         <v>37174</v>
       </c>
       <c r="D12" s="1"/>
@@ -1730,9 +1709,9 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3">
+        <v>14</v>
+      </c>
+      <c r="C13" s="4">
         <v>37539</v>
       </c>
       <c r="D13" s="1"/>
@@ -1744,38 +1723,38 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1783,1007 +1762,1007 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2791,26 +2770,26 @@
     <mergeCell ref="B1:F1"/>
   </mergeCells>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{0B86C6B9-1F94-0D45-B32F-A3CDF0B39D22}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{FF4B11B9-9E3E-C647-B182-5D4E6A6D5267}">
+      <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,Not Reported,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{EF929863-449A-034C-90E7-94D8F253E5FD}">
+      <formula1>"Olink,Not Reported,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{8B343597-9F70-B04C-9D73-850A1EB8DCF3}">
+      <formula1>"MDA_CIMAC,MSSM_CIMAC,STAN_CIMAC,DFCI_CIMAC,Broad_CIMAC,FNLCR_MoCha,Nationwide Children's Hospital,Adaptive Biotechnologies,Not Reported,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{0AE80F80-C8FF-1343-B36C-37FFD1D99A79}">
       <formula1>"FEDEX,USPS,UPC"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="C12:C13" xr:uid="{2AEE5588-5CCE-C645-9113-401982D9F88A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11" xr:uid="{9CC38811-4F66-604E-AB68-7516E70D81F9}">
+      <formula1>"Frozen_Dry_Ice,Frozen_Shipper,Ice_Pack,Ambient,Not Reported,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="C12:C13" xr:uid="{5204625E-F56A-4B4D-ACC3-1613207D2F41}">
       <formula1>AND(ISNUMBER(C12),LEFT(CELL("format",C12),1)="D")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14" xr:uid="{9D70B1DA-E00E-2A40-A607-DAFEF1356309}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14" xr:uid="{B4C76EA6-3C9F-B141-86A3-89763F61CD5D}">
       <formula1>"Specimen shipment received in good condition,Specimen shipment received in poor condition,Not Reported,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{C649DC40-9022-374C-9352-A66F53352BB1}">
-      <formula1>"Olink,Not Reported,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{E7BD11CE-54FD-0644-ACA7-B97309F1F483}">
-      <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,Not Reported,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11" xr:uid="{1B3F1846-600B-E040-A211-73717BB9C698}">
-      <formula1>"Frozen_Dry_Ice,Frozen_Shipper,Ice_Pack,Ambient,Not Reported,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{548FBDDA-CADC-2840-A6DC-55B1FCF9B871}">
-      <formula1>"MDA_CIMAC,MSSM_CIMAC,STAN_CIMAC,DFCI_CIMAC,Broad_CIMAC,FNLCR_MoCha,Nationwide Children's Hospital,Adaptive Biotechnologies,Not Reported,Other"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2820,10 +2799,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K202"/>
+  <dimension ref="A1:O202"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2832,1119 +2811,1147 @@
     <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>56</v>
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="L3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" t="s">
+        <v>76</v>
+      </c>
+      <c r="N3" t="s">
+        <v>77</v>
+      </c>
+      <c r="O3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D202" xr:uid="{00000000-0002-0000-0100-000000000000}">
-      <formula1>"ACCESSORY SINUS, NOS,ADRENAL GLANDS,ANAL CANAL &amp; ANUS,APPENDIX,BASE OF TONGUE"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G202" xr:uid="{00000000-0002-0000-0100-000000000000}">
+      <formula1>"Baseline,Pre_Day_1_Cycle_2,Restaging,Off_study"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E202" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M202" xr:uid="{00000000-0002-0000-0100-000001000000}">
+      <formula1>"Male,Female,Not Specified,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N202" xr:uid="{00000000-0002-0000-0100-000002000000}">
+      <formula1>"American Indian/Alaska Native,Asian,Black/African American,Native Hawaiian/Pacific Islander,White,Not Reported,Unknown,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O202" xr:uid="{00000000-0002-0000-0100-000003000000}">
+      <formula1>"Hispanic or Latino,Not Hispanic or Latino,Not reported,Unknown,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3" xr:uid="{3A6F05B8-A569-F241-AE01-EDDA7BCDE8D1}">
+      <formula1>"8000/3,8001/3,8002/3,8003/3,8004/3,8005/3,8010/2,8010/3,8011/3"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3" xr:uid="{33589449-59F3-754D-B82A-9ADF0EA27896}">
+      <formula1>"LIP,External upper lip,External lower lip,External lip, NOS,Mucosa of upper lip,Mucosa of lower lip,Mucosa of lip, NOS,Commissure of lip,Overlapping lesion of lip,Lip, NOS"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3" xr:uid="{3D7D24C9-AC04-3243-B002-CB9182C7B420}">
       <formula1>"C00,C00.0,C00.1,C00.2,C00.3,C00.4,C00.5,C00.6,C00.8,C00.9,C01,C01.9"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F202" xr:uid="{00000000-0002-0000-0100-000002000000}">
-      <formula1>"LIP,External upper lip,External lower lip,External lip, NOS,Mucosa of upper lip,Mucosa of lower lip,Mucosa of lip, NOS,Commissure of lip,Overlapping lesion of lip,Lip, NOS"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G202" xr:uid="{00000000-0002-0000-0100-000003000000}">
-      <formula1>"8000/3,8001/3,8002/3,8003/3,8004/3,8005/3,8010/2,8010/3,8011/3"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H202" xr:uid="{00000000-0002-0000-0100-000004000000}">
-      <formula1>"Neoplasm, malignant,Tumor cells, malignant,Malignant tumor, small cell type,Malignant tumor, giant cell type,Malignant tumor, spindle cell type,Malignant tumor, clear cell type"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I202" xr:uid="{00000000-0002-0000-0100-000005000000}">
-      <formula1>"Male,Female,Not Specified,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J202" xr:uid="{00000000-0002-0000-0100-000006000000}">
-      <formula1>"American Indian/Alaska Native,Asian,Black/African American,Native Hawaiian/Pacific Islander,White,Not Reported,Unknown,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K202" xr:uid="{00000000-0002-0000-0100-000007000000}">
-      <formula1>"Hispanic or Latino,Not Hispanic or Latino,Not reported,Unknown,Other"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3" xr:uid="{FBFC334C-6A48-984B-8B28-72CC6A6EF1AC}">
+      <formula1>"ACCESSORY SINUS, NOS,ADRENAL GLANDS,ANAL CANAL &amp; ANUS,APPENDIX,BASE OF TONGUE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3956,1563 +3963,1577 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
-    <col min="2" max="95" width="30.6640625" customWidth="1"/>
+    <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>103</v>
+        <v>46</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="I3">
         <v>123</v>
       </c>
       <c r="J3" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="P3">
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="T3" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="U3" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="V3" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="W3" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="X3" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="I4">
         <v>123</v>
       </c>
       <c r="J4" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="L4" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="M4" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="N4">
         <v>2</v>
       </c>
       <c r="O4" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="P4">
         <v>1</v>
       </c>
       <c r="Q4" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="T4" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="U4" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="V4" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="W4" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="X4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F5" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="I5">
         <v>123</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="M5" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="N5">
         <v>3</v>
       </c>
       <c r="O5" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="P5">
         <v>1</v>
       </c>
       <c r="Q5" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="T5" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="U5" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="V5" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="W5" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="I6">
         <v>123</v>
       </c>
       <c r="J6" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="M6" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="N6">
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="P6">
         <v>1</v>
       </c>
       <c r="Q6" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="T6" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="U6" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="V6" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="W6" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="I7">
         <v>123</v>
       </c>
       <c r="J7" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="N7">
         <v>5</v>
       </c>
       <c r="O7" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="P7">
         <v>1</v>
       </c>
       <c r="Q7" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="T7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="U7" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="V7" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="W7" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="H8" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="I8">
         <v>123</v>
       </c>
       <c r="J8" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="K8" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="L8" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="M8" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="N8">
         <v>6</v>
       </c>
       <c r="O8" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="P8">
         <v>1</v>
       </c>
       <c r="Q8" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="T8" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="U8" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="V8" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="W8" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="P1:X1"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="I1:O1"/>
+    <mergeCell ref="P1:X1"/>
   </mergeCells>
-  <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J202" xr:uid="{00000000-0002-0000-0200-000006000000}">
-      <formula1>"Tumor Tissue,Normal Tissue,Skin Tissue,Blood,Bone Marrow,Cerebrospinal Fluid,Stool,Not Reported,Other"</formula1>
+  <dataValidations count="15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C202" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>"Baseline,Pre_Day_1_Cycle_2,Restaging,Off_study"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K202" xr:uid="{00000000-0002-0000-0200-000007000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D202" xr:uid="{00000000-0002-0000-0200-000001000000}">
+      <formula1>"Arm_Z,Arm_A,Arm_B,Arm_C,Arm_Y,Arm_D,Arm_E,Arm_F,Arm_X,Arm_G,Arm_H,Arm_I"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J9:J202" xr:uid="{00000000-0002-0000-0200-000002000000}">
+      <formula1>"Tumor Tissue,Normal Tissue,Skin Tissue,Blood,Bone Marrow,Cerebrospinal Fluid,Lymph Node,Stool,Not Reported,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K9:K202" xr:uid="{00000000-0002-0000-0200-000003000000}">
+      <formula1>"Blood Draw,Excision,Core Biopsy,Punch Biopsy,Endoscopic Biopsy,Bone Marrow Core Biopsy,Bone Marrow Aspirate,Lumbar Puncture,Aspirate,Fine-Needle Aspiration,Not Reported,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L202" xr:uid="{00000000-0002-0000-0200-000004000000}">
+      <formula1>"Sodium heparin,Blood specimen container with EDTA,Potassium EDTA,Streck Blood Collection Tube,Stool collection container with DNA stabilizer,Not Reported,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M9:M202" xr:uid="{00000000-0002-0000-0200-000005000000}">
+      <formula1>"Whole Blood,Plasma,PBMC,Buffy Coat,Bone Marrow Mononuclear Cell,Supernatant,Cell Pellet,Not Reported,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O9:O202" xr:uid="{00000000-0002-0000-0200-000006000000}">
+      <formula1>"µL,mL,Not Reported,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S202 Q3:Q202" xr:uid="{00000000-0002-0000-0200-000007000000}">
+      <formula1>"Microliters,Milliliters,Nanogram per Microliter,Milligram per Milliliter,Micrograms per Microliter,Cells per Vial,Not Reported,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T202" xr:uid="{00000000-0002-0000-0200-000009000000}">
+      <formula1>"RT,4oC,(-20)oC,(-80)oC,LN,Not Reported,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U202" xr:uid="{00000000-0002-0000-0200-00000A000000}">
+      <formula1>"Pass,Fail,Not Reported,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V202" xr:uid="{00000000-0002-0000-0200-00000B000000}">
+      <formula1>"Sample Sent to Another Lab,Sample received from CIMAC,Not Reported,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W202" xr:uid="{00000000-0002-0000-0200-00000C000000}">
+      <formula1>"Sample Returned,Sample Sent to Another Lab,Sample received from CIMAC,Not Reported,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H8" xr:uid="{014A1D3F-12A0-E84F-AE63-49BE78ADC004}">
+      <formula1>"Tumor,Normal,Metastasis"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K8" xr:uid="{3390BF18-C0D0-B24A-82C7-39F546B66210}">
       <formula1>"Blood Draw,Excision,Core Biopsy,Punch Biopsy,Endoscopic Biopsy,Bone Marrow Core Biopsy,Bone Marrow Aspirate,Lumbar Puncture,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L202" xr:uid="{00000000-0002-0000-0200-000008000000}">
-      <formula1>"Sodium heparin,Blood specimen container with EDTA,Potassium EDTA,Streck Blood Collection Tube,Stool collection container with DNA stabilizer,Not Reported,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O9:O202" xr:uid="{00000000-0002-0000-0200-000009000000}">
-      <formula1>"Microliter,Milliliter,Not Reported,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q202 S3:S202" xr:uid="{00000000-0002-0000-0200-00000A000000}">
-      <formula1>"Microliters,Milliliters,Nanogram per Microliter,Milligram per Milliliter,Micrograms per Microliter,Cells per Vial,Not Reported,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T202" xr:uid="{00000000-0002-0000-0200-00000C000000}">
-      <formula1>"RT,4oC,(-20)oC,(-80)oC,LN,Not Reported,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U202" xr:uid="{00000000-0002-0000-0200-00000D000000}">
-      <formula1>"Pass,Fail,Not Reported,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V202" xr:uid="{00000000-0002-0000-0200-00000E000000}">
-      <formula1>"Sample Sent to Another Lab,Sample received from CIMAC,Not Reported,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W202" xr:uid="{00000000-0002-0000-0200-00000F000000}">
-      <formula1>"Sample Returned,Sample Sent to Another Lab,Sample received from CIMAC,Not Reported,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H13:H202 H2 H6:H8" xr:uid="{00000000-0002-0000-0200-000000000000}">
-      <formula1>"Tumor,Normal,Metastasis"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J8" xr:uid="{9DAAFE3E-7AAA-1342-BFF7-61960EC21317}">
+      <formula1>"Tumor Tissue,Normal Tissue,Skin Tissue,Blood,Bone Marrow,Cerebrospinal Fluid,Stool,Not Reported,Other"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/template_examples/plasma_template.xlsx
+++ b/template_examples/plasma_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/code/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229E4A07-97C0-0446-95EF-5838888E2308}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5835110-98A8-AA45-BC08-700DA48E00BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="18040" windowHeight="15060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4900" yWindow="460" windowWidth="33440" windowHeight="15460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shipment" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -92,25 +92,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Box identifier for samples, if sample shipment container includes multiple boxes for each sample/assay type.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -118,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -131,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -144,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -157,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -170,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -183,12 +170,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -196,7 +183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -209,7 +196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -517,7 +504,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{852AB87F-03D3-B04B-8736-70047871FC92}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Identifier if sample shipment container includes multiple boxes for each assay.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -530,12 +530,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -543,7 +543,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -556,7 +556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -569,7 +569,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -582,7 +582,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -595,12 +595,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -608,7 +608,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -621,7 +621,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
       <text>
         <r>
           <rPr>
@@ -634,7 +634,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000011000000}">
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000011000000}">
       <text>
         <r>
           <rPr>
@@ -647,7 +647,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000012000000}">
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000012000000}">
       <text>
         <r>
           <rPr>
@@ -660,7 +660,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
       <text>
         <r>
           <rPr>
@@ -673,7 +673,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000014000000}">
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000014000000}">
       <text>
         <r>
           <rPr>
@@ -686,7 +686,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000015000000}">
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000015000000}">
       <text>
         <r>
           <rPr>
@@ -699,7 +699,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000016000000}">
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000016000000}">
       <text>
         <r>
           <rPr>
@@ -712,7 +712,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000017000000}">
+    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000017000000}">
       <text>
         <r>
           <rPr>
@@ -730,7 +730,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="121">
   <si>
     <t>#t</t>
   </si>
@@ -1075,6 +1075,24 @@
   </si>
   <si>
     <t>Arm_Z</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1154,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1170,11 +1188,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
@@ -1182,11 +1237,20 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1526,10 +1590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F219"/>
+  <dimension ref="A1:F218"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C16"/>
+      <selection activeCell="B7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1542,13 +1606,13 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1625,10 +1689,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1639,10 +1703,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1653,10 +1717,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1667,10 +1731,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1681,10 +1745,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>13</v>
+      </c>
+      <c r="C11" s="3">
+        <v>37174</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1695,38 +1759,38 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="4">
-        <v>37174</v>
+        <v>14</v>
+      </c>
+      <c r="C12" s="3">
+        <v>37539</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="4">
-        <v>37539</v>
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1737,32 +1801,23 @@
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
@@ -2757,11 +2812,6 @@
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2779,16 +2829,16 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{8B343597-9F70-B04C-9D73-850A1EB8DCF3}">
       <formula1>"MDA_CIMAC,MSSM_CIMAC,STAN_CIMAC,DFCI_CIMAC,Broad_CIMAC,FNLCR_MoCha,Nationwide Children's Hospital,Adaptive Biotechnologies,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{0AE80F80-C8FF-1343-B36C-37FFD1D99A79}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{0AE80F80-C8FF-1343-B36C-37FFD1D99A79}">
       <formula1>"FEDEX,USPS,UPC"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11" xr:uid="{9CC38811-4F66-604E-AB68-7516E70D81F9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{9CC38811-4F66-604E-AB68-7516E70D81F9}">
       <formula1>"Frozen_Dry_Ice,Frozen_Shipper,Ice_Pack,Ambient,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="C12:C13" xr:uid="{5204625E-F56A-4B4D-ACC3-1613207D2F41}">
-      <formula1>AND(ISNUMBER(C12),LEFT(CELL("format",C12),1)="D")</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="C11:C12" xr:uid="{5204625E-F56A-4B4D-ACC3-1613207D2F41}">
+      <formula1>AND(ISNUMBER(C11),LEFT(CELL("format",C11),1)="D")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14" xr:uid="{B4C76EA6-3C9F-B141-86A3-89763F61CD5D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{B4C76EA6-3C9F-B141-86A3-89763F61CD5D}">
       <formula1>"Specimen shipment received in good condition,Specimen shipment received in poor condition,Not Reported,Other"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2812,26 +2862,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -3961,10 +4011,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:X202"/>
+  <dimension ref="A1:Y202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3973,38 +4023,39 @@
     <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3" t="s">
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="7"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -4030,55 +4081,58 @@
         <v>25</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -4104,55 +4158,58 @@
         <v>70</v>
       </c>
       <c r="I3">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K3" t="s">
         <v>85</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>86</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>87</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>88</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>1</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>89</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>1</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>90</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>90</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>91</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>92</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>93</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>94</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -4178,55 +4235,58 @@
         <v>98</v>
       </c>
       <c r="I4">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" t="s">
         <v>85</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>86</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>87</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>88</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>2</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>89</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>1</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>90</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>0</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>90</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>91</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>92</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>93</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>94</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -4252,52 +4312,55 @@
         <v>102</v>
       </c>
       <c r="I5">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
+        <v>117</v>
+      </c>
+      <c r="K5" t="s">
         <v>85</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>86</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>87</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>88</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>3</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>89</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>1</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>90</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>0</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>90</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>91</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>92</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>93</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -4323,52 +4386,55 @@
         <v>105</v>
       </c>
       <c r="I6">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
+        <v>118</v>
+      </c>
+      <c r="K6" t="s">
         <v>85</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>86</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>87</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>88</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>4</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>89</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>1</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>90</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>0</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>90</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>91</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>92</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>93</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -4394,52 +4460,55 @@
         <v>108</v>
       </c>
       <c r="I7">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K7" t="s">
         <v>85</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>86</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>87</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>88</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>5</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>89</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>1</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>90</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>0</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>90</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>91</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>92</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>93</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -4465,87 +4534,90 @@
         <v>111</v>
       </c>
       <c r="I8">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
+        <v>120</v>
+      </c>
+      <c r="K8" t="s">
         <v>85</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>86</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>87</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>88</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>6</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>89</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>1</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>90</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>0</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>90</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>91</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>92</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>93</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -5483,8 +5555,8 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="P1:X1"/>
+    <mergeCell ref="Q1:Y1"/>
+    <mergeCell ref="I1:P1"/>
   </mergeCells>
   <dataValidations count="15">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C202" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -5499,38 +5571,38 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K9:K202" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>"Blood Draw,Excision,Core Biopsy,Punch Biopsy,Endoscopic Biopsy,Bone Marrow Core Biopsy,Bone Marrow Aspirate,Lumbar Puncture,Aspirate,Fine-Needle Aspiration,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L202" xr:uid="{00000000-0002-0000-0200-000004000000}">
-      <formula1>"Sodium heparin,Blood specimen container with EDTA,Potassium EDTA,Streck Blood Collection Tube,Stool collection container with DNA stabilizer,Not Reported,Other"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M9:M202" xr:uid="{00000000-0002-0000-0200-000005000000}">
       <formula1>"Whole Blood,Plasma,PBMC,Buffy Coat,Bone Marrow Mononuclear Cell,Supernatant,Cell Pellet,Not Reported,Other"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O9:O202" xr:uid="{00000000-0002-0000-0200-000006000000}">
       <formula1>"µL,mL,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S202 Q3:Q202" xr:uid="{00000000-0002-0000-0200-000007000000}">
-      <formula1>"Microliters,Milliliters,Nanogram per Microliter,Milligram per Milliliter,Micrograms per Microliter,Cells per Vial,Not Reported,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T202" xr:uid="{00000000-0002-0000-0200-000009000000}">
-      <formula1>"RT,4oC,(-20)oC,(-80)oC,LN,Not Reported,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U202" xr:uid="{00000000-0002-0000-0200-00000A000000}">
-      <formula1>"Pass,Fail,Not Reported,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V202" xr:uid="{00000000-0002-0000-0200-00000B000000}">
-      <formula1>"Sample Sent to Another Lab,Sample received from CIMAC,Not Reported,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W202" xr:uid="{00000000-0002-0000-0200-00000C000000}">
-      <formula1>"Sample Returned,Sample Sent to Another Lab,Sample received from CIMAC,Not Reported,Other"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H8" xr:uid="{014A1D3F-12A0-E84F-AE63-49BE78ADC004}">
       <formula1>"Tumor,Normal,Metastasis"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K8" xr:uid="{3390BF18-C0D0-B24A-82C7-39F546B66210}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L8" xr:uid="{3390BF18-C0D0-B24A-82C7-39F546B66210}">
       <formula1>"Blood Draw,Excision,Core Biopsy,Punch Biopsy,Endoscopic Biopsy,Bone Marrow Core Biopsy,Bone Marrow Aspirate,Lumbar Puncture,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J8" xr:uid="{9DAAFE3E-7AAA-1342-BFF7-61960EC21317}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K8" xr:uid="{9DAAFE3E-7AAA-1342-BFF7-61960EC21317}">
       <formula1>"Tumor Tissue,Normal Tissue,Skin Tissue,Blood,Bone Marrow,Cerebrospinal Fluid,Stool,Not Reported,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L202 M3:M8" xr:uid="{00000000-0002-0000-0200-000004000000}">
+      <formula1>"Sodium heparin,Blood specimen container with EDTA,Potassium EDTA,Streck Blood Collection Tube,Stool collection container with DNA stabilizer,Not Reported,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S9:S202 R3:R8 Q9:Q202 T3:T8" xr:uid="{00000000-0002-0000-0200-000007000000}">
+      <formula1>"Microliters,Milliliters,Nanogram per Microliter,Milligram per Milliliter,Micrograms per Microliter,Cells per Vial,Not Reported,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T9:T202 U3:U8" xr:uid="{00000000-0002-0000-0200-000009000000}">
+      <formula1>"RT,4oC,(-20)oC,(-80)oC,LN,Not Reported,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U9:U202 V3:V8" xr:uid="{00000000-0002-0000-0200-00000A000000}">
+      <formula1>"Pass,Fail,Not Reported,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V9:V202 W3:W8" xr:uid="{00000000-0002-0000-0200-00000B000000}">
+      <formula1>"Sample Sent to Another Lab,Sample received from CIMAC,Not Reported,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W9:W202 X3:X8" xr:uid="{00000000-0002-0000-0200-00000C000000}">
+      <formula1>"Sample Returned,Sample Sent to Another Lab,Sample received from CIMAC,Not Reported,Other"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template_examples/plasma_template.xlsx
+++ b/template_examples/plasma_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/code/cidc-schemas/template_examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5835110-98A8-AA45-BC08-700DA48E00BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D8958B-B1CB-5D44-BB28-FF4F6521D7F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="460" windowWidth="33440" windowHeight="15460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9140" yWindow="7400" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shipment" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -92,12 +92,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -105,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -118,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -131,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -144,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -157,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -170,12 +170,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -183,7 +183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -196,7 +196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -289,7 +289,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -306,7 +306,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Descritpion of the topography category. e.g LUNG AND BRONCHUS</t>
+          <t>Verified diagnosis</t>
         </r>
       </text>
     </comment>
@@ -319,7 +319,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>ICD-0-3 topography site code from which a specimen was isolated. e.g. C34.1</t>
+          <t>Descritpion of the topography category. e.g LUNG AND BRONCHUS</t>
         </r>
       </text>
     </comment>
@@ -332,7 +332,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>ICD-0-3 site code description. e.g. Upper lobe, lung</t>
+          <t>ICD-0-3 topography site code from which a specimen was isolated. e.g. C34.1</t>
         </r>
       </text>
     </comment>
@@ -345,7 +345,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>ICD-0-3 code for histology and behavior. e.g. 9665/3</t>
+          <t>ICD-0-3 site code description. e.g. Upper lobe, lung</t>
         </r>
       </text>
     </comment>
@@ -358,7 +358,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>ICD-0-3 histology and behavior code description. e.g. Hodgkin lymphoma, nod. scler., grade 1</t>
+          <t>ICD-0-3 code for histology and behavior. e.g. 9665/3</t>
         </r>
       </text>
     </comment>
@@ -371,11 +371,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>ICD-0-3 histology and behavior code description. e.g. Hodgkin lymphoma, nod. scler., grade 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Identifies the gender of the participant.</t>
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -389,7 +402,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -435,7 +448,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Categorical description of timepoint at which the sample was taken.</t>
+          <t>Categorical description of cohorts, arms, and treatment groups.</t>
         </r>
       </text>
     </comment>
@@ -448,7 +461,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Categorical description of cohorts, arms, and treatment groups.</t>
+          <t>Categorical description of timepoint at which the sample was taken.</t>
         </r>
       </text>
     </comment>
@@ -457,7 +470,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -504,7 +517,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{852AB87F-03D3-B04B-8736-70047871FC92}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -517,7 +530,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -530,12 +543,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -543,7 +556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -556,7 +569,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -569,7 +582,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -582,7 +595,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -595,12 +608,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -608,7 +621,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
       <text>
         <r>
           <rPr>
@@ -621,7 +634,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000011000000}">
       <text>
         <r>
           <rPr>
@@ -634,7 +647,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000011000000}">
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000012000000}">
       <text>
         <r>
           <rPr>
@@ -647,7 +660,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000012000000}">
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
       <text>
         <r>
           <rPr>
@@ -660,7 +673,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000014000000}">
       <text>
         <r>
           <rPr>
@@ -673,7 +686,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000014000000}">
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000015000000}">
       <text>
         <r>
           <rPr>
@@ -686,7 +699,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000015000000}">
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000016000000}">
       <text>
         <r>
           <rPr>
@@ -699,7 +712,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000016000000}">
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000017000000}">
       <text>
         <r>
           <rPr>
@@ -712,7 +725,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000017000000}">
+    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000018000000}">
       <text>
         <r>
           <rPr>
@@ -730,7 +743,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="123">
   <si>
     <t>#t</t>
   </si>
@@ -756,111 +769,114 @@
     <t>Receiving party</t>
   </si>
   <si>
+    <t>Courier</t>
+  </si>
+  <si>
+    <t>Tracking number</t>
+  </si>
+  <si>
+    <t>Account number</t>
+  </si>
+  <si>
+    <t>Shipping condition</t>
+  </si>
+  <si>
+    <t>Date shipped</t>
+  </si>
+  <si>
+    <t>Date recieved</t>
+  </si>
+  <si>
+    <t>Quality of shipment</t>
+  </si>
+  <si>
+    <t>Ship from</t>
+  </si>
+  <si>
+    <t>Ship to</t>
+  </si>
+  <si>
+    <t>#h</t>
+  </si>
+  <si>
+    <t>#d</t>
+  </si>
+  <si>
+    <t>Path Concordance Verification</t>
+  </si>
+  <si>
+    <t>ICD-0-3 Code/Description</t>
+  </si>
+  <si>
+    <t>Demographics</t>
+  </si>
+  <si>
+    <t>Entry (#)</t>
+  </si>
+  <si>
+    <t>Participant id</t>
+  </si>
+  <si>
+    <t>Cimac id</t>
+  </si>
+  <si>
+    <t>Surgical pathology report id</t>
+  </si>
+  <si>
+    <t>Clinical report id</t>
+  </si>
+  <si>
+    <t>Collection event name</t>
+  </si>
+  <si>
+    <t>Diagnosis_verification</t>
+  </si>
+  <si>
+    <t>Site description</t>
+  </si>
+  <si>
+    <t>Topography code</t>
+  </si>
+  <si>
+    <t>Topography description</t>
+  </si>
+  <si>
+    <t>Histology/behavior</t>
+  </si>
+  <si>
+    <t>Histology/behavior description</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>Ethnic group</t>
+  </si>
+  <si>
+    <t>IDs</t>
+  </si>
+  <si>
+    <t>Specimen Info Filled by Biorepository</t>
+  </si>
+  <si>
+    <t>Filled by CIMAC Lab</t>
+  </si>
+  <si>
+    <t>Cohort name</t>
+  </si>
+  <si>
+    <t>Parent sample id</t>
+  </si>
+  <si>
+    <t>Processed sample id</t>
+  </si>
+  <si>
     <t>Box number</t>
   </si>
   <si>
-    <t>Courier</t>
-  </si>
-  <si>
-    <t>Tracking number</t>
-  </si>
-  <si>
-    <t>Account number</t>
-  </si>
-  <si>
-    <t>Shipping condition</t>
-  </si>
-  <si>
-    <t>Date shipped</t>
-  </si>
-  <si>
-    <t>Date recieved</t>
-  </si>
-  <si>
-    <t>Quality of shipment</t>
-  </si>
-  <si>
-    <t>Ship from</t>
-  </si>
-  <si>
-    <t>Ship to</t>
-  </si>
-  <si>
-    <t>#h</t>
-  </si>
-  <si>
-    <t>#d</t>
-  </si>
-  <si>
-    <t>Path Concordance Verification</t>
-  </si>
-  <si>
-    <t>ICD-0-3 Code/Description</t>
-  </si>
-  <si>
-    <t>Demographics</t>
-  </si>
-  <si>
-    <t>Entry (#)</t>
-  </si>
-  <si>
-    <t>Participant id</t>
-  </si>
-  <si>
-    <t>Cimac id</t>
-  </si>
-  <si>
-    <t>Surgical pathology report id</t>
-  </si>
-  <si>
-    <t>Clinical report id</t>
-  </si>
-  <si>
-    <t>Collection event name</t>
-  </si>
-  <si>
-    <t>Site description</t>
-  </si>
-  <si>
-    <t>Topography code</t>
-  </si>
-  <si>
-    <t>Topography description</t>
-  </si>
-  <si>
-    <t>Histology/behavior</t>
-  </si>
-  <si>
-    <t>Histology/behavior description</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>Race</t>
-  </si>
-  <si>
-    <t>Ethnic group</t>
-  </si>
-  <si>
-    <t>IDs</t>
-  </si>
-  <si>
-    <t>Specimen Info Filled by Biorepository</t>
-  </si>
-  <si>
-    <t>Filled by CIMAC Lab</t>
-  </si>
-  <si>
-    <t>Cohort name</t>
-  </si>
-  <si>
-    <t>Parent sample id</t>
-  </si>
-  <si>
-    <t>Processed sample id</t>
-  </si>
-  <si>
     <t>Sample location</t>
   </si>
   <si>
@@ -918,9 +934,6 @@
     <t>Olink</t>
   </si>
   <si>
-    <t>MDA_CIMAC</t>
-  </si>
-  <si>
     <t>USPS</t>
   </si>
   <si>
@@ -942,9 +955,24 @@
     <t>ship to</t>
   </si>
   <si>
+    <t>Adaptive Biotechnologies</t>
+  </si>
+  <si>
+    <t>TEST-PA01-A1</t>
+  </si>
+  <si>
     <t>CM-TEST-PA01-A1</t>
   </si>
   <si>
+    <t>Surgical pathology report 1</t>
+  </si>
+  <si>
+    <t>clinical report 1</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
     <t>ADRENAL GLANDS</t>
   </si>
   <si>
@@ -969,13 +997,7 @@
     <t>Not Hispanic or Latino</t>
   </si>
   <si>
-    <t>clinical report 1</t>
-  </si>
-  <si>
-    <t>Surgical pathology report 1</t>
-  </si>
-  <si>
-    <t>TEST-PA01-A1</t>
+    <t>Arm_A</t>
   </si>
   <si>
     <t>TEST-PAR1-01</t>
@@ -987,6 +1009,9 @@
     <t>BIOBANK 1</t>
   </si>
   <si>
+    <t>A1</t>
+  </si>
+  <si>
     <t>Blood</t>
   </si>
   <si>
@@ -1020,6 +1045,9 @@
     <t>Comment</t>
   </si>
   <si>
+    <t>Arm_Z</t>
+  </si>
+  <si>
     <t>TEST-PAR1-02</t>
   </si>
   <si>
@@ -1029,6 +1057,9 @@
     <t>CM-TEST-PA01-A2</t>
   </si>
   <si>
+    <t>A2</t>
+  </si>
+  <si>
     <t>No comment</t>
   </si>
   <si>
@@ -1041,6 +1072,9 @@
     <t>CM-TEST-PA01-A3</t>
   </si>
   <si>
+    <t>A3</t>
+  </si>
+  <si>
     <t>TEST-PAR2-01</t>
   </si>
   <si>
@@ -1050,6 +1084,9 @@
     <t>CM-TEST-PAR2-01</t>
   </si>
   <si>
+    <t>A4</t>
+  </si>
+  <si>
     <t>TEST-PAR2-02</t>
   </si>
   <si>
@@ -1059,6 +1096,9 @@
     <t>CM-TEST-PAR2-02</t>
   </si>
   <si>
+    <t>A5</t>
+  </si>
+  <si>
     <t>TEST-PAR2-03</t>
   </si>
   <si>
@@ -1068,31 +1108,10 @@
     <t>CM-TEST-PAR2-03</t>
   </si>
   <si>
-    <t>Baseline</t>
-  </si>
-  <si>
-    <t>Arm_A</t>
-  </si>
-  <si>
-    <t>Arm_Z</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
     <t>A6</t>
+  </si>
+  <si>
+    <t>verified</t>
   </si>
 </sst>
 </file>
@@ -1122,10 +1141,11 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1154,7 +1174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1188,48 +1208,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
@@ -1240,17 +1223,9 @@
     <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1593,7 +1568,7 @@
   <dimension ref="A1:F218"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B7" sqref="A7:XFD7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1602,19 +1577,19 @@
     <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1622,13 +1597,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1636,13 +1611,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1664,7 +1639,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1678,7 +1653,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1689,7 +1664,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>63</v>
@@ -1698,12 +1673,12 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>64</v>
@@ -1712,12 +1687,12 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>65</v>
@@ -1726,12 +1701,12 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>66</v>
@@ -1740,12 +1715,12 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3">
         <v>37174</v>
@@ -1754,12 +1729,12 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="3">
         <v>37539</v>
@@ -1768,12 +1743,12 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>67</v>
@@ -1782,12 +1757,12 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>68</v>
@@ -1796,12 +1771,12 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>69</v>
@@ -1812,1007 +1787,1007 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2820,26 +2795,26 @@
     <mergeCell ref="B1:F1"/>
   </mergeCells>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{FF4B11B9-9E3E-C647-B182-5D4E6A6D5267}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{5AB95F91-84A5-A44D-A1D9-66A6AF4724BA}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{EF929863-449A-034C-90E7-94D8F253E5FD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{5F8B2AEC-EDE5-C44B-A714-783B06DCAC87}">
       <formula1>"Olink,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{8B343597-9F70-B04C-9D73-850A1EB8DCF3}">
-      <formula1>"MDA_CIMAC,MSSM_CIMAC,STAN_CIMAC,DFCI_CIMAC,Broad_CIMAC,FNLCR_MoCha,Nationwide Children's Hospital,Adaptive Biotechnologies,Not Reported,Other"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{0D19CD82-2118-DA4F-84DD-8D7D25E5E47B}">
+      <formula1>"Frozen_Dry_Ice,Frozen_Shipper,Ice_Pack,Ambient,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{0AE80F80-C8FF-1343-B36C-37FFD1D99A79}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="C11:C12" xr:uid="{8996F6F2-0F36-ED4F-A086-F6A9C7527A72}">
+      <formula1>AND(ISNUMBER(C11),LEFT(CELL("format",C11),1)="D")</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{AA35841F-2B7E-EC4D-A2F1-9FA9C36CCD7D}">
+      <formula1>"Specimen shipment received in good condition,Specimen shipment received in poor condition,Not Reported,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{AEFDB6CA-3751-064B-B7E3-D2BC92791C79}">
       <formula1>"FEDEX,USPS,UPC"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{9CC38811-4F66-604E-AB68-7516E70D81F9}">
-      <formula1>"Frozen_Dry_Ice,Frozen_Shipper,Ice_Pack,Ambient,Not Reported,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="C11:C12" xr:uid="{5204625E-F56A-4B4D-ACC3-1613207D2F41}">
-      <formula1>AND(ISNUMBER(C11),LEFT(CELL("format",C11),1)="D")</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{B4C76EA6-3C9F-B141-86A3-89763F61CD5D}">
-      <formula1>"Specimen shipment received in good condition,Specimen shipment received in poor condition,Not Reported,Other"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{D81C2091-8E55-1248-9AD1-250272DBC233}">
+      <formula1>"MDA_CIMAC,MSSM_CIMAC,STAN_CIMAC,DFCI_CIMAC,Broad_CIMAC,FNLCR_MoCha,Nationwide Children's Hospital,Adaptive Biotechnologies,Not Reported,Other"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2849,10 +2824,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O202"/>
+  <dimension ref="A1:P202"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2861,1147 +2836,1154 @@
     <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N3" t="s">
         <v>81</v>
       </c>
-      <c r="D3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K3" t="s">
-        <v>74</v>
-      </c>
-      <c r="L3" t="s">
-        <v>75</v>
-      </c>
-      <c r="M3" t="s">
-        <v>76</v>
-      </c>
-      <c r="N3" t="s">
-        <v>77</v>
-      </c>
       <c r="O3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="P3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G202" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Baseline,Pre_Day_1_Cycle_2,Restaging,Off_study"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M202" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N202" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Male,Female,Not Specified,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N202" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O202" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"American Indian/Alaska Native,Asian,Black/African American,Native Hawaiian/Pacific Islander,White,Not Reported,Unknown,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O202" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P202" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>"Hispanic or Latino,Not Hispanic or Latino,Not reported,Unknown,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3" xr:uid="{3A6F05B8-A569-F241-AE01-EDDA7BCDE8D1}">
-      <formula1>"8000/3,8001/3,8002/3,8003/3,8004/3,8005/3,8010/2,8010/3,8011/3"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3" xr:uid="{353CB5C3-7FE5-4746-934A-89966111ACE0}">
+      <formula1>"ACCESSORY SINUS, NOS,ADRENAL GLANDS,ANAL CANAL &amp; ANUS,APPENDIX,BASE OF TONGUE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3" xr:uid="{33589449-59F3-754D-B82A-9ADF0EA27896}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3" xr:uid="{56D151DB-B177-8C4A-9BD3-7BB20B9404F2}">
+      <formula1>"C00,C00.0,C00.1,C00.2,C00.3,C00.4,C00.5,C00.6,C00.8,C00.9,C01,C01.9"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3" xr:uid="{057D6C04-EC71-AE45-BD66-E338AF806C41}">
       <formula1>"LIP,External upper lip,External lower lip,External lip, NOS,Mucosa of upper lip,Mucosa of lower lip,Mucosa of lip, NOS,Commissure of lip,Overlapping lesion of lip,Lip, NOS"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3" xr:uid="{3D7D24C9-AC04-3243-B002-CB9182C7B420}">
-      <formula1>"C00,C00.0,C00.1,C00.2,C00.3,C00.4,C00.5,C00.6,C00.8,C00.9,C01,C01.9"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3" xr:uid="{FBFC334C-6A48-984B-8B28-72CC6A6EF1AC}">
-      <formula1>"ACCESSORY SINUS, NOS,ADRENAL GLANDS,ANAL CANAL &amp; ANUS,APPENDIX,BASE OF TONGUE"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3" xr:uid="{E85408A0-48CB-8942-B05B-A7D3A07C6F42}">
+      <formula1>"8000/3,8001/3,8002/3,8003/3,8004/3,8005/3,8010/2,8010/3,8011/3"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4013,8 +3995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4023,53 +4005,53 @@
     <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
       <c r="I1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="7"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
       <c r="Q1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="7"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>41</v>
@@ -4078,1531 +4060,1531 @@
         <v>42</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" t="s">
-        <v>113</v>
+        <v>84</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="K3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="N3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Q3">
         <v>1</v>
       </c>
       <c r="R3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="U3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="V3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="W3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="X3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="Y3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" t="s">
-        <v>114</v>
+        <v>100</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="K4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="N4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="O4">
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Q4">
         <v>1</v>
       </c>
       <c r="R4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="U4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="V4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="W4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="X4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="Y4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" t="s">
-        <v>113</v>
+        <v>84</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="N5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="O5">
         <v>3</v>
       </c>
       <c r="P5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Q5">
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="U5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="V5" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="W5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="X5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" t="s">
         <v>112</v>
-      </c>
-      <c r="D6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" t="s">
-        <v>105</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="O6">
         <v>4</v>
       </c>
       <c r="P6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Q6">
         <v>1</v>
       </c>
       <c r="R6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="U6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="V6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="W6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="X6" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" t="s">
-        <v>113</v>
+        <v>84</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F7" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="G7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="O7">
         <v>5</v>
       </c>
       <c r="P7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Q7">
         <v>1</v>
       </c>
       <c r="R7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="U7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="V7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="W7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="X7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" t="s">
-        <v>114</v>
+        <v>100</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F8" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H8" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K8" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="N8" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="O8">
         <v>6</v>
       </c>
       <c r="P8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Q8">
         <v>1</v>
       </c>
       <c r="R8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="U8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="V8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="W8" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="X8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:P1"/>
     <mergeCell ref="Q1:Y1"/>
-    <mergeCell ref="I1:P1"/>
   </mergeCells>
   <dataValidations count="15">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C202" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>"Arm_Z,Arm_A,Arm_B,Arm_C,Arm_Y,Arm_D,Arm_E,Arm_F,Arm_X,Arm_G,Arm_H,Arm_I"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D202" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Baseline,Pre_Day_1_Cycle_2,Restaging,Off_study"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D202" xr:uid="{00000000-0002-0000-0200-000001000000}">
-      <formula1>"Arm_Z,Arm_A,Arm_B,Arm_C,Arm_Y,Arm_D,Arm_E,Arm_F,Arm_X,Arm_G,Arm_H,Arm_I"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J9:J202" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K9:K202" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"Tumor Tissue,Normal Tissue,Skin Tissue,Blood,Bone Marrow,Cerebrospinal Fluid,Lymph Node,Stool,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K9:K202" xr:uid="{00000000-0002-0000-0200-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L202" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>"Blood Draw,Excision,Core Biopsy,Punch Biopsy,Endoscopic Biopsy,Bone Marrow Core Biopsy,Bone Marrow Aspirate,Lumbar Puncture,Aspirate,Fine-Needle Aspiration,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M9:M202" xr:uid="{00000000-0002-0000-0200-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M202" xr:uid="{00000000-0002-0000-0200-000004000000}">
+      <formula1>"Sodium heparin,Blood specimen container with EDTA,Potassium EDTA,Streck Blood Collection Tube,Stool collection container with DNA stabilizer,Not Reported,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9:N202" xr:uid="{00000000-0002-0000-0200-000005000000}">
       <formula1>"Whole Blood,Plasma,PBMC,Buffy Coat,Bone Marrow Mononuclear Cell,Supernatant,Cell Pellet,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O9:O202" xr:uid="{00000000-0002-0000-0200-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P9:P202" xr:uid="{00000000-0002-0000-0200-000006000000}">
       <formula1>"µL,mL,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H8" xr:uid="{014A1D3F-12A0-E84F-AE63-49BE78ADC004}">
-      <formula1>"Tumor,Normal,Metastasis"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T202 R3:R202" xr:uid="{00000000-0002-0000-0200-000007000000}">
+      <formula1>"Microliters,Milliliters,Nanogram per Microliter,Milligram per Milliliter,Micrograms per Microliter,Cells per Vial,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L8" xr:uid="{3390BF18-C0D0-B24A-82C7-39F546B66210}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U202" xr:uid="{00000000-0002-0000-0200-000009000000}">
+      <formula1>"RT,4oC,(-20)oC,(-80)oC,LN,Not Reported,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V202" xr:uid="{00000000-0002-0000-0200-00000A000000}">
+      <formula1>"Pass,Fail,Not Reported,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W202" xr:uid="{00000000-0002-0000-0200-00000B000000}">
+      <formula1>"Sample Sent to Another Lab,Sample received from CIMAC,Not Reported,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X202" xr:uid="{00000000-0002-0000-0200-00000C000000}">
+      <formula1>"Sample Returned,Sample Sent to Another Lab,Sample received from CIMAC,Not Reported,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K8" xr:uid="{58E34B5C-E102-7C4C-80E4-9DD953238F7C}">
+      <formula1>"Tumor Tissue,Normal Tissue,Skin Tissue,Blood,Bone Marrow,Cerebrospinal Fluid,Stool,Not Reported,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L8" xr:uid="{B7741782-D0CC-254C-A661-B9B4499409BF}">
       <formula1>"Blood Draw,Excision,Core Biopsy,Punch Biopsy,Endoscopic Biopsy,Bone Marrow Core Biopsy,Bone Marrow Aspirate,Lumbar Puncture,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K8" xr:uid="{9DAAFE3E-7AAA-1342-BFF7-61960EC21317}">
-      <formula1>"Tumor Tissue,Normal Tissue,Skin Tissue,Blood,Bone Marrow,Cerebrospinal Fluid,Stool,Not Reported,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L202 M3:M8" xr:uid="{00000000-0002-0000-0200-000004000000}">
-      <formula1>"Sodium heparin,Blood specimen container with EDTA,Potassium EDTA,Streck Blood Collection Tube,Stool collection container with DNA stabilizer,Not Reported,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S9:S202 R3:R8 Q9:Q202 T3:T8" xr:uid="{00000000-0002-0000-0200-000007000000}">
-      <formula1>"Microliters,Milliliters,Nanogram per Microliter,Milligram per Milliliter,Micrograms per Microliter,Cells per Vial,Not Reported,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T9:T202 U3:U8" xr:uid="{00000000-0002-0000-0200-000009000000}">
-      <formula1>"RT,4oC,(-20)oC,(-80)oC,LN,Not Reported,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U9:U202 V3:V8" xr:uid="{00000000-0002-0000-0200-00000A000000}">
-      <formula1>"Pass,Fail,Not Reported,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V9:V202 W3:W8" xr:uid="{00000000-0002-0000-0200-00000B000000}">
-      <formula1>"Sample Sent to Another Lab,Sample received from CIMAC,Not Reported,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W9:W202 X3:X8" xr:uid="{00000000-0002-0000-0200-00000C000000}">
-      <formula1>"Sample Returned,Sample Sent to Another Lab,Sample received from CIMAC,Not Reported,Other"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H8" xr:uid="{DECC2C58-902B-DC4E-9626-388004F3923D}">
+      <formula1>"Tumor,Normal,Metastasis"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template_examples/plasma_template.xlsx
+++ b/template_examples/plasma_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D8958B-B1CB-5D44-BB28-FF4F6521D7F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CFC5A6-7482-7A46-B7A2-683B72563260}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9140" yWindow="7400" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9140" yWindow="7280" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shipment" sheetId="1" r:id="rId1"/>
@@ -1111,7 +1111,7 @@
     <t>A6</t>
   </si>
   <si>
-    <t>verified</t>
+    <t>Local pathology review was not consistent</t>
   </si>
 </sst>
 </file>
@@ -2827,7 +2827,7 @@
   <dimension ref="A1:P202"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/template_examples/plasma_template.xlsx
+++ b/template_examples/plasma_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CFC5A6-7482-7A46-B7A2-683B72563260}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C83EA13-4A7C-174A-91B3-8CA1037459DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9140" yWindow="7280" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -302,7 +302,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -829,9 +829,6 @@
     <t>Collection event name</t>
   </si>
   <si>
-    <t>Diagnosis_verification</t>
-  </si>
-  <si>
     <t>Site description</t>
   </si>
   <si>
@@ -1112,13 +1109,16 @@
   </si>
   <si>
     <t>Local pathology review was not consistent</t>
+  </si>
+  <si>
+    <t>Diagnosis verification</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1146,6 +1146,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1597,7 +1603,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1611,7 +1617,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1639,7 +1645,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1653,7 +1659,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1667,7 +1673,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1681,7 +1687,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1695,7 +1701,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1709,7 +1715,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1751,7 +1757,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1765,7 +1771,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1779,7 +1785,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2827,7 +2833,7 @@
   <dimension ref="A1:P202"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2882,31 +2888,31 @@
         <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -2917,46 +2923,46 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
         <v>71</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>72</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>73</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>74</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" t="s">
         <v>75</v>
       </c>
-      <c r="H3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>76</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>77</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>78</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>79</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>80</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>81</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>82</v>
-      </c>
-      <c r="P3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -4007,7 +4013,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B1" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -4016,7 +4022,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -4026,7 +4032,7 @@
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
@@ -4045,7 +4051,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
@@ -4054,64 +4060,64 @@
         <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
@@ -4122,73 +4128,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>85</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>86</v>
       </c>
-      <c r="G3" t="s">
-        <v>87</v>
-      </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" t="s">
         <v>88</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>89</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>90</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>91</v>
-      </c>
-      <c r="N3" t="s">
-        <v>92</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q3">
         <v>1</v>
       </c>
       <c r="R3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3" t="s">
+        <v>93</v>
+      </c>
+      <c r="U3" t="s">
         <v>94</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>95</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>96</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>97</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>98</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -4199,73 +4205,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>101</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" t="s">
         <v>102</v>
-      </c>
-      <c r="G4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" t="s">
-        <v>103</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" t="s">
         <v>89</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>90</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>91</v>
-      </c>
-      <c r="N4" t="s">
-        <v>92</v>
       </c>
       <c r="O4">
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q4">
         <v>1</v>
       </c>
       <c r="R4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4" t="s">
+        <v>93</v>
+      </c>
+      <c r="U4" t="s">
         <v>94</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>95</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>96</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>97</v>
       </c>
-      <c r="X4" t="s">
-        <v>98</v>
-      </c>
       <c r="Y4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
@@ -4276,70 +4282,70 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" t="s">
         <v>106</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" t="s">
         <v>107</v>
-      </c>
-      <c r="G5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H5" t="s">
-        <v>108</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L5" t="s">
         <v>89</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>90</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>91</v>
-      </c>
-      <c r="N5" t="s">
-        <v>92</v>
       </c>
       <c r="O5">
         <v>3</v>
       </c>
       <c r="P5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q5">
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5" t="s">
+        <v>93</v>
+      </c>
+      <c r="U5" t="s">
         <v>94</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>95</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>96</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>97</v>
-      </c>
-      <c r="X5" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
@@ -4350,70 +4356,70 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" t="s">
         <v>110</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" t="s">
         <v>111</v>
-      </c>
-      <c r="G6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H6" t="s">
-        <v>112</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
         <v>89</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>90</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>91</v>
-      </c>
-      <c r="N6" t="s">
-        <v>92</v>
       </c>
       <c r="O6">
         <v>4</v>
       </c>
       <c r="P6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q6">
         <v>1</v>
       </c>
       <c r="R6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6" t="s">
+        <v>93</v>
+      </c>
+      <c r="U6" t="s">
         <v>94</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>95</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>96</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>97</v>
-      </c>
-      <c r="X6" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
@@ -4424,70 +4430,70 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" t="s">
         <v>114</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" t="s">
         <v>115</v>
-      </c>
-      <c r="G7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" t="s">
-        <v>116</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
         <v>89</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>90</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>91</v>
-      </c>
-      <c r="N7" t="s">
-        <v>92</v>
       </c>
       <c r="O7">
         <v>5</v>
       </c>
       <c r="P7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q7">
         <v>1</v>
       </c>
       <c r="R7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7" t="s">
+        <v>93</v>
+      </c>
+      <c r="U7" t="s">
         <v>94</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>95</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>96</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>97</v>
-      </c>
-      <c r="X7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
@@ -4498,70 +4504,70 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" t="s">
         <v>118</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" t="s">
         <v>119</v>
-      </c>
-      <c r="G8" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8" t="s">
-        <v>120</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
         <v>89</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>90</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>91</v>
-      </c>
-      <c r="N8" t="s">
-        <v>92</v>
       </c>
       <c r="O8">
         <v>6</v>
       </c>
       <c r="P8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q8">
         <v>1</v>
       </c>
       <c r="R8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8" t="s">
+        <v>93</v>
+      </c>
+      <c r="U8" t="s">
         <v>94</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>95</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>96</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>97</v>
-      </c>
-      <c r="X8" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">

--- a/template_examples/plasma_template.xlsx
+++ b/template_examples/plasma_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C83EA13-4A7C-174A-91B3-8CA1037459DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2C9A4B-A46E-334E-9329-092C2131C5A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9140" yWindow="7280" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9140" yWindow="7280" windowWidth="16100" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shipment" sheetId="1" r:id="rId1"/>
@@ -1033,9 +1033,6 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Sample received from CIMAC</t>
-  </si>
-  <si>
     <t>Sample Returned</t>
   </si>
   <si>
@@ -1112,6 +1109,9 @@
   </si>
   <si>
     <t>Diagnosis verification</t>
+  </si>
+  <si>
+    <t>Replacement Not Requested</t>
   </si>
 </sst>
 </file>
@@ -2832,8 +2832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2888,7 +2888,7 @@
         <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>28</v>
@@ -2938,7 +2938,7 @@
         <v>74</v>
       </c>
       <c r="H3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I3" t="s">
         <v>75</v>
@@ -4001,8 +4001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y202"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4188,13 +4188,13 @@
         <v>95</v>
       </c>
       <c r="W3" t="s">
+        <v>122</v>
+      </c>
+      <c r="X3" t="s">
         <v>96</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>97</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -4205,28 +4205,28 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" t="s">
         <v>100</v>
-      </c>
-      <c r="F4" t="s">
-        <v>101</v>
       </c>
       <c r="G4" t="s">
         <v>86</v>
       </c>
       <c r="H4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K4" t="s">
         <v>88</v>
@@ -4265,13 +4265,13 @@
         <v>95</v>
       </c>
       <c r="W4" t="s">
+        <v>122</v>
+      </c>
+      <c r="X4" t="s">
         <v>96</v>
       </c>
-      <c r="X4" t="s">
-        <v>97</v>
-      </c>
       <c r="Y4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
@@ -4288,22 +4288,22 @@
         <v>74</v>
       </c>
       <c r="E5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" t="s">
         <v>105</v>
-      </c>
-      <c r="F5" t="s">
-        <v>106</v>
       </c>
       <c r="G5" t="s">
         <v>86</v>
       </c>
       <c r="H5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K5" t="s">
         <v>88</v>
@@ -4342,10 +4342,10 @@
         <v>95</v>
       </c>
       <c r="W5" t="s">
+        <v>122</v>
+      </c>
+      <c r="X5" t="s">
         <v>96</v>
-      </c>
-      <c r="X5" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
@@ -4356,28 +4356,28 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" t="s">
         <v>109</v>
-      </c>
-      <c r="F6" t="s">
-        <v>110</v>
       </c>
       <c r="G6" t="s">
         <v>86</v>
       </c>
       <c r="H6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K6" t="s">
         <v>88</v>
@@ -4416,10 +4416,10 @@
         <v>95</v>
       </c>
       <c r="W6" t="s">
+        <v>122</v>
+      </c>
+      <c r="X6" t="s">
         <v>96</v>
-      </c>
-      <c r="X6" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
@@ -4436,22 +4436,22 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" t="s">
         <v>113</v>
-      </c>
-      <c r="F7" t="s">
-        <v>114</v>
       </c>
       <c r="G7" t="s">
         <v>86</v>
       </c>
       <c r="H7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K7" t="s">
         <v>88</v>
@@ -4490,10 +4490,10 @@
         <v>95</v>
       </c>
       <c r="W7" t="s">
+        <v>122</v>
+      </c>
+      <c r="X7" t="s">
         <v>96</v>
-      </c>
-      <c r="X7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
@@ -4504,28 +4504,28 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" t="s">
         <v>117</v>
-      </c>
-      <c r="F8" t="s">
-        <v>118</v>
       </c>
       <c r="G8" t="s">
         <v>86</v>
       </c>
       <c r="H8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K8" t="s">
         <v>88</v>
@@ -4564,10 +4564,10 @@
         <v>95</v>
       </c>
       <c r="W8" t="s">
+        <v>122</v>
+      </c>
+      <c r="X8" t="s">
         <v>96</v>
-      </c>
-      <c r="X8" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
@@ -5577,7 +5577,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V202" xr:uid="{00000000-0002-0000-0200-00000A000000}">
       <formula1>"Pass,Fail,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W202" xr:uid="{00000000-0002-0000-0200-00000B000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W9:W202" xr:uid="{00000000-0002-0000-0200-00000B000000}">
       <formula1>"Sample Sent to Another Lab,Sample received from CIMAC,Not Reported,Other"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X202" xr:uid="{00000000-0002-0000-0200-00000C000000}">

--- a/template_examples/plasma_template.xlsx
+++ b/template_examples/plasma_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/code/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2C9A4B-A46E-334E-9329-092C2131C5A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C3A09C-0E89-2141-A99A-CC6238F7F403}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9140" yWindow="7280" windowWidth="16100" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9140" yWindow="7280" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shipment" sheetId="1" r:id="rId1"/>
@@ -784,9 +784,6 @@
     <t>Date shipped</t>
   </si>
   <si>
-    <t>Date recieved</t>
-  </si>
-  <si>
     <t>Quality of shipment</t>
   </si>
   <si>
@@ -1112,6 +1109,9 @@
   </si>
   <si>
     <t>Replacement Not Requested</t>
+  </si>
+  <si>
+    <t>Date received</t>
   </si>
 </sst>
 </file>
@@ -1573,8 +1573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F218"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1603,7 +1603,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1617,7 +1617,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1645,7 +1645,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1659,7 +1659,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1673,7 +1673,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1687,7 +1687,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1701,7 +1701,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1715,7 +1715,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1740,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="C12" s="3">
         <v>37539</v>
@@ -1754,10 +1754,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1768,10 +1768,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1782,10 +1782,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1793,1007 +1793,1007 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2844,7 +2844,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B1" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -2853,1111 +2853,1111 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
         <v>70</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>71</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>72</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>73</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3" t="s">
         <v>74</v>
       </c>
-      <c r="H3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>75</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>76</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>77</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>78</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>79</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>80</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>81</v>
-      </c>
-      <c r="P3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -4001,7 +4001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+    <sheetView topLeftCell="U1" workbookViewId="0">
       <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
@@ -4013,7 +4013,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B1" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -4022,7 +4022,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -4032,7 +4032,7 @@
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
@@ -4045,1499 +4045,1499 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>84</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>85</v>
       </c>
-      <c r="G3" t="s">
-        <v>86</v>
-      </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" t="s">
         <v>87</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>88</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>89</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>90</v>
-      </c>
-      <c r="N3" t="s">
-        <v>91</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q3">
         <v>1</v>
       </c>
       <c r="R3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3" t="s">
+        <v>92</v>
+      </c>
+      <c r="U3" t="s">
         <v>93</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>94</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
+        <v>121</v>
+      </c>
+      <c r="X3" t="s">
         <v>95</v>
       </c>
-      <c r="W3" t="s">
-        <v>122</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>96</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>99</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" t="s">
         <v>100</v>
-      </c>
-      <c r="G4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H4" t="s">
-        <v>101</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K4" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" t="s">
         <v>88</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>89</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>90</v>
-      </c>
-      <c r="N4" t="s">
-        <v>91</v>
       </c>
       <c r="O4">
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q4">
         <v>1</v>
       </c>
       <c r="R4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4" t="s">
+        <v>92</v>
+      </c>
+      <c r="U4" t="s">
         <v>93</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>94</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
+        <v>121</v>
+      </c>
+      <c r="X4" t="s">
         <v>95</v>
       </c>
-      <c r="W4" t="s">
-        <v>122</v>
-      </c>
-      <c r="X4" t="s">
-        <v>96</v>
-      </c>
       <c r="Y4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" t="s">
         <v>104</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" t="s">
         <v>105</v>
-      </c>
-      <c r="G5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" t="s">
-        <v>106</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" t="s">
         <v>88</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>89</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>90</v>
-      </c>
-      <c r="N5" t="s">
-        <v>91</v>
       </c>
       <c r="O5">
         <v>3</v>
       </c>
       <c r="P5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q5">
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U5" t="s">
         <v>93</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>94</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
+        <v>121</v>
+      </c>
+      <c r="X5" t="s">
         <v>95</v>
-      </c>
-      <c r="W5" t="s">
-        <v>122</v>
-      </c>
-      <c r="X5" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" t="s">
         <v>108</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" t="s">
         <v>109</v>
-      </c>
-      <c r="G6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H6" t="s">
-        <v>110</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
         <v>88</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>89</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>90</v>
-      </c>
-      <c r="N6" t="s">
-        <v>91</v>
       </c>
       <c r="O6">
         <v>4</v>
       </c>
       <c r="P6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q6">
         <v>1</v>
       </c>
       <c r="R6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6" t="s">
+        <v>92</v>
+      </c>
+      <c r="U6" t="s">
         <v>93</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>94</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
+        <v>121</v>
+      </c>
+      <c r="X6" t="s">
         <v>95</v>
-      </c>
-      <c r="W6" t="s">
-        <v>122</v>
-      </c>
-      <c r="X6" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" t="s">
         <v>112</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" t="s">
         <v>113</v>
-      </c>
-      <c r="G7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H7" t="s">
-        <v>114</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
         <v>88</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>89</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>90</v>
-      </c>
-      <c r="N7" t="s">
-        <v>91</v>
       </c>
       <c r="O7">
         <v>5</v>
       </c>
       <c r="P7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q7">
         <v>1</v>
       </c>
       <c r="R7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7" t="s">
+        <v>92</v>
+      </c>
+      <c r="U7" t="s">
         <v>93</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>94</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
+        <v>121</v>
+      </c>
+      <c r="X7" t="s">
         <v>95</v>
-      </c>
-      <c r="W7" t="s">
-        <v>122</v>
-      </c>
-      <c r="X7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" t="s">
         <v>116</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" t="s">
         <v>117</v>
-      </c>
-      <c r="G8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H8" t="s">
-        <v>118</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
         <v>88</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>89</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>90</v>
-      </c>
-      <c r="N8" t="s">
-        <v>91</v>
       </c>
       <c r="O8">
         <v>6</v>
       </c>
       <c r="P8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q8">
         <v>1</v>
       </c>
       <c r="R8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U8" t="s">
         <v>93</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>94</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
+        <v>121</v>
+      </c>
+      <c r="X8" t="s">
         <v>95</v>
-      </c>
-      <c r="W8" t="s">
-        <v>122</v>
-      </c>
-      <c r="X8" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/template_examples/plasma_template.xlsx
+++ b/template_examples/plasma_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/code/cidc-schemas/template_examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C3A09C-0E89-2141-A99A-CC6238F7F403}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7E17A5-7FDB-924D-B9C0-58668B44A42E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9140" yWindow="7280" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5400" yWindow="9120" windowWidth="20680" windowHeight="12260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shipment" sheetId="1" r:id="rId1"/>
@@ -952,12 +952,6 @@
     <t>Adaptive Biotechnologies</t>
   </si>
   <si>
-    <t>TEST-PA01-A1</t>
-  </si>
-  <si>
-    <t>CM-TEST-PA01-A1</t>
-  </si>
-  <si>
     <t>Surgical pathology report 1</t>
   </si>
   <si>
@@ -994,9 +988,6 @@
     <t>Arm_A</t>
   </si>
   <si>
-    <t>TEST-PAR1-01</t>
-  </si>
-  <si>
     <t>TRIALGROUP 1</t>
   </si>
   <si>
@@ -1039,66 +1030,36 @@
     <t>Arm_Z</t>
   </si>
   <si>
-    <t>TEST-PAR1-02</t>
-  </si>
-  <si>
     <t>TRIALGROUP 2</t>
   </si>
   <si>
-    <t>CM-TEST-PA01-A2</t>
-  </si>
-  <si>
     <t>A2</t>
   </si>
   <si>
     <t>No comment</t>
   </si>
   <si>
-    <t>TEST-PAR1-03</t>
-  </si>
-  <si>
     <t>TRIALGROUP 3</t>
   </si>
   <si>
-    <t>CM-TEST-PA01-A3</t>
-  </si>
-  <si>
     <t>A3</t>
   </si>
   <si>
-    <t>TEST-PAR2-01</t>
-  </si>
-  <si>
     <t>TRIALGROUP 4</t>
   </si>
   <si>
-    <t>CM-TEST-PAR2-01</t>
-  </si>
-  <si>
     <t>A4</t>
   </si>
   <si>
-    <t>TEST-PAR2-02</t>
-  </si>
-  <si>
     <t>TRIALGROUP 5</t>
   </si>
   <si>
-    <t>CM-TEST-PAR2-02</t>
-  </si>
-  <si>
     <t>A5</t>
   </si>
   <si>
-    <t>TEST-PAR2-03</t>
-  </si>
-  <si>
     <t>TRIALGROUP 6</t>
   </si>
   <si>
-    <t>CM-TEST-PAR2-03</t>
-  </si>
-  <si>
     <t>A6</t>
   </si>
   <si>
@@ -1112,13 +1073,52 @@
   </si>
   <si>
     <t>Date received</t>
+  </si>
+  <si>
+    <t>CTTTP01A1.00</t>
+  </si>
+  <si>
+    <t>TTTPP101</t>
+  </si>
+  <si>
+    <t>TTTPP102</t>
+  </si>
+  <si>
+    <t>TTTPP103</t>
+  </si>
+  <si>
+    <t>TTTPP201</t>
+  </si>
+  <si>
+    <t>TTTPP202</t>
+  </si>
+  <si>
+    <t>TTTPP203</t>
+  </si>
+  <si>
+    <t>CTTTP01A2.00</t>
+  </si>
+  <si>
+    <t>CTTTP01A3.00</t>
+  </si>
+  <si>
+    <t>CTTTP02A1.00</t>
+  </si>
+  <si>
+    <t>CTTTP02A2.00</t>
+  </si>
+  <si>
+    <t>CTTTP02A3.00</t>
+  </si>
+  <si>
+    <t>TTTP01A1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1151,6 +1151,18 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1218,7 +1230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
@@ -1230,6 +1242,8 @@
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1573,7 +1587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1587,13 +1601,13 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -1740,7 +1754,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C12" s="3">
         <v>37539</v>
@@ -2832,8 +2846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P202"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2843,27 +2857,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5" t="s">
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -2888,7 +2902,7 @@
         <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>27</v>
@@ -2922,47 +2936,47 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" t="s">
         <v>69</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>70</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>71</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" t="s">
         <v>72</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>73</v>
       </c>
-      <c r="H3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>74</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>75</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>76</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>77</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>78</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>79</v>
-      </c>
-      <c r="O3" t="s">
-        <v>80</v>
-      </c>
-      <c r="P3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -4001,8 +4015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y202"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4012,36 +4026,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5" t="s">
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -4128,73 +4142,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H3" t="s">
-        <v>70</v>
+      <c r="H3" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" t="s">
         <v>86</v>
       </c>
-      <c r="K3" t="s">
+      <c r="N3" t="s">
         <v>87</v>
-      </c>
-      <c r="L3" t="s">
-        <v>88</v>
-      </c>
-      <c r="M3" t="s">
-        <v>89</v>
-      </c>
-      <c r="N3" t="s">
-        <v>90</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q3">
         <v>1</v>
       </c>
       <c r="R3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3" t="s">
+        <v>89</v>
+      </c>
+      <c r="U3" t="s">
+        <v>90</v>
+      </c>
+      <c r="V3" t="s">
+        <v>91</v>
+      </c>
+      <c r="W3" t="s">
+        <v>108</v>
+      </c>
+      <c r="X3" t="s">
         <v>92</v>
       </c>
-      <c r="U3" t="s">
+      <c r="Y3" t="s">
         <v>93</v>
-      </c>
-      <c r="V3" t="s">
-        <v>94</v>
-      </c>
-      <c r="W3" t="s">
-        <v>121</v>
-      </c>
-      <c r="X3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -4205,73 +4219,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" t="s">
-        <v>98</v>
+        <v>71</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H4" t="s">
-        <v>100</v>
+        <v>82</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N4" t="s">
         <v>87</v>
-      </c>
-      <c r="L4" t="s">
-        <v>88</v>
-      </c>
-      <c r="M4" t="s">
-        <v>89</v>
-      </c>
-      <c r="N4" t="s">
-        <v>90</v>
       </c>
       <c r="O4">
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q4">
         <v>1</v>
       </c>
       <c r="R4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4" t="s">
+        <v>89</v>
+      </c>
+      <c r="U4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V4" t="s">
+        <v>91</v>
+      </c>
+      <c r="W4" t="s">
+        <v>108</v>
+      </c>
+      <c r="X4" t="s">
         <v>92</v>
       </c>
-      <c r="U4" t="s">
-        <v>93</v>
-      </c>
-      <c r="V4" t="s">
-        <v>94</v>
-      </c>
-      <c r="W4" t="s">
-        <v>121</v>
-      </c>
-      <c r="X4" t="s">
-        <v>95</v>
-      </c>
       <c r="Y4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
@@ -4282,70 +4296,70 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" t="s">
-        <v>105</v>
+      <c r="H5" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="K5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M5" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5" t="s">
         <v>87</v>
-      </c>
-      <c r="L5" t="s">
-        <v>88</v>
-      </c>
-      <c r="M5" t="s">
-        <v>89</v>
-      </c>
-      <c r="N5" t="s">
-        <v>90</v>
       </c>
       <c r="O5">
         <v>3</v>
       </c>
       <c r="P5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q5">
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5" t="s">
+        <v>89</v>
+      </c>
+      <c r="U5" t="s">
+        <v>90</v>
+      </c>
+      <c r="V5" t="s">
+        <v>91</v>
+      </c>
+      <c r="W5" t="s">
+        <v>108</v>
+      </c>
+      <c r="X5" t="s">
         <v>92</v>
-      </c>
-      <c r="U5" t="s">
-        <v>93</v>
-      </c>
-      <c r="V5" t="s">
-        <v>94</v>
-      </c>
-      <c r="W5" t="s">
-        <v>121</v>
-      </c>
-      <c r="X5" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
@@ -4356,70 +4370,70 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" t="s">
-        <v>107</v>
+        <v>71</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="F6" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H6" t="s">
-        <v>109</v>
+        <v>82</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" t="s">
         <v>87</v>
-      </c>
-      <c r="L6" t="s">
-        <v>88</v>
-      </c>
-      <c r="M6" t="s">
-        <v>89</v>
-      </c>
-      <c r="N6" t="s">
-        <v>90</v>
       </c>
       <c r="O6">
         <v>4</v>
       </c>
       <c r="P6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q6">
         <v>1</v>
       </c>
       <c r="R6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V6" t="s">
+        <v>91</v>
+      </c>
+      <c r="W6" t="s">
+        <v>108</v>
+      </c>
+      <c r="X6" t="s">
         <v>92</v>
-      </c>
-      <c r="U6" t="s">
-        <v>93</v>
-      </c>
-      <c r="V6" t="s">
-        <v>94</v>
-      </c>
-      <c r="W6" t="s">
-        <v>121</v>
-      </c>
-      <c r="X6" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
@@ -4430,70 +4444,70 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" t="s">
-        <v>113</v>
+      <c r="H7" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="s">
+        <v>86</v>
+      </c>
+      <c r="N7" t="s">
         <v>87</v>
-      </c>
-      <c r="L7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M7" t="s">
-        <v>89</v>
-      </c>
-      <c r="N7" t="s">
-        <v>90</v>
       </c>
       <c r="O7">
         <v>5</v>
       </c>
       <c r="P7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q7">
         <v>1</v>
       </c>
       <c r="R7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7" t="s">
+        <v>89</v>
+      </c>
+      <c r="U7" t="s">
+        <v>90</v>
+      </c>
+      <c r="V7" t="s">
+        <v>91</v>
+      </c>
+      <c r="W7" t="s">
+        <v>108</v>
+      </c>
+      <c r="X7" t="s">
         <v>92</v>
-      </c>
-      <c r="U7" t="s">
-        <v>93</v>
-      </c>
-      <c r="V7" t="s">
-        <v>94</v>
-      </c>
-      <c r="W7" t="s">
-        <v>121</v>
-      </c>
-      <c r="X7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
@@ -4504,70 +4518,70 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" t="s">
-        <v>115</v>
+        <v>71</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="F8" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H8" t="s">
-        <v>117</v>
+        <v>82</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" t="s">
+        <v>86</v>
+      </c>
+      <c r="N8" t="s">
         <v>87</v>
-      </c>
-      <c r="L8" t="s">
-        <v>88</v>
-      </c>
-      <c r="M8" t="s">
-        <v>89</v>
-      </c>
-      <c r="N8" t="s">
-        <v>90</v>
       </c>
       <c r="O8">
         <v>6</v>
       </c>
       <c r="P8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q8">
         <v>1</v>
       </c>
       <c r="R8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8" t="s">
+        <v>89</v>
+      </c>
+      <c r="U8" t="s">
+        <v>90</v>
+      </c>
+      <c r="V8" t="s">
+        <v>91</v>
+      </c>
+      <c r="W8" t="s">
+        <v>108</v>
+      </c>
+      <c r="X8" t="s">
         <v>92</v>
-      </c>
-      <c r="U8" t="s">
-        <v>93</v>
-      </c>
-      <c r="V8" t="s">
-        <v>94</v>
-      </c>
-      <c r="W8" t="s">
-        <v>121</v>
-      </c>
-      <c r="X8" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
@@ -5546,7 +5560,7 @@
     <mergeCell ref="I1:P1"/>
     <mergeCell ref="Q1:Y1"/>
   </mergeCells>
-  <dataValidations count="15">
+  <dataValidations count="14">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C202" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Arm_Z,Arm_A,Arm_B,Arm_C,Arm_Y,Arm_D,Arm_E,Arm_F,Arm_X,Arm_G,Arm_H,Arm_I"</formula1>
     </dataValidation>
@@ -5589,9 +5603,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L8" xr:uid="{B7741782-D0CC-254C-A661-B9B4499409BF}">
       <formula1>"Blood Draw,Excision,Core Biopsy,Punch Biopsy,Endoscopic Biopsy,Bone Marrow Core Biopsy,Bone Marrow Aspirate,Lumbar Puncture,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H8" xr:uid="{DECC2C58-902B-DC4E-9626-388004F3923D}">
-      <formula1>"Tumor,Normal,Metastasis"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/template_examples/plasma_template.xlsx
+++ b/template_examples/plasma_template.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/code/cidc-schemas/template_examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jlurye/code/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C3A09C-0E89-2141-A99A-CC6238F7F403}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885C7CB5-0591-B54C-AB2E-A9AA6F079756}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9140" yWindow="7280" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="19300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shipment" sheetId="1" r:id="rId1"/>
     <sheet name="Essential Patient Data" sheetId="2" r:id="rId2"/>
     <sheet name="Samples" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Essential Patient Data'!$A$2:$P$202</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -431,7 +434,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -1573,7 +1576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -2832,8 +2835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P202"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3961,6 +3964,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:P202" xr:uid="{094889D6-FDC7-134A-8153-A9B139B2CE45}"/>
   <mergeCells count="3">
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="I1:M1"/>
@@ -4001,8 +4005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y202"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4205,7 +4209,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>73</v>
@@ -4430,7 +4434,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>73</v>

--- a/template_examples/plasma_template.xlsx
+++ b/template_examples/plasma_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7E17A5-7FDB-924D-B9C0-58668B44A42E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE9FA0D-2549-2D40-8A12-0A6BDFFB7DB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="9120" windowWidth="20680" windowHeight="12260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5400" yWindow="4640" windowWidth="20680" windowHeight="12260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shipment" sheetId="1" r:id="rId1"/>
@@ -250,7 +250,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -743,7 +743,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="122">
   <si>
     <t>#t</t>
   </si>
@@ -1109,16 +1109,13 @@
   </si>
   <si>
     <t>CTTTP02A3.00</t>
-  </si>
-  <si>
-    <t>TTTP01A1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1163,6 +1160,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF6A8759"/>
+      <name val="Menlo"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1230,7 +1233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
@@ -1247,6 +1250,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2846,8 +2850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2936,10 +2940,10 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>110</v>
       </c>
       <c r="E3" t="s">
@@ -4015,8 +4019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y202"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/template_examples/plasma_template.xlsx
+++ b/template_examples/plasma_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE9FA0D-2549-2D40-8A12-0A6BDFFB7DB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F33D55-A2A9-C64E-B6A9-54576B488AC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="4640" windowWidth="20680" windowHeight="12260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5160" yWindow="4160" windowWidth="20680" windowHeight="12260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shipment" sheetId="1" r:id="rId1"/>
@@ -1247,10 +1247,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1605,13 +1605,13 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -2850,8 +2850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P202"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2861,27 +2861,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7" t="s">
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -2940,10 +2940,10 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>110</v>
       </c>
       <c r="E3" t="s">
@@ -4019,8 +4019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4030,36 +4030,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7" t="s">
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">

--- a/template_examples/plasma_template.xlsx
+++ b/template_examples/plasma_template.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jlurye/code/cidc-schemas/template_examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885C7CB5-0591-B54C-AB2E-A9AA6F079756}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F33D55-A2A9-C64E-B6A9-54576B488AC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="19300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5160" yWindow="4160" windowWidth="20680" windowHeight="12260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shipment" sheetId="1" r:id="rId1"/>
     <sheet name="Essential Patient Data" sheetId="2" r:id="rId2"/>
     <sheet name="Samples" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Essential Patient Data'!$A$2:$P$202</definedName>
-  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -253,7 +250,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -434,7 +431,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -746,7 +743,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="122">
   <si>
     <t>#t</t>
   </si>
@@ -955,12 +952,6 @@
     <t>Adaptive Biotechnologies</t>
   </si>
   <si>
-    <t>TEST-PA01-A1</t>
-  </si>
-  <si>
-    <t>CM-TEST-PA01-A1</t>
-  </si>
-  <si>
     <t>Surgical pathology report 1</t>
   </si>
   <si>
@@ -997,9 +988,6 @@
     <t>Arm_A</t>
   </si>
   <si>
-    <t>TEST-PAR1-01</t>
-  </si>
-  <si>
     <t>TRIALGROUP 1</t>
   </si>
   <si>
@@ -1042,66 +1030,36 @@
     <t>Arm_Z</t>
   </si>
   <si>
-    <t>TEST-PAR1-02</t>
-  </si>
-  <si>
     <t>TRIALGROUP 2</t>
   </si>
   <si>
-    <t>CM-TEST-PA01-A2</t>
-  </si>
-  <si>
     <t>A2</t>
   </si>
   <si>
     <t>No comment</t>
   </si>
   <si>
-    <t>TEST-PAR1-03</t>
-  </si>
-  <si>
     <t>TRIALGROUP 3</t>
   </si>
   <si>
-    <t>CM-TEST-PA01-A3</t>
-  </si>
-  <si>
     <t>A3</t>
   </si>
   <si>
-    <t>TEST-PAR2-01</t>
-  </si>
-  <si>
     <t>TRIALGROUP 4</t>
   </si>
   <si>
-    <t>CM-TEST-PAR2-01</t>
-  </si>
-  <si>
     <t>A4</t>
   </si>
   <si>
-    <t>TEST-PAR2-02</t>
-  </si>
-  <si>
     <t>TRIALGROUP 5</t>
   </si>
   <si>
-    <t>CM-TEST-PAR2-02</t>
-  </si>
-  <si>
     <t>A5</t>
   </si>
   <si>
-    <t>TEST-PAR2-03</t>
-  </si>
-  <si>
     <t>TRIALGROUP 6</t>
   </si>
   <si>
-    <t>CM-TEST-PAR2-03</t>
-  </si>
-  <si>
     <t>A6</t>
   </si>
   <si>
@@ -1115,13 +1073,49 @@
   </si>
   <si>
     <t>Date received</t>
+  </si>
+  <si>
+    <t>CTTTP01A1.00</t>
+  </si>
+  <si>
+    <t>TTTPP101</t>
+  </si>
+  <si>
+    <t>TTTPP102</t>
+  </si>
+  <si>
+    <t>TTTPP103</t>
+  </si>
+  <si>
+    <t>TTTPP201</t>
+  </si>
+  <si>
+    <t>TTTPP202</t>
+  </si>
+  <si>
+    <t>TTTPP203</t>
+  </si>
+  <si>
+    <t>CTTTP01A2.00</t>
+  </si>
+  <si>
+    <t>CTTTP01A3.00</t>
+  </si>
+  <si>
+    <t>CTTTP02A1.00</t>
+  </si>
+  <si>
+    <t>CTTTP02A2.00</t>
+  </si>
+  <si>
+    <t>CTTTP02A3.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1154,6 +1148,24 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF6A8759"/>
+      <name val="Menlo"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1221,7 +1233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
@@ -1233,6 +1245,9 @@
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1576,7 +1591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F218"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1590,13 +1605,13 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -1743,7 +1758,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C12" s="3">
         <v>37539</v>
@@ -2835,8 +2850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P202"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2846,27 +2861,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5" t="s">
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -2891,7 +2906,7 @@
         <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>27</v>
@@ -2925,47 +2940,47 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" t="s">
         <v>69</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>70</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>71</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" t="s">
         <v>72</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>73</v>
       </c>
-      <c r="H3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>74</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>75</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>76</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>77</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>78</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>79</v>
-      </c>
-      <c r="O3" t="s">
-        <v>80</v>
-      </c>
-      <c r="P3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -3964,7 +3979,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P202" xr:uid="{094889D6-FDC7-134A-8153-A9B139B2CE45}"/>
   <mergeCells count="3">
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="I1:M1"/>
@@ -4005,8 +4019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4016,36 +4030,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5" t="s">
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -4132,73 +4146,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H3" t="s">
-        <v>70</v>
+      <c r="H3" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" t="s">
         <v>86</v>
       </c>
-      <c r="K3" t="s">
+      <c r="N3" t="s">
         <v>87</v>
-      </c>
-      <c r="L3" t="s">
-        <v>88</v>
-      </c>
-      <c r="M3" t="s">
-        <v>89</v>
-      </c>
-      <c r="N3" t="s">
-        <v>90</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q3">
         <v>1</v>
       </c>
       <c r="R3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3" t="s">
+        <v>89</v>
+      </c>
+      <c r="U3" t="s">
+        <v>90</v>
+      </c>
+      <c r="V3" t="s">
+        <v>91</v>
+      </c>
+      <c r="W3" t="s">
+        <v>108</v>
+      </c>
+      <c r="X3" t="s">
         <v>92</v>
       </c>
-      <c r="U3" t="s">
+      <c r="Y3" t="s">
         <v>93</v>
-      </c>
-      <c r="V3" t="s">
-        <v>94</v>
-      </c>
-      <c r="W3" t="s">
-        <v>121</v>
-      </c>
-      <c r="X3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -4209,73 +4223,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H4" t="s">
-        <v>100</v>
+      <c r="H4" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N4" t="s">
         <v>87</v>
-      </c>
-      <c r="L4" t="s">
-        <v>88</v>
-      </c>
-      <c r="M4" t="s">
-        <v>89</v>
-      </c>
-      <c r="N4" t="s">
-        <v>90</v>
       </c>
       <c r="O4">
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q4">
         <v>1</v>
       </c>
       <c r="R4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4" t="s">
+        <v>89</v>
+      </c>
+      <c r="U4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V4" t="s">
+        <v>91</v>
+      </c>
+      <c r="W4" t="s">
+        <v>108</v>
+      </c>
+      <c r="X4" t="s">
         <v>92</v>
       </c>
-      <c r="U4" t="s">
-        <v>93</v>
-      </c>
-      <c r="V4" t="s">
-        <v>94</v>
-      </c>
-      <c r="W4" t="s">
-        <v>121</v>
-      </c>
-      <c r="X4" t="s">
-        <v>95</v>
-      </c>
       <c r="Y4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
@@ -4286,70 +4300,70 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" t="s">
-        <v>105</v>
+      <c r="H5" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="K5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M5" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5" t="s">
         <v>87</v>
-      </c>
-      <c r="L5" t="s">
-        <v>88</v>
-      </c>
-      <c r="M5" t="s">
-        <v>89</v>
-      </c>
-      <c r="N5" t="s">
-        <v>90</v>
       </c>
       <c r="O5">
         <v>3</v>
       </c>
       <c r="P5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q5">
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5" t="s">
+        <v>89</v>
+      </c>
+      <c r="U5" t="s">
+        <v>90</v>
+      </c>
+      <c r="V5" t="s">
+        <v>91</v>
+      </c>
+      <c r="W5" t="s">
+        <v>108</v>
+      </c>
+      <c r="X5" t="s">
         <v>92</v>
-      </c>
-      <c r="U5" t="s">
-        <v>93</v>
-      </c>
-      <c r="V5" t="s">
-        <v>94</v>
-      </c>
-      <c r="W5" t="s">
-        <v>121</v>
-      </c>
-      <c r="X5" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
@@ -4360,70 +4374,70 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" t="s">
-        <v>107</v>
+        <v>71</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="F6" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H6" t="s">
-        <v>109</v>
+        <v>82</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" t="s">
         <v>87</v>
-      </c>
-      <c r="L6" t="s">
-        <v>88</v>
-      </c>
-      <c r="M6" t="s">
-        <v>89</v>
-      </c>
-      <c r="N6" t="s">
-        <v>90</v>
       </c>
       <c r="O6">
         <v>4</v>
       </c>
       <c r="P6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q6">
         <v>1</v>
       </c>
       <c r="R6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V6" t="s">
+        <v>91</v>
+      </c>
+      <c r="W6" t="s">
+        <v>108</v>
+      </c>
+      <c r="X6" t="s">
         <v>92</v>
-      </c>
-      <c r="U6" t="s">
-        <v>93</v>
-      </c>
-      <c r="V6" t="s">
-        <v>94</v>
-      </c>
-      <c r="W6" t="s">
-        <v>121</v>
-      </c>
-      <c r="X6" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
@@ -4434,70 +4448,70 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" t="s">
-        <v>111</v>
+        <v>71</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="F7" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" t="s">
-        <v>113</v>
+        <v>82</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="s">
+        <v>86</v>
+      </c>
+      <c r="N7" t="s">
         <v>87</v>
-      </c>
-      <c r="L7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M7" t="s">
-        <v>89</v>
-      </c>
-      <c r="N7" t="s">
-        <v>90</v>
       </c>
       <c r="O7">
         <v>5</v>
       </c>
       <c r="P7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q7">
         <v>1</v>
       </c>
       <c r="R7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7" t="s">
+        <v>89</v>
+      </c>
+      <c r="U7" t="s">
+        <v>90</v>
+      </c>
+      <c r="V7" t="s">
+        <v>91</v>
+      </c>
+      <c r="W7" t="s">
+        <v>108</v>
+      </c>
+      <c r="X7" t="s">
         <v>92</v>
-      </c>
-      <c r="U7" t="s">
-        <v>93</v>
-      </c>
-      <c r="V7" t="s">
-        <v>94</v>
-      </c>
-      <c r="W7" t="s">
-        <v>121</v>
-      </c>
-      <c r="X7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
@@ -4508,70 +4522,70 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" t="s">
-        <v>115</v>
+        <v>71</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="F8" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H8" t="s">
-        <v>117</v>
+        <v>82</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" t="s">
+        <v>86</v>
+      </c>
+      <c r="N8" t="s">
         <v>87</v>
-      </c>
-      <c r="L8" t="s">
-        <v>88</v>
-      </c>
-      <c r="M8" t="s">
-        <v>89</v>
-      </c>
-      <c r="N8" t="s">
-        <v>90</v>
       </c>
       <c r="O8">
         <v>6</v>
       </c>
       <c r="P8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q8">
         <v>1</v>
       </c>
       <c r="R8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8" t="s">
+        <v>89</v>
+      </c>
+      <c r="U8" t="s">
+        <v>90</v>
+      </c>
+      <c r="V8" t="s">
+        <v>91</v>
+      </c>
+      <c r="W8" t="s">
+        <v>108</v>
+      </c>
+      <c r="X8" t="s">
         <v>92</v>
-      </c>
-      <c r="U8" t="s">
-        <v>93</v>
-      </c>
-      <c r="V8" t="s">
-        <v>94</v>
-      </c>
-      <c r="W8" t="s">
-        <v>121</v>
-      </c>
-      <c r="X8" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
@@ -5550,7 +5564,7 @@
     <mergeCell ref="I1:P1"/>
     <mergeCell ref="Q1:Y1"/>
   </mergeCells>
-  <dataValidations count="15">
+  <dataValidations count="14">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C202" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Arm_Z,Arm_A,Arm_B,Arm_C,Arm_Y,Arm_D,Arm_E,Arm_F,Arm_X,Arm_G,Arm_H,Arm_I"</formula1>
     </dataValidation>
@@ -5593,9 +5607,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L8" xr:uid="{B7741782-D0CC-254C-A661-B9B4499409BF}">
       <formula1>"Blood Draw,Excision,Core Biopsy,Punch Biopsy,Endoscopic Biopsy,Bone Marrow Core Biopsy,Bone Marrow Aspirate,Lumbar Puncture,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H8" xr:uid="{DECC2C58-902B-DC4E-9626-388004F3923D}">
-      <formula1>"Tumor,Normal,Metastasis"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/template_examples/plasma_template.xlsx
+++ b/template_examples/plasma_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jlurye/code/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F33D55-A2A9-C64E-B6A9-54576B488AC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69872BA0-60D1-534D-AD40-FA71C2583DB8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="4160" windowWidth="20680" windowHeight="12260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5160" yWindow="4160" windowWidth="20680" windowHeight="12260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shipment" sheetId="1" r:id="rId1"/>
@@ -919,12 +919,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>TEST123_plasma</t>
-  </si>
-  <si>
-    <t>TEST123</t>
-  </si>
-  <si>
     <t>Olink</t>
   </si>
   <si>
@@ -1109,6 +1103,12 @@
   </si>
   <si>
     <t>CTTTP02A3.00</t>
+  </si>
+  <si>
+    <t>test_prism_trial_id</t>
+  </si>
+  <si>
+    <t>test_prism_trial_id_PLASMA</t>
   </si>
 </sst>
 </file>
@@ -1591,8 +1591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F218"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1601,7 +1601,7 @@
     <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1613,7 +1613,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1621,13 +1621,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1635,13 +1635,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1677,7 +1677,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1691,7 +1691,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1705,7 +1705,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1719,7 +1719,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1733,7 +1733,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1758,7 +1758,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C12" s="3">
         <v>37539</v>
@@ -1775,7 +1775,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1789,7 +1789,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1803,7 +1803,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2850,7 +2850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -2906,7 +2906,7 @@
         <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>27</v>
@@ -2941,46 +2941,46 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" t="s">
         <v>69</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" t="s">
         <v>70</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>71</v>
       </c>
-      <c r="H3" t="s">
-        <v>106</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>72</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>73</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>74</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>75</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>76</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>77</v>
-      </c>
-      <c r="O3" t="s">
-        <v>78</v>
-      </c>
-      <c r="P3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -4146,73 +4146,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" t="s">
-        <v>82</v>
-      </c>
       <c r="H3" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3" t="s">
         <v>83</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>84</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>85</v>
-      </c>
-      <c r="M3" t="s">
-        <v>86</v>
-      </c>
-      <c r="N3" t="s">
-        <v>87</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q3">
         <v>1</v>
       </c>
       <c r="R3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3" t="s">
+        <v>87</v>
+      </c>
+      <c r="U3" t="s">
+        <v>88</v>
+      </c>
+      <c r="V3" t="s">
         <v>89</v>
       </c>
-      <c r="U3" t="s">
+      <c r="W3" t="s">
+        <v>106</v>
+      </c>
+      <c r="X3" t="s">
         <v>90</v>
       </c>
-      <c r="V3" t="s">
+      <c r="Y3" t="s">
         <v>91</v>
-      </c>
-      <c r="W3" t="s">
-        <v>108</v>
-      </c>
-      <c r="X3" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -4223,73 +4223,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L4" t="s">
+        <v>83</v>
+      </c>
+      <c r="M4" t="s">
         <v>84</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>85</v>
-      </c>
-      <c r="M4" t="s">
-        <v>86</v>
-      </c>
-      <c r="N4" t="s">
-        <v>87</v>
       </c>
       <c r="O4">
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q4">
         <v>1</v>
       </c>
       <c r="R4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4" t="s">
+        <v>87</v>
+      </c>
+      <c r="U4" t="s">
+        <v>88</v>
+      </c>
+      <c r="V4" t="s">
         <v>89</v>
       </c>
-      <c r="U4" t="s">
+      <c r="W4" t="s">
+        <v>106</v>
+      </c>
+      <c r="X4" t="s">
         <v>90</v>
       </c>
-      <c r="V4" t="s">
-        <v>91</v>
-      </c>
-      <c r="W4" t="s">
-        <v>108</v>
-      </c>
-      <c r="X4" t="s">
-        <v>92</v>
-      </c>
       <c r="Y4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
@@ -4300,70 +4300,70 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" t="s">
-        <v>82</v>
-      </c>
       <c r="H5" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M5" t="s">
         <v>84</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>85</v>
-      </c>
-      <c r="M5" t="s">
-        <v>86</v>
-      </c>
-      <c r="N5" t="s">
-        <v>87</v>
       </c>
       <c r="O5">
         <v>3</v>
       </c>
       <c r="P5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q5">
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5" t="s">
+        <v>87</v>
+      </c>
+      <c r="U5" t="s">
+        <v>88</v>
+      </c>
+      <c r="V5" t="s">
         <v>89</v>
       </c>
-      <c r="U5" t="s">
+      <c r="W5" t="s">
+        <v>106</v>
+      </c>
+      <c r="X5" t="s">
         <v>90</v>
-      </c>
-      <c r="V5" t="s">
-        <v>91</v>
-      </c>
-      <c r="W5" t="s">
-        <v>108</v>
-      </c>
-      <c r="X5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
@@ -4374,70 +4374,70 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="s">
         <v>84</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N6" t="s">
         <v>85</v>
-      </c>
-      <c r="M6" t="s">
-        <v>86</v>
-      </c>
-      <c r="N6" t="s">
-        <v>87</v>
       </c>
       <c r="O6">
         <v>4</v>
       </c>
       <c r="P6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q6">
         <v>1</v>
       </c>
       <c r="R6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6" t="s">
+        <v>87</v>
+      </c>
+      <c r="U6" t="s">
+        <v>88</v>
+      </c>
+      <c r="V6" t="s">
         <v>89</v>
       </c>
-      <c r="U6" t="s">
+      <c r="W6" t="s">
+        <v>106</v>
+      </c>
+      <c r="X6" t="s">
         <v>90</v>
-      </c>
-      <c r="V6" t="s">
-        <v>91</v>
-      </c>
-      <c r="W6" t="s">
-        <v>108</v>
-      </c>
-      <c r="X6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
@@ -4448,70 +4448,70 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" t="s">
-        <v>82</v>
-      </c>
       <c r="H7" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="s">
         <v>84</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>85</v>
-      </c>
-      <c r="M7" t="s">
-        <v>86</v>
-      </c>
-      <c r="N7" t="s">
-        <v>87</v>
       </c>
       <c r="O7">
         <v>5</v>
       </c>
       <c r="P7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q7">
         <v>1</v>
       </c>
       <c r="R7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7" t="s">
+        <v>87</v>
+      </c>
+      <c r="U7" t="s">
+        <v>88</v>
+      </c>
+      <c r="V7" t="s">
         <v>89</v>
       </c>
-      <c r="U7" t="s">
+      <c r="W7" t="s">
+        <v>106</v>
+      </c>
+      <c r="X7" t="s">
         <v>90</v>
-      </c>
-      <c r="V7" t="s">
-        <v>91</v>
-      </c>
-      <c r="W7" t="s">
-        <v>108</v>
-      </c>
-      <c r="X7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
@@ -4522,70 +4522,70 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" t="s">
+        <v>83</v>
+      </c>
+      <c r="M8" t="s">
         <v>84</v>
       </c>
-      <c r="L8" t="s">
+      <c r="N8" t="s">
         <v>85</v>
-      </c>
-      <c r="M8" t="s">
-        <v>86</v>
-      </c>
-      <c r="N8" t="s">
-        <v>87</v>
       </c>
       <c r="O8">
         <v>6</v>
       </c>
       <c r="P8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q8">
         <v>1</v>
       </c>
       <c r="R8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8" t="s">
+        <v>87</v>
+      </c>
+      <c r="U8" t="s">
+        <v>88</v>
+      </c>
+      <c r="V8" t="s">
         <v>89</v>
       </c>
-      <c r="U8" t="s">
+      <c r="W8" t="s">
+        <v>106</v>
+      </c>
+      <c r="X8" t="s">
         <v>90</v>
-      </c>
-      <c r="V8" t="s">
-        <v>91</v>
-      </c>
-      <c r="W8" t="s">
-        <v>108</v>
-      </c>
-      <c r="X8" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">

--- a/template_examples/plasma_template.xlsx
+++ b/template_examples/plasma_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jlurye/code/cidc-schemas/template_examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69872BA0-60D1-534D-AD40-FA71C2583DB8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A97EA6-32E0-0742-92EB-66D48AC65F83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5160" yWindow="4160" windowWidth="20680" windowHeight="12260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1105,10 +1105,10 @@
     <t>CTTTP02A3.00</t>
   </si>
   <si>
+    <t>test_prism_trial_id_PLASMA</t>
+  </si>
+  <si>
     <t>test_prism_trial_id</t>
-  </si>
-  <si>
-    <t>test_prism_trial_id_PLASMA</t>
   </si>
 </sst>
 </file>
@@ -1592,7 +1592,7 @@
   <dimension ref="A1:F218"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1621,7 +1621,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1635,7 +1635,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>

--- a/template_examples/plasma_template.xlsx
+++ b/template_examples/plasma_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F33D55-A2A9-C64E-B6A9-54576B488AC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A97EA6-32E0-0742-92EB-66D48AC65F83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="4160" windowWidth="20680" windowHeight="12260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5160" yWindow="4160" windowWidth="20680" windowHeight="12260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shipment" sheetId="1" r:id="rId1"/>
@@ -919,12 +919,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>TEST123_plasma</t>
-  </si>
-  <si>
-    <t>TEST123</t>
-  </si>
-  <si>
     <t>Olink</t>
   </si>
   <si>
@@ -1109,6 +1103,12 @@
   </si>
   <si>
     <t>CTTTP02A3.00</t>
+  </si>
+  <si>
+    <t>test_prism_trial_id_PLASMA</t>
+  </si>
+  <si>
+    <t>test_prism_trial_id</t>
   </si>
 </sst>
 </file>
@@ -1591,8 +1591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F218"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1601,7 +1601,7 @@
     <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1613,7 +1613,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1621,13 +1621,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1635,13 +1635,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1677,7 +1677,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1691,7 +1691,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1705,7 +1705,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1719,7 +1719,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1733,7 +1733,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1758,7 +1758,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C12" s="3">
         <v>37539</v>
@@ -1775,7 +1775,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1789,7 +1789,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1803,7 +1803,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2850,7 +2850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -2906,7 +2906,7 @@
         <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>27</v>
@@ -2941,46 +2941,46 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" t="s">
         <v>69</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" t="s">
         <v>70</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>71</v>
       </c>
-      <c r="H3" t="s">
-        <v>106</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>72</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>73</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>74</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>75</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>76</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>77</v>
-      </c>
-      <c r="O3" t="s">
-        <v>78</v>
-      </c>
-      <c r="P3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -4146,73 +4146,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" t="s">
-        <v>82</v>
-      </c>
       <c r="H3" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3" t="s">
         <v>83</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>84</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>85</v>
-      </c>
-      <c r="M3" t="s">
-        <v>86</v>
-      </c>
-      <c r="N3" t="s">
-        <v>87</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q3">
         <v>1</v>
       </c>
       <c r="R3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3" t="s">
+        <v>87</v>
+      </c>
+      <c r="U3" t="s">
+        <v>88</v>
+      </c>
+      <c r="V3" t="s">
         <v>89</v>
       </c>
-      <c r="U3" t="s">
+      <c r="W3" t="s">
+        <v>106</v>
+      </c>
+      <c r="X3" t="s">
         <v>90</v>
       </c>
-      <c r="V3" t="s">
+      <c r="Y3" t="s">
         <v>91</v>
-      </c>
-      <c r="W3" t="s">
-        <v>108</v>
-      </c>
-      <c r="X3" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -4223,73 +4223,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L4" t="s">
+        <v>83</v>
+      </c>
+      <c r="M4" t="s">
         <v>84</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>85</v>
-      </c>
-      <c r="M4" t="s">
-        <v>86</v>
-      </c>
-      <c r="N4" t="s">
-        <v>87</v>
       </c>
       <c r="O4">
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q4">
         <v>1</v>
       </c>
       <c r="R4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4" t="s">
+        <v>87</v>
+      </c>
+      <c r="U4" t="s">
+        <v>88</v>
+      </c>
+      <c r="V4" t="s">
         <v>89</v>
       </c>
-      <c r="U4" t="s">
+      <c r="W4" t="s">
+        <v>106</v>
+      </c>
+      <c r="X4" t="s">
         <v>90</v>
       </c>
-      <c r="V4" t="s">
-        <v>91</v>
-      </c>
-      <c r="W4" t="s">
-        <v>108</v>
-      </c>
-      <c r="X4" t="s">
-        <v>92</v>
-      </c>
       <c r="Y4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
@@ -4300,70 +4300,70 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" t="s">
-        <v>82</v>
-      </c>
       <c r="H5" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M5" t="s">
         <v>84</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>85</v>
-      </c>
-      <c r="M5" t="s">
-        <v>86</v>
-      </c>
-      <c r="N5" t="s">
-        <v>87</v>
       </c>
       <c r="O5">
         <v>3</v>
       </c>
       <c r="P5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q5">
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5" t="s">
+        <v>87</v>
+      </c>
+      <c r="U5" t="s">
+        <v>88</v>
+      </c>
+      <c r="V5" t="s">
         <v>89</v>
       </c>
-      <c r="U5" t="s">
+      <c r="W5" t="s">
+        <v>106</v>
+      </c>
+      <c r="X5" t="s">
         <v>90</v>
-      </c>
-      <c r="V5" t="s">
-        <v>91</v>
-      </c>
-      <c r="W5" t="s">
-        <v>108</v>
-      </c>
-      <c r="X5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
@@ -4374,70 +4374,70 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="s">
         <v>84</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N6" t="s">
         <v>85</v>
-      </c>
-      <c r="M6" t="s">
-        <v>86</v>
-      </c>
-      <c r="N6" t="s">
-        <v>87</v>
       </c>
       <c r="O6">
         <v>4</v>
       </c>
       <c r="P6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q6">
         <v>1</v>
       </c>
       <c r="R6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6" t="s">
+        <v>87</v>
+      </c>
+      <c r="U6" t="s">
+        <v>88</v>
+      </c>
+      <c r="V6" t="s">
         <v>89</v>
       </c>
-      <c r="U6" t="s">
+      <c r="W6" t="s">
+        <v>106</v>
+      </c>
+      <c r="X6" t="s">
         <v>90</v>
-      </c>
-      <c r="V6" t="s">
-        <v>91</v>
-      </c>
-      <c r="W6" t="s">
-        <v>108</v>
-      </c>
-      <c r="X6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
@@ -4448,70 +4448,70 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" t="s">
-        <v>82</v>
-      </c>
       <c r="H7" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="s">
         <v>84</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>85</v>
-      </c>
-      <c r="M7" t="s">
-        <v>86</v>
-      </c>
-      <c r="N7" t="s">
-        <v>87</v>
       </c>
       <c r="O7">
         <v>5</v>
       </c>
       <c r="P7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q7">
         <v>1</v>
       </c>
       <c r="R7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7" t="s">
+        <v>87</v>
+      </c>
+      <c r="U7" t="s">
+        <v>88</v>
+      </c>
+      <c r="V7" t="s">
         <v>89</v>
       </c>
-      <c r="U7" t="s">
+      <c r="W7" t="s">
+        <v>106</v>
+      </c>
+      <c r="X7" t="s">
         <v>90</v>
-      </c>
-      <c r="V7" t="s">
-        <v>91</v>
-      </c>
-      <c r="W7" t="s">
-        <v>108</v>
-      </c>
-      <c r="X7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
@@ -4522,70 +4522,70 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" t="s">
+        <v>83</v>
+      </c>
+      <c r="M8" t="s">
         <v>84</v>
       </c>
-      <c r="L8" t="s">
+      <c r="N8" t="s">
         <v>85</v>
-      </c>
-      <c r="M8" t="s">
-        <v>86</v>
-      </c>
-      <c r="N8" t="s">
-        <v>87</v>
       </c>
       <c r="O8">
         <v>6</v>
       </c>
       <c r="P8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q8">
         <v>1</v>
       </c>
       <c r="R8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8" t="s">
+        <v>87</v>
+      </c>
+      <c r="U8" t="s">
+        <v>88</v>
+      </c>
+      <c r="V8" t="s">
         <v>89</v>
       </c>
-      <c r="U8" t="s">
+      <c r="W8" t="s">
+        <v>106</v>
+      </c>
+      <c r="X8" t="s">
         <v>90</v>
-      </c>
-      <c r="V8" t="s">
-        <v>91</v>
-      </c>
-      <c r="W8" t="s">
-        <v>108</v>
-      </c>
-      <c r="X8" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">

--- a/template_examples/plasma_template.xlsx
+++ b/template_examples/plasma_template.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A97EA6-32E0-0742-92EB-66D48AC65F83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF861D42-81B0-0C49-B1B3-283F31064030}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="4160" windowWidth="20680" windowHeight="12260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shipment" sheetId="1" r:id="rId1"/>
     <sheet name="Essential Patient Data" sheetId="2" r:id="rId2"/>
     <sheet name="Samples" sheetId="3" r:id="rId3"/>
+    <sheet name="Legend" sheetId="4" r:id="rId4"/>
+    <sheet name="Data Dictionary" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -32,7 +34,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -250,11 +252,11 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Specimen identifier assigned by the CIMAC-CIDC Network. Formated as CM-????-????-??</t>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as C????????.??</t>
         </r>
       </text>
     </comment>
@@ -302,11 +304,11 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Verified diagnosis</t>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Indicates whether the local pathology review was consistent with the diagnostic pathology report.</t>
         </r>
       </text>
     </comment>
@@ -513,7 +515,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Specimen identifier assigned by the CIMAC-CIDC Network. Formated as CM-????-????-??</t>
+          <t>Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as C????????.??</t>
         </r>
       </text>
     </comment>
@@ -735,6 +737,913 @@
             <family val="2"/>
           </rPr>
           <t>Comments on sample testing.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>CIDC</author>
+  </authors>
+  <commentList>
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>E4412 or 10026</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>E4412</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>E4412 or 10026</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>E4412</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>E4412</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>E4412</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>E4412</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>E4412</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>E4412</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>E4412</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>S1400I</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>E4412</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>S1400I</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>S1400I</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>E4412</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000010000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>S1400I</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000011000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>S1400I</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000012000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>E4412</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000013000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>S1400I</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000014000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10026</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000015000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>E4412</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000016000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10026</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000017000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>EAY131-Z1D</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000018000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>E4412</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000019000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>EAY131-Z1D</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00001A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>EAY131-Z1D</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00001B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>E4412</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00001C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>EAY131-Z1D</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00001D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10021</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00001E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>E4412</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00001F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10021</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000020000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>9204</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000021000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>E4412</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000022000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>9204</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000023000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>9204</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000024000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>S1400I</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000025000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>9204</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000026000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>9204</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000027000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>S1400I</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000028000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>9204</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000029000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>9204</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00002A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>9204</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00002B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10026</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00002C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10021</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00002D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10026</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00002E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10026</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00002F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10021</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000030000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10026</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000031000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10026</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000032000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10021</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000033000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10026</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000034000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10026</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000035000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10021</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000036000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10026</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000037000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10026</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000038000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10021</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000039000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10026</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00003A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10026</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00003B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>9204</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00003C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10026</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00003D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10026</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00003E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>9204</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00003F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10026</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000040000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10026</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000041000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>9204</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000042000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10026</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000043000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10026</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000044000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>9204</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000045000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10026</t>
         </r>
       </text>
     </comment>
@@ -743,7 +1652,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="352">
   <si>
     <t>#t</t>
   </si>
@@ -784,6 +1693,9 @@
     <t>Date shipped</t>
   </si>
   <si>
+    <t>Date received</t>
+  </si>
+  <si>
     <t>Quality of shipment</t>
   </si>
   <si>
@@ -826,6 +1738,9 @@
     <t>Collection event name</t>
   </si>
   <si>
+    <t>Diagnosis verification</t>
+  </si>
+  <si>
     <t>Site description</t>
   </si>
   <si>
@@ -919,31 +1834,860 @@
     <t>Comments</t>
   </si>
   <si>
+    <t>LEGEND</t>
+  </si>
+  <si>
+    <t>Legend for tab 'Shipment'</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Filename of the manifest used to ship this sample. Example: E4412_PBMC.</t>
+  </si>
+  <si>
+    <t>Trial identifier used by lead organization, ie. Center for Experimental Therapeutics Program (CTEP) ID or Industry Sponsored ID.  This is usually a short identifier. Example: E4412.</t>
+  </si>
+  <si>
+    <t>Enum</t>
+  </si>
+  <si>
+    <t>Priority of the assay as it appears on the intake form.</t>
+  </si>
+  <si>
+    <t>E.g. '1'</t>
+  </si>
+  <si>
+    <t>Assay and sample type used.</t>
+  </si>
+  <si>
+    <t>E.g. 'Olink'</t>
+  </si>
+  <si>
+    <t>Site where sample was shipped to be assayed.</t>
+  </si>
+  <si>
+    <t>E.g. 'MDA_Wistuba'</t>
+  </si>
+  <si>
+    <t>Courier utilized for shipment.</t>
+  </si>
+  <si>
+    <t>E.g. 'FEDEX'</t>
+  </si>
+  <si>
+    <t>Air bill number assigned to shipment. Example: 4567788343.</t>
+  </si>
+  <si>
+    <t>Courier account number to pay for shipping if available. Example: 45465732.</t>
+  </si>
+  <si>
+    <t>Type of shipment made.</t>
+  </si>
+  <si>
+    <t>E.g. 'Frozen_Dry_Ice'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String: date </t>
+  </si>
+  <si>
+    <t>Date of shipment.</t>
+  </si>
+  <si>
+    <t>Date of receipt.</t>
+  </si>
+  <si>
+    <t>Indication that specimens were received in good condition.</t>
+  </si>
+  <si>
+    <t>E.g. 'Specimen shipment received in good condition'</t>
+  </si>
+  <si>
+    <t>Contact information for shipment.</t>
+  </si>
+  <si>
+    <t>Physical shipping address of the destination.</t>
+  </si>
+  <si>
+    <t>Legend for tab 'Essential Patient Data'</t>
+  </si>
+  <si>
+    <t>Section 'Path Concordance Verification' of tab 'Essential Patient Data'</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Provides a numbered identifier for patient (sample) entry in a shipment manifest.</t>
+  </si>
+  <si>
+    <t>Trial Participant Identifier.</t>
+  </si>
+  <si>
+    <t>E.g. 'PT123'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String: regex ^C[A-Z0-9]{3}[A-Z0-9]{3}[A-Z0-9]{2}.[0-9]{2}$ </t>
+  </si>
+  <si>
+    <t>Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as C????????.??</t>
+  </si>
+  <si>
+    <t>E.g. 'CTTTP01A1.00'</t>
+  </si>
+  <si>
+    <t>A unique identifier so someone can find the surgical pathology report.</t>
+  </si>
+  <si>
+    <t>A unique identifier so someone can find the clinical report.</t>
+  </si>
+  <si>
+    <t>Categorical description of timepoint at which the sample was taken.</t>
+  </si>
+  <si>
+    <t>E.g. 'Baseline'</t>
+  </si>
+  <si>
+    <t>Indicates whether the local pathology review was consistent with the diagnostic pathology report.</t>
+  </si>
+  <si>
+    <t>E.g. 'Local pathology review was not consistent'</t>
+  </si>
+  <si>
+    <t>Section 'ICD-0-3 Code/Description' of tab 'Essential Patient Data'</t>
+  </si>
+  <si>
+    <t>Descritpion of the topography category. e.g LUNG AND BRONCHUS</t>
+  </si>
+  <si>
+    <t>ICD-0-3 topography site code from which a specimen was isolated. e.g. C34.1</t>
+  </si>
+  <si>
+    <t>ICD-0-3 site code description. e.g. Upper lobe, lung</t>
+  </si>
+  <si>
+    <t>ICD-0-3 code for histology and behavior. e.g. 9665/3</t>
+  </si>
+  <si>
+    <t>ICD-0-3 histology and behavior code description. e.g. Hodgkin lymphoma, nod. scler., grade 1</t>
+  </si>
+  <si>
+    <t>Section 'Demographics' of tab 'Essential Patient Data'</t>
+  </si>
+  <si>
+    <t>Identifies the gender of the participant.</t>
+  </si>
+  <si>
+    <t>E.g. 'Male'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'NIH Racial and Ethnic Categories and Definitions for NIH Diversity Programs and for Other Reporting Purposes (NOT-OD-15-089),  Release Date: April 8, 2015.'
+</t>
+  </si>
+  <si>
+    <t>E.g. 'American Indian/Alaska Native'</t>
+  </si>
+  <si>
+    <t>E.g. 'Hispanic or Latino'</t>
+  </si>
+  <si>
+    <t>Legend for tab 'Samples'</t>
+  </si>
+  <si>
+    <t>Section 'IDs' of tab 'Samples'</t>
+  </si>
+  <si>
+    <t>Categorical description of cohorts, arms, and treatment groups.</t>
+  </si>
+  <si>
+    <t>E.g. 'Arm_Z'</t>
+  </si>
+  <si>
+    <t>Sample identifier assigned by the biorepository site. Example: EA123-45.</t>
+  </si>
+  <si>
+    <t>Aliquot identifier assigned by the biorepository site: EA123-45-1</t>
+  </si>
+  <si>
+    <t>Section 'Specimen Info Filled by Biorepository' of tab 'Samples'</t>
+  </si>
+  <si>
+    <t>Identifier if sample shipment container includes multiple boxes for each assay.</t>
+  </si>
+  <si>
+    <t>Sample location within the shipping container. Example: A1.</t>
+  </si>
+  <si>
+    <t>Type of sample sent.</t>
+  </si>
+  <si>
+    <t>E.g. 'Tumor Tissue'</t>
+  </si>
+  <si>
+    <t>Indicates the specimen source of the sample shipped. Example: Na Heparin blood draw aliquots (2 of three), FFPE block #52</t>
+  </si>
+  <si>
+    <t>E.g. 'Blood Draw'</t>
+  </si>
+  <si>
+    <t>The format in which the sample was sent.</t>
+  </si>
+  <si>
+    <t>E.g. 'Sodium heparin'</t>
+  </si>
+  <si>
+    <t>The type of processing that was performed on the collected specimen by the Biobank for storage.</t>
+  </si>
+  <si>
+    <t>E.g. 'Whole Blood'</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Volume of the processed sample.</t>
+  </si>
+  <si>
+    <t>Volume units of each processed sample.</t>
+  </si>
+  <si>
+    <t>E.g. 'Microliters'</t>
+  </si>
+  <si>
+    <t>Section 'Filled by CIMAC Lab' of tab 'Samples'</t>
+  </si>
+  <si>
+    <t>Receiving site indicates how much material was used for assay purposes.</t>
+  </si>
+  <si>
+    <t>Units for the amount of material used; should be the same value as Specimen Analyte units.</t>
+  </si>
+  <si>
+    <t>Receiving site indicates how much material remains after assay use.</t>
+  </si>
+  <si>
+    <t>Units for the amount of material remaining.</t>
+  </si>
+  <si>
+    <t>Storage condition of the material once it was received.</t>
+  </si>
+  <si>
+    <t>E.g. 'RT'</t>
+  </si>
+  <si>
+    <t>Final status of sample after QC and pathology review.</t>
+  </si>
+  <si>
+    <t>E.g. 'Pass'</t>
+  </si>
+  <si>
+    <t>Indication if sample replacement is/was requested.</t>
+  </si>
+  <si>
+    <t>E.g. 'Replacement Not Requested'</t>
+  </si>
+  <si>
+    <t>Indication if sample was sent to another location or returned back to biorepository.</t>
+  </si>
+  <si>
+    <t>E.g. 'Sample Returned'</t>
+  </si>
+  <si>
+    <t>Comments on sample testing.</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Not Reported</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
     <t>Olink</t>
   </si>
   <si>
+    <t>WES</t>
+  </si>
+  <si>
+    <t>IHC</t>
+  </si>
+  <si>
+    <t>CyTOF</t>
+  </si>
+  <si>
+    <t>ELISA</t>
+  </si>
+  <si>
+    <t>MDA_Wistuba</t>
+  </si>
+  <si>
+    <t>MDA_Bernatchez</t>
+  </si>
+  <si>
+    <t>MDA_Al-Atrash</t>
+  </si>
+  <si>
+    <t>MSSM_Gnjatic</t>
+  </si>
+  <si>
+    <t>MSSM_Rahman</t>
+  </si>
+  <si>
+    <t>MSSM_Kim-Schulze</t>
+  </si>
+  <si>
+    <t>MSSM_Bongers</t>
+  </si>
+  <si>
+    <t>DFCI_Wu</t>
+  </si>
+  <si>
+    <t>DFCI_Hodi</t>
+  </si>
+  <si>
+    <t>DFCI_Severgnini</t>
+  </si>
+  <si>
+    <t>Broad_Cibulskis</t>
+  </si>
+  <si>
+    <t>Stanf_Maecker</t>
+  </si>
+  <si>
+    <t>Stanf_Bendall</t>
+  </si>
+  <si>
+    <t>NCH</t>
+  </si>
+  <si>
+    <t>Adaptive</t>
+  </si>
+  <si>
+    <t>FNLCR_MoCha</t>
+  </si>
+  <si>
+    <t>FEDEX</t>
+  </si>
+  <si>
     <t>USPS</t>
   </si>
   <si>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>Inter-Site Delivery</t>
+  </si>
+  <si>
+    <t>Frozen_Dry_Ice</t>
+  </si>
+  <si>
+    <t>Frozen_Shipper</t>
+  </si>
+  <si>
+    <t>Ice_Pack</t>
+  </si>
+  <si>
+    <t>Ambient</t>
+  </si>
+  <si>
+    <t>Specimen shipment received in good condition</t>
+  </si>
+  <si>
+    <t>Specimen shipment received in poor condition</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>Pre_Day_1_Cycle_2</t>
+  </si>
+  <si>
+    <t>Restaging</t>
+  </si>
+  <si>
+    <t>Off_study</t>
+  </si>
+  <si>
+    <t>Cycle_2_Week_3</t>
+  </si>
+  <si>
+    <t>Cycle_4_Week_7</t>
+  </si>
+  <si>
+    <t>Cycle_5_Week_9</t>
+  </si>
+  <si>
+    <t>Progression</t>
+  </si>
+  <si>
+    <t>Cycle_3</t>
+  </si>
+  <si>
+    <t>End_of_treatment</t>
+  </si>
+  <si>
+    <t>On_Treatment</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>Relapse</t>
+  </si>
+  <si>
+    <t>Day_8</t>
+  </si>
+  <si>
+    <t>Cycle_2_Day_1</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>End_of_Treatment</t>
+  </si>
+  <si>
+    <t>Not_reported</t>
+  </si>
+  <si>
+    <t>Local pathology review was not consistent</t>
+  </si>
+  <si>
+    <t>Local pathology review was consistent with site of tissue procurement diagnostic pathology report</t>
+  </si>
+  <si>
+    <t>Not Available</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Not Specified</t>
+  </si>
+  <si>
+    <t>American Indian/Alaska Native</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>Black/African American</t>
+  </si>
+  <si>
+    <t>Native Hawaiian/Pacific Islander</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>Not Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>Not reported</t>
+  </si>
+  <si>
+    <t>Arm_A</t>
+  </si>
+  <si>
+    <t>Arm_B</t>
+  </si>
+  <si>
+    <t>Arm_C</t>
+  </si>
+  <si>
+    <t>Arm_D</t>
+  </si>
+  <si>
+    <t>Arm_E</t>
+  </si>
+  <si>
+    <t>Arm_F</t>
+  </si>
+  <si>
+    <t>Arm_G</t>
+  </si>
+  <si>
+    <t>Arm_H</t>
+  </si>
+  <si>
+    <t>Arm_I</t>
+  </si>
+  <si>
+    <t>Arm_X</t>
+  </si>
+  <si>
+    <t>Arm_Y</t>
+  </si>
+  <si>
+    <t>Arm_Z</t>
+  </si>
+  <si>
+    <t>Arm_1</t>
+  </si>
+  <si>
+    <t>Arm_2</t>
+  </si>
+  <si>
+    <t>EAY131-Z1D</t>
+  </si>
+  <si>
+    <t>NSCLC_A</t>
+  </si>
+  <si>
+    <t>NSCLC_B</t>
+  </si>
+  <si>
+    <t>NSCLC_C</t>
+  </si>
+  <si>
+    <t>CRC_A</t>
+  </si>
+  <si>
+    <t>CRC_B</t>
+  </si>
+  <si>
+    <t>Dose_A</t>
+  </si>
+  <si>
+    <t>Dose_B</t>
+  </si>
+  <si>
+    <t>Dose_C</t>
+  </si>
+  <si>
+    <t>Dose_D</t>
+  </si>
+  <si>
+    <t>Tumor Tissue</t>
+  </si>
+  <si>
+    <t>Normal Tissue</t>
+  </si>
+  <si>
+    <t>Skin Tissue</t>
+  </si>
+  <si>
+    <t>Blood</t>
+  </si>
+  <si>
+    <t>Bone Marrow</t>
+  </si>
+  <si>
+    <t>Cerebrospinal Fluid</t>
+  </si>
+  <si>
+    <t>Lymph Node</t>
+  </si>
+  <si>
+    <t>Stool</t>
+  </si>
+  <si>
+    <t>Blood Draw</t>
+  </si>
+  <si>
+    <t>Excision</t>
+  </si>
+  <si>
+    <t>Core Biopsy</t>
+  </si>
+  <si>
+    <t>Punch Biopsy</t>
+  </si>
+  <si>
+    <t>Endoscopic Biopsy</t>
+  </si>
+  <si>
+    <t>Bone Marrow Core Biopsy</t>
+  </si>
+  <si>
+    <t>Bone Marrow Aspirate</t>
+  </si>
+  <si>
+    <t>Lumbar Puncture</t>
+  </si>
+  <si>
+    <t>Aspirate</t>
+  </si>
+  <si>
+    <t>Fine-Needle Aspiration</t>
+  </si>
+  <si>
+    <t>Sodium heparin</t>
+  </si>
+  <si>
+    <t>Blood specimen container with EDTA</t>
+  </si>
+  <si>
+    <t>Potassium EDTA</t>
+  </si>
+  <si>
+    <t>Streck Blood Collection Tube</t>
+  </si>
+  <si>
+    <t>Stool collection container with DNA stabilizer</t>
+  </si>
+  <si>
+    <t>Whole Blood</t>
+  </si>
+  <si>
+    <t>Plasma</t>
+  </si>
+  <si>
+    <t>PBMC</t>
+  </si>
+  <si>
+    <t>Buffy Coat</t>
+  </si>
+  <si>
+    <t>Bone Marrow Mononuclear Cell</t>
+  </si>
+  <si>
+    <t>Supernatant</t>
+  </si>
+  <si>
+    <t>Cell Pellet</t>
+  </si>
+  <si>
+    <t>H&amp;E-Stained Fixed Tissue Slide Specimen</t>
+  </si>
+  <si>
+    <t>Fixed Slide</t>
+  </si>
+  <si>
+    <t>Tissue Scroll</t>
+  </si>
+  <si>
+    <t>FFPE Punch</t>
+  </si>
+  <si>
+    <t>Microliters</t>
+  </si>
+  <si>
+    <t>Milliliters</t>
+  </si>
+  <si>
+    <t>Nanogram per Microliter</t>
+  </si>
+  <si>
+    <t>Milligram per Milliliter</t>
+  </si>
+  <si>
+    <t>Micrograms per Microliter</t>
+  </si>
+  <si>
+    <t>Cells per Vial</t>
+  </si>
+  <si>
+    <t>Slides</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>4oC</t>
+  </si>
+  <si>
+    <t>(-20)oC</t>
+  </si>
+  <si>
+    <t>(-80)oC</t>
+  </si>
+  <si>
+    <t>LN</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Replacement Not Requested</t>
+  </si>
+  <si>
+    <t>Replacement Requested</t>
+  </si>
+  <si>
+    <t>Replacement Tested</t>
+  </si>
+  <si>
+    <t>Sample Returned</t>
+  </si>
+  <si>
+    <t>Sample Sent to Another Lab</t>
+  </si>
+  <si>
+    <t>Sample received from CIMAC</t>
+  </si>
+  <si>
+    <t>test_prism_trial_id_PLASMA</t>
+  </si>
+  <si>
+    <t>test_prism_trial_id</t>
+  </si>
+  <si>
     <t>TrackN</t>
   </si>
   <si>
     <t>AccN</t>
   </si>
   <si>
-    <t>Frozen_Dry_Ice</t>
-  </si>
-  <si>
-    <t>Specimen shipment received in good condition</t>
-  </si>
-  <si>
     <t>ship from</t>
   </si>
   <si>
     <t>ship to</t>
   </si>
   <si>
-    <t>Adaptive Biotechnologies</t>
+    <t>TTTPP101</t>
+  </si>
+  <si>
+    <t>CTTTP01A1.00</t>
+  </si>
+  <si>
+    <t>TRIALGROUP 1</t>
+  </si>
+  <si>
+    <t>BIOBANK 1</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>TTTPP102</t>
+  </si>
+  <si>
+    <t>TRIALGROUP 2</t>
+  </si>
+  <si>
+    <t>CTTTP01A2.00</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>No comment</t>
+  </si>
+  <si>
+    <t>TTTPP103</t>
+  </si>
+  <si>
+    <t>TRIALGROUP 3</t>
+  </si>
+  <si>
+    <t>CTTTP01A3.00</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>TTTPP201</t>
+  </si>
+  <si>
+    <t>TRIALGROUP 4</t>
+  </si>
+  <si>
+    <t>CTTTP02A1.00</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>TTTPP202</t>
+  </si>
+  <si>
+    <t>TRIALGROUP 5</t>
+  </si>
+  <si>
+    <t>CTTTP02A2.00</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>TTTPP203</t>
+  </si>
+  <si>
+    <t>TRIALGROUP 6</t>
+  </si>
+  <si>
+    <t>CTTTP02A3.00</t>
+  </si>
+  <si>
+    <t>A6</t>
   </si>
   <si>
     <t>Surgical pathology report 1</t>
@@ -952,9 +2696,6 @@
     <t>clinical report 1</t>
   </si>
   <si>
-    <t>Baseline</t>
-  </si>
-  <si>
     <t>ADRENAL GLANDS</t>
   </si>
   <si>
@@ -968,154 +2709,13 @@
   </si>
   <si>
     <t>Neoplasm, malignant</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Black/African American</t>
-  </si>
-  <si>
-    <t>Not Hispanic or Latino</t>
-  </si>
-  <si>
-    <t>Arm_A</t>
-  </si>
-  <si>
-    <t>TRIALGROUP 1</t>
-  </si>
-  <si>
-    <t>BIOBANK 1</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>Blood</t>
-  </si>
-  <si>
-    <t>Core Biopsy</t>
-  </si>
-  <si>
-    <t>Stool collection container with DNA stabilizer</t>
-  </si>
-  <si>
-    <t>Plasma</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Milliliters</t>
-  </si>
-  <si>
-    <t>(-20)oC</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Sample Returned</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Arm_Z</t>
-  </si>
-  <si>
-    <t>TRIALGROUP 2</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>No comment</t>
-  </si>
-  <si>
-    <t>TRIALGROUP 3</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>TRIALGROUP 4</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>TRIALGROUP 5</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>TRIALGROUP 6</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>Local pathology review was not consistent</t>
-  </si>
-  <si>
-    <t>Diagnosis verification</t>
-  </si>
-  <si>
-    <t>Replacement Not Requested</t>
-  </si>
-  <si>
-    <t>Date received</t>
-  </si>
-  <si>
-    <t>CTTTP01A1.00</t>
-  </si>
-  <si>
-    <t>TTTPP101</t>
-  </si>
-  <si>
-    <t>TTTPP102</t>
-  </si>
-  <si>
-    <t>TTTPP103</t>
-  </si>
-  <si>
-    <t>TTTPP201</t>
-  </si>
-  <si>
-    <t>TTTPP202</t>
-  </si>
-  <si>
-    <t>TTTPP203</t>
-  </si>
-  <si>
-    <t>CTTTP01A2.00</t>
-  </si>
-  <si>
-    <t>CTTTP01A3.00</t>
-  </si>
-  <si>
-    <t>CTTTP02A1.00</t>
-  </si>
-  <si>
-    <t>CTTTP02A2.00</t>
-  </si>
-  <si>
-    <t>CTTTP02A3.00</t>
-  </si>
-  <si>
-    <t>test_prism_trial_id_PLASMA</t>
-  </si>
-  <si>
-    <t>test_prism_trial_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1138,38 +2738,13 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF6A8759"/>
-      <name val="Menlo"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1191,6 +2766,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5FA3F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1233,21 +2814,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1589,10 +3172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F218"/>
+  <dimension ref="A1:C218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1601,1244 +3184,1199 @@
     <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>4</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="C7" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="C8" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="C9" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="C10" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="5">
         <v>37174</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5">
         <v>37539</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:3" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{5AB95F91-84A5-A44D-A1D9-66A6AF4724BA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{5F8B2AEC-EDE5-C44B-A714-783B06DCAC87}">
-      <formula1>"Olink,Not Reported,Other"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>"Olink,WES,IHC,CyTOF,ELISA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{0D19CD82-2118-DA4F-84DD-8D7D25E5E47B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{00000000-0002-0000-0000-000002000000}">
+      <formula1>"MDA_Wistuba,MDA_Bernatchez,MDA_Al-Atrash,MSSM_Gnjatic,MSSM_Rahman,MSSM_Kim-Schulze,MSSM_Bongers,DFCI_Wu,DFCI_Hodi,DFCI_Severgnini,Broad_Cibulskis,Stanf_Maecker,Stanf_Bendall,NCH,Adaptive,FNLCR_MoCha"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{00000000-0002-0000-0000-000003000000}">
+      <formula1>"FEDEX,USPS,UPS,Inter-Site Delivery"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"Frozen_Dry_Ice,Frozen_Shipper,Ice_Pack,Ambient,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="C11:C12" xr:uid="{8996F6F2-0F36-ED4F-A086-F6A9C7527A72}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="C11:C12" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>AND(ISNUMBER(C11),LEFT(CELL("format",C11),1)="D")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{AA35841F-2B7E-EC4D-A2F1-9FA9C36CCD7D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>"Specimen shipment received in good condition,Specimen shipment received in poor condition,Not Reported,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{AEFDB6CA-3751-064B-B7E3-D2BC92791C79}">
-      <formula1>"FEDEX,USPS,UPC"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{D81C2091-8E55-1248-9AD1-250272DBC233}">
-      <formula1>"MDA_CIMAC,MSSM_CIMAC,STAN_CIMAC,DFCI_CIMAC,Broad_CIMAC,FNLCR_MoCha,Nationwide Children's Hospital,Adaptive Biotechnologies,Not Reported,Other"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2851,7 +4389,7 @@
   <dimension ref="A1:P202"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B3" sqref="B3:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2861,1121 +4399,1121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>34</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>108</v>
+      <c r="C3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D3" t="s">
+        <v>319</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>345</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>346</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="H3" t="s">
-        <v>104</v>
+        <v>219</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>347</v>
       </c>
       <c r="J3" t="s">
-        <v>71</v>
+        <v>348</v>
       </c>
       <c r="K3" t="s">
-        <v>72</v>
+        <v>349</v>
       </c>
       <c r="L3" t="s">
-        <v>73</v>
+        <v>350</v>
       </c>
       <c r="M3" t="s">
-        <v>74</v>
+        <v>351</v>
       </c>
       <c r="N3" t="s">
-        <v>75</v>
+        <v>223</v>
       </c>
       <c r="O3" t="s">
-        <v>76</v>
+        <v>227</v>
       </c>
       <c r="P3" t="s">
-        <v>77</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -3984,30 +5522,21 @@
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="N1:P1"/>
   </mergeCells>
-  <dataValidations count="8">
+  <dataValidations disablePrompts="1" count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G202" xr:uid="{00000000-0002-0000-0100-000000000000}">
-      <formula1>"Baseline,Pre_Day_1_Cycle_2,Restaging,Off_study"</formula1>
+      <formula1>"Baseline,Pre_Day_1_Cycle_2,Restaging,Off_study,Cycle_2_Week_3,Cycle_4_Week_7,Cycle_5_Week_9,Progression,Cycle_3,End_of_treatment,On_Treatment,Response,Relapse,Day_8,Cycle_2_Day_1,T0,T1,T2,T3,T4,T5,T6,End_of_Treatment,Progression,Other,Not_reported"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N202" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H202" xr:uid="{00000000-0002-0000-0100-000001000000}">
+      <formula1>"Local pathology review was not consistent,Local pathology review was consistent with site of tissue procurement diagnostic pathology report,Not Available,Not Reported,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N202" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"Male,Female,Not Specified,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O202" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O202" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>"American Indian/Alaska Native,Asian,Black/African American,Native Hawaiian/Pacific Islander,White,Not Reported,Unknown,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P202" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P202" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>"Hispanic or Latino,Not Hispanic or Latino,Not reported,Unknown,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3" xr:uid="{353CB5C3-7FE5-4746-934A-89966111ACE0}">
-      <formula1>"ACCESSORY SINUS, NOS,ADRENAL GLANDS,ANAL CANAL &amp; ANUS,APPENDIX,BASE OF TONGUE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3" xr:uid="{56D151DB-B177-8C4A-9BD3-7BB20B9404F2}">
-      <formula1>"C00,C00.0,C00.1,C00.2,C00.3,C00.4,C00.5,C00.6,C00.8,C00.9,C01,C01.9"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3" xr:uid="{057D6C04-EC71-AE45-BD66-E338AF806C41}">
-      <formula1>"LIP,External upper lip,External lower lip,External lip, NOS,Mucosa of upper lip,Mucosa of lower lip,Mucosa of lip, NOS,Commissure of lip,Overlapping lesion of lip,Lip, NOS"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3" xr:uid="{E85408A0-48CB-8942-B05B-A7D3A07C6F42}">
-      <formula1>"8000/3,8001/3,8002/3,8003/3,8004/3,8005/3,8010/2,8010/3,8011/3"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4020,7 +5549,7 @@
   <dimension ref="A1:Y202"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B3" sqref="B3:Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4030,1532 +5559,1532 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="H2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="O2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="P2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="Q2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="R2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="S2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="T2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="U2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="V2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="W2" s="3" t="s">
         <v>57</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>109</v>
+        <v>234</v>
+      </c>
+      <c r="D3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" t="s">
+        <v>318</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>320</v>
       </c>
       <c r="G3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>108</v>
+        <v>321</v>
+      </c>
+      <c r="H3" t="s">
+        <v>319</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>81</v>
+        <v>322</v>
       </c>
       <c r="K3" t="s">
-        <v>82</v>
+        <v>261</v>
       </c>
       <c r="L3" t="s">
-        <v>83</v>
+        <v>268</v>
       </c>
       <c r="M3" t="s">
-        <v>84</v>
+        <v>280</v>
       </c>
       <c r="N3" t="s">
-        <v>85</v>
+        <v>282</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="Q3">
         <v>1</v>
       </c>
       <c r="R3" t="s">
-        <v>87</v>
+        <v>293</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>87</v>
+        <v>293</v>
       </c>
       <c r="U3" t="s">
-        <v>88</v>
+        <v>301</v>
       </c>
       <c r="V3" t="s">
-        <v>89</v>
+        <v>304</v>
       </c>
       <c r="W3" t="s">
-        <v>106</v>
+        <v>306</v>
       </c>
       <c r="X3" t="s">
-        <v>90</v>
+        <v>309</v>
       </c>
       <c r="Y3" t="s">
-        <v>91</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>110</v>
+        <v>245</v>
+      </c>
+      <c r="D4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" t="s">
+        <v>324</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>325</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>115</v>
+        <v>321</v>
+      </c>
+      <c r="H4" t="s">
+        <v>326</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>94</v>
+        <v>327</v>
       </c>
       <c r="K4" t="s">
-        <v>82</v>
+        <v>261</v>
       </c>
       <c r="L4" t="s">
-        <v>83</v>
+        <v>268</v>
       </c>
       <c r="M4" t="s">
-        <v>84</v>
+        <v>280</v>
       </c>
       <c r="N4" t="s">
-        <v>85</v>
+        <v>282</v>
       </c>
       <c r="O4">
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="Q4">
         <v>1</v>
       </c>
       <c r="R4" t="s">
-        <v>87</v>
+        <v>293</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>87</v>
+        <v>293</v>
       </c>
       <c r="U4" t="s">
-        <v>88</v>
+        <v>301</v>
       </c>
       <c r="V4" t="s">
-        <v>89</v>
+        <v>304</v>
       </c>
       <c r="W4" t="s">
-        <v>106</v>
+        <v>306</v>
       </c>
       <c r="X4" t="s">
-        <v>90</v>
+        <v>309</v>
       </c>
       <c r="Y4" t="s">
-        <v>95</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>111</v>
+        <v>234</v>
+      </c>
+      <c r="D5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" t="s">
+        <v>329</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>330</v>
       </c>
       <c r="G5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>116</v>
+        <v>321</v>
+      </c>
+      <c r="H5" t="s">
+        <v>331</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>97</v>
+        <v>332</v>
       </c>
       <c r="K5" t="s">
-        <v>82</v>
+        <v>261</v>
       </c>
       <c r="L5" t="s">
-        <v>83</v>
+        <v>268</v>
       </c>
       <c r="M5" t="s">
-        <v>84</v>
+        <v>280</v>
       </c>
       <c r="N5" t="s">
-        <v>85</v>
+        <v>282</v>
       </c>
       <c r="O5">
         <v>3</v>
       </c>
       <c r="P5" t="s">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="Q5">
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>87</v>
+        <v>293</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>87</v>
+        <v>293</v>
       </c>
       <c r="U5" t="s">
-        <v>88</v>
+        <v>301</v>
       </c>
       <c r="V5" t="s">
-        <v>89</v>
+        <v>304</v>
       </c>
       <c r="W5" t="s">
-        <v>106</v>
+        <v>306</v>
       </c>
       <c r="X5" t="s">
-        <v>90</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>112</v>
+        <v>245</v>
+      </c>
+      <c r="D6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6" t="s">
+        <v>333</v>
       </c>
       <c r="F6" t="s">
-        <v>98</v>
+        <v>334</v>
       </c>
       <c r="G6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>117</v>
+        <v>321</v>
+      </c>
+      <c r="H6" t="s">
+        <v>335</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>99</v>
+        <v>336</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>261</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>268</v>
       </c>
       <c r="M6" t="s">
-        <v>84</v>
+        <v>280</v>
       </c>
       <c r="N6" t="s">
-        <v>85</v>
+        <v>282</v>
       </c>
       <c r="O6">
         <v>4</v>
       </c>
       <c r="P6" t="s">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="Q6">
         <v>1</v>
       </c>
       <c r="R6" t="s">
-        <v>87</v>
+        <v>293</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>87</v>
+        <v>293</v>
       </c>
       <c r="U6" t="s">
-        <v>88</v>
+        <v>301</v>
       </c>
       <c r="V6" t="s">
-        <v>89</v>
+        <v>304</v>
       </c>
       <c r="W6" t="s">
-        <v>106</v>
+        <v>306</v>
       </c>
       <c r="X6" t="s">
-        <v>90</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>113</v>
+        <v>234</v>
+      </c>
+      <c r="D7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" t="s">
+        <v>337</v>
       </c>
       <c r="F7" t="s">
-        <v>100</v>
+        <v>338</v>
       </c>
       <c r="G7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>118</v>
+        <v>321</v>
+      </c>
+      <c r="H7" t="s">
+        <v>339</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>101</v>
+        <v>340</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>261</v>
       </c>
       <c r="L7" t="s">
-        <v>83</v>
+        <v>268</v>
       </c>
       <c r="M7" t="s">
-        <v>84</v>
+        <v>280</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>282</v>
       </c>
       <c r="O7">
         <v>5</v>
       </c>
       <c r="P7" t="s">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="Q7">
         <v>1</v>
       </c>
       <c r="R7" t="s">
-        <v>87</v>
+        <v>293</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>87</v>
+        <v>293</v>
       </c>
       <c r="U7" t="s">
-        <v>88</v>
+        <v>301</v>
       </c>
       <c r="V7" t="s">
-        <v>89</v>
+        <v>304</v>
       </c>
       <c r="W7" t="s">
-        <v>106</v>
+        <v>306</v>
       </c>
       <c r="X7" t="s">
-        <v>90</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>114</v>
+        <v>245</v>
+      </c>
+      <c r="D8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E8" t="s">
+        <v>341</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>342</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>119</v>
+        <v>321</v>
+      </c>
+      <c r="H8" t="s">
+        <v>343</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>344</v>
       </c>
       <c r="K8" t="s">
-        <v>82</v>
+        <v>261</v>
       </c>
       <c r="L8" t="s">
-        <v>83</v>
+        <v>268</v>
       </c>
       <c r="M8" t="s">
-        <v>84</v>
+        <v>280</v>
       </c>
       <c r="N8" t="s">
-        <v>85</v>
+        <v>282</v>
       </c>
       <c r="O8">
         <v>6</v>
       </c>
       <c r="P8" t="s">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="Q8">
         <v>1</v>
       </c>
       <c r="R8" t="s">
-        <v>87</v>
+        <v>293</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>87</v>
+        <v>293</v>
       </c>
       <c r="U8" t="s">
-        <v>88</v>
+        <v>301</v>
       </c>
       <c r="V8" t="s">
-        <v>89</v>
+        <v>304</v>
       </c>
       <c r="W8" t="s">
-        <v>106</v>
+        <v>306</v>
       </c>
       <c r="X8" t="s">
-        <v>90</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -5564,30 +7093,30 @@
     <mergeCell ref="I1:P1"/>
     <mergeCell ref="Q1:Y1"/>
   </mergeCells>
-  <dataValidations count="14">
+  <dataValidations count="12">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C202" xr:uid="{00000000-0002-0000-0200-000000000000}">
-      <formula1>"Arm_Z,Arm_A,Arm_B,Arm_C,Arm_Y,Arm_D,Arm_E,Arm_F,Arm_X,Arm_G,Arm_H,Arm_I"</formula1>
+      <formula1>"Arm_A,Arm_B,Arm_C,Arm_D,Arm_E,Arm_F,Arm_G,Arm_H,Arm_I,Arm_X,Arm_Y,Arm_Z,Arm_1,Arm_2,EAY131-Z1D,NSCLC_A,NSCLC_B,NSCLC_C,CRC_A,CRC_B,Dose_A,Dose_B,Dose_C,Dose_D,Other,Not_reported"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D202" xr:uid="{00000000-0002-0000-0200-000001000000}">
-      <formula1>"Baseline,Pre_Day_1_Cycle_2,Restaging,Off_study"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D202" xr:uid="{00000000-0002-0000-0200-000001000000}">
+      <formula1>"Baseline,Pre_Day_1_Cycle_2,Restaging,Off_study,Cycle_2_Week_3,Cycle_4_Week_7,Cycle_5_Week_9,Progression,Cycle_3,End_of_treatment,On_Treatment,Response,Relapse,Day_8,Cycle_2_Day_1,T0,T1,T2,T3,T4,T5,T6,End_of_Treatment,Progression,Other,Not_reported"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K9:K202" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K202" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"Tumor Tissue,Normal Tissue,Skin Tissue,Blood,Bone Marrow,Cerebrospinal Fluid,Lymph Node,Stool,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L202" xr:uid="{00000000-0002-0000-0200-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L202" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>"Blood Draw,Excision,Core Biopsy,Punch Biopsy,Endoscopic Biopsy,Bone Marrow Core Biopsy,Bone Marrow Aspirate,Lumbar Puncture,Aspirate,Fine-Needle Aspiration,Not Reported,Other"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M202" xr:uid="{00000000-0002-0000-0200-000004000000}">
       <formula1>"Sodium heparin,Blood specimen container with EDTA,Potassium EDTA,Streck Blood Collection Tube,Stool collection container with DNA stabilizer,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9:N202" xr:uid="{00000000-0002-0000-0200-000005000000}">
-      <formula1>"Whole Blood,Plasma,PBMC,Buffy Coat,Bone Marrow Mononuclear Cell,Supernatant,Cell Pellet,Not Reported,Other"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N202" xr:uid="{00000000-0002-0000-0200-000005000000}">
+      <formula1>"Whole Blood,Plasma,PBMC,Buffy Coat,Bone Marrow Mononuclear Cell,Supernatant,Cell Pellet,H&amp;E-Stained Fixed Tissue Slide Specimen,Fixed Slide,Tissue Scroll,FFPE Punch,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P9:P202" xr:uid="{00000000-0002-0000-0200-000006000000}">
-      <formula1>"µL,mL,Not Reported,Other"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P202" xr:uid="{00000000-0002-0000-0200-000006000000}">
+      <formula1>"Microliters,Milliliters,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T202 R3:R202" xr:uid="{00000000-0002-0000-0200-000007000000}">
-      <formula1>"Microliters,Milliliters,Nanogram per Microliter,Milligram per Milliliter,Micrograms per Microliter,Cells per Vial,Not Reported,Other"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R202 T3:T202" xr:uid="{00000000-0002-0000-0200-000007000000}">
+      <formula1>"Microliters,Milliliters,Nanogram per Microliter,Milligram per Milliliter,Micrograms per Microliter,Cells per Vial,Slides,Not Reported,Other"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U202" xr:uid="{00000000-0002-0000-0200-000009000000}">
       <formula1>"RT,4oC,(-20)oC,(-80)oC,LN,Not Reported,Other"</formula1>
@@ -5595,20 +7124,1603 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V202" xr:uid="{00000000-0002-0000-0200-00000A000000}">
       <formula1>"Pass,Fail,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W9:W202" xr:uid="{00000000-0002-0000-0200-00000B000000}">
-      <formula1>"Sample Sent to Another Lab,Sample received from CIMAC,Not Reported,Other"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W202" xr:uid="{00000000-0002-0000-0200-00000B000000}">
+      <formula1>"Replacement Not Requested,Replacement Requested,Replacement Tested,Not Reported,Other"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X202" xr:uid="{00000000-0002-0000-0200-00000C000000}">
       <formula1>"Sample Returned,Sample Sent to Another Lab,Sample received from CIMAC,Not Reported,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K8" xr:uid="{58E34B5C-E102-7C4C-80E4-9DD953238F7C}">
-      <formula1>"Tumor Tissue,Normal Tissue,Skin Tissue,Blood,Bone Marrow,Cerebrospinal Fluid,Stool,Not Reported,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L8" xr:uid="{B7741782-D0CC-254C-A661-B9B4499409BF}">
-      <formula1>"Blood Draw,Excision,Core Biopsy,Punch Biopsy,Endoscopic Biopsy,Bone Marrow Core Biopsy,Bone Marrow Aspirate,Lumbar Puncture,Not Reported,Other"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B1:E63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="101" width="30.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B1" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" t="s">
+        <v>121</v>
+      </c>
+      <c r="E48" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" t="s">
+        <v>125</v>
+      </c>
+      <c r="E50" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" t="s">
+        <v>127</v>
+      </c>
+      <c r="E51" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" t="s">
+        <v>129</v>
+      </c>
+      <c r="D52" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" t="s">
+        <v>131</v>
+      </c>
+      <c r="E53" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" t="s">
+        <v>129</v>
+      </c>
+      <c r="D55" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" t="s">
+        <v>135</v>
+      </c>
+      <c r="E56" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" t="s">
+        <v>129</v>
+      </c>
+      <c r="D57" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B58" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" t="s">
+        <v>137</v>
+      </c>
+      <c r="E58" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B59" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59" t="s">
+        <v>138</v>
+      </c>
+      <c r="E59" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B60" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" t="s">
+        <v>140</v>
+      </c>
+      <c r="E60" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" t="s">
+        <v>142</v>
+      </c>
+      <c r="E61" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B62" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62" t="s">
+        <v>144</v>
+      </c>
+      <c r="E62" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B63" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" t="s">
+        <v>62</v>
+      </c>
+      <c r="D63" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="B1:Y27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="101" width="30.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J2" t="s">
+        <v>222</v>
+      </c>
+      <c r="K2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L2" t="s">
+        <v>231</v>
+      </c>
+      <c r="M2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N2" t="s">
+        <v>195</v>
+      </c>
+      <c r="O2" t="s">
+        <v>258</v>
+      </c>
+      <c r="P2" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>276</v>
+      </c>
+      <c r="R2" t="s">
+        <v>281</v>
+      </c>
+      <c r="S2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T2" t="s">
+        <v>292</v>
+      </c>
+      <c r="U2" t="s">
+        <v>292</v>
+      </c>
+      <c r="V2" t="s">
+        <v>299</v>
+      </c>
+      <c r="W2" t="s">
+        <v>304</v>
+      </c>
+      <c r="X2" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H3" t="s">
+        <v>196</v>
+      </c>
+      <c r="I3" t="s">
+        <v>220</v>
+      </c>
+      <c r="J3" t="s">
+        <v>223</v>
+      </c>
+      <c r="K3" t="s">
+        <v>226</v>
+      </c>
+      <c r="L3" t="s">
+        <v>232</v>
+      </c>
+      <c r="M3" t="s">
+        <v>235</v>
+      </c>
+      <c r="N3" t="s">
+        <v>196</v>
+      </c>
+      <c r="O3" t="s">
+        <v>259</v>
+      </c>
+      <c r="P3" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>277</v>
+      </c>
+      <c r="R3" t="s">
+        <v>282</v>
+      </c>
+      <c r="S3" t="s">
+        <v>293</v>
+      </c>
+      <c r="T3" t="s">
+        <v>293</v>
+      </c>
+      <c r="U3" t="s">
+        <v>293</v>
+      </c>
+      <c r="V3" t="s">
+        <v>300</v>
+      </c>
+      <c r="W3" t="s">
+        <v>305</v>
+      </c>
+      <c r="X3" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H4" t="s">
+        <v>197</v>
+      </c>
+      <c r="I4" t="s">
+        <v>221</v>
+      </c>
+      <c r="J4" t="s">
+        <v>224</v>
+      </c>
+      <c r="K4" t="s">
+        <v>227</v>
+      </c>
+      <c r="L4" t="s">
+        <v>233</v>
+      </c>
+      <c r="M4" t="s">
+        <v>236</v>
+      </c>
+      <c r="N4" t="s">
+        <v>197</v>
+      </c>
+      <c r="O4" t="s">
+        <v>260</v>
+      </c>
+      <c r="P4" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>278</v>
+      </c>
+      <c r="R4" t="s">
+        <v>283</v>
+      </c>
+      <c r="S4" t="s">
+        <v>162</v>
+      </c>
+      <c r="T4" t="s">
+        <v>294</v>
+      </c>
+      <c r="U4" t="s">
+        <v>294</v>
+      </c>
+      <c r="V4" t="s">
+        <v>301</v>
+      </c>
+      <c r="W4" t="s">
+        <v>162</v>
+      </c>
+      <c r="X4" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H5" t="s">
+        <v>198</v>
+      </c>
+      <c r="I5" t="s">
+        <v>162</v>
+      </c>
+      <c r="J5" t="s">
+        <v>163</v>
+      </c>
+      <c r="K5" t="s">
+        <v>228</v>
+      </c>
+      <c r="L5" t="s">
+        <v>230</v>
+      </c>
+      <c r="M5" t="s">
+        <v>237</v>
+      </c>
+      <c r="N5" t="s">
+        <v>198</v>
+      </c>
+      <c r="O5" t="s">
+        <v>261</v>
+      </c>
+      <c r="P5" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>279</v>
+      </c>
+      <c r="R5" t="s">
+        <v>284</v>
+      </c>
+      <c r="S5" t="s">
+        <v>163</v>
+      </c>
+      <c r="T5" t="s">
+        <v>295</v>
+      </c>
+      <c r="U5" t="s">
+        <v>295</v>
+      </c>
+      <c r="V5" t="s">
+        <v>302</v>
+      </c>
+      <c r="W5" t="s">
+        <v>163</v>
+      </c>
+      <c r="X5" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H6" t="s">
+        <v>199</v>
+      </c>
+      <c r="I6" t="s">
+        <v>163</v>
+      </c>
+      <c r="K6" t="s">
+        <v>229</v>
+      </c>
+      <c r="L6" t="s">
+        <v>163</v>
+      </c>
+      <c r="M6" t="s">
+        <v>238</v>
+      </c>
+      <c r="N6" t="s">
+        <v>199</v>
+      </c>
+      <c r="O6" t="s">
+        <v>262</v>
+      </c>
+      <c r="P6" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>280</v>
+      </c>
+      <c r="R6" t="s">
+        <v>285</v>
+      </c>
+      <c r="T6" t="s">
+        <v>296</v>
+      </c>
+      <c r="U6" t="s">
+        <v>296</v>
+      </c>
+      <c r="V6" t="s">
+        <v>303</v>
+      </c>
+      <c r="X6" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K7" t="s">
+        <v>162</v>
+      </c>
+      <c r="M7" t="s">
+        <v>239</v>
+      </c>
+      <c r="N7" t="s">
+        <v>200</v>
+      </c>
+      <c r="O7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>162</v>
+      </c>
+      <c r="R7" t="s">
+        <v>286</v>
+      </c>
+      <c r="T7" t="s">
+        <v>297</v>
+      </c>
+      <c r="U7" t="s">
+        <v>297</v>
+      </c>
+      <c r="V7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" t="s">
+        <v>175</v>
+      </c>
+      <c r="H8" t="s">
+        <v>201</v>
+      </c>
+      <c r="K8" t="s">
+        <v>230</v>
+      </c>
+      <c r="M8" t="s">
+        <v>240</v>
+      </c>
+      <c r="N8" t="s">
+        <v>201</v>
+      </c>
+      <c r="O8" t="s">
+        <v>264</v>
+      </c>
+      <c r="P8" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>163</v>
+      </c>
+      <c r="R8" t="s">
+        <v>287</v>
+      </c>
+      <c r="T8" t="s">
+        <v>298</v>
+      </c>
+      <c r="U8" t="s">
+        <v>298</v>
+      </c>
+      <c r="V8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" t="s">
+        <v>176</v>
+      </c>
+      <c r="H9" t="s">
+        <v>202</v>
+      </c>
+      <c r="K9" t="s">
+        <v>163</v>
+      </c>
+      <c r="M9" t="s">
+        <v>241</v>
+      </c>
+      <c r="N9" t="s">
+        <v>202</v>
+      </c>
+      <c r="O9" t="s">
+        <v>265</v>
+      </c>
+      <c r="P9" t="s">
+        <v>273</v>
+      </c>
+      <c r="R9" t="s">
+        <v>288</v>
+      </c>
+      <c r="T9" t="s">
+        <v>162</v>
+      </c>
+      <c r="U9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" t="s">
+        <v>177</v>
+      </c>
+      <c r="H10" t="s">
+        <v>203</v>
+      </c>
+      <c r="M10" t="s">
+        <v>242</v>
+      </c>
+      <c r="N10" t="s">
+        <v>203</v>
+      </c>
+      <c r="O10" t="s">
+        <v>162</v>
+      </c>
+      <c r="P10" t="s">
+        <v>274</v>
+      </c>
+      <c r="R10" t="s">
+        <v>289</v>
+      </c>
+      <c r="T10" t="s">
+        <v>163</v>
+      </c>
+      <c r="U10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" t="s">
+        <v>178</v>
+      </c>
+      <c r="H11" t="s">
+        <v>204</v>
+      </c>
+      <c r="M11" t="s">
+        <v>243</v>
+      </c>
+      <c r="N11" t="s">
+        <v>204</v>
+      </c>
+      <c r="O11" t="s">
+        <v>163</v>
+      </c>
+      <c r="P11" t="s">
+        <v>275</v>
+      </c>
+      <c r="R11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" t="s">
+        <v>179</v>
+      </c>
+      <c r="H12" t="s">
+        <v>205</v>
+      </c>
+      <c r="M12" t="s">
+        <v>244</v>
+      </c>
+      <c r="N12" t="s">
+        <v>205</v>
+      </c>
+      <c r="P12" t="s">
+        <v>162</v>
+      </c>
+      <c r="R12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" t="s">
+        <v>180</v>
+      </c>
+      <c r="H13" t="s">
+        <v>206</v>
+      </c>
+      <c r="M13" t="s">
+        <v>245</v>
+      </c>
+      <c r="N13" t="s">
+        <v>206</v>
+      </c>
+      <c r="P13" t="s">
+        <v>163</v>
+      </c>
+      <c r="R13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" t="s">
+        <v>181</v>
+      </c>
+      <c r="H14" t="s">
+        <v>207</v>
+      </c>
+      <c r="M14" t="s">
+        <v>246</v>
+      </c>
+      <c r="N14" t="s">
+        <v>207</v>
+      </c>
+      <c r="R14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" t="s">
+        <v>182</v>
+      </c>
+      <c r="H15" t="s">
+        <v>208</v>
+      </c>
+      <c r="M15" t="s">
+        <v>247</v>
+      </c>
+      <c r="N15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" t="s">
+        <v>183</v>
+      </c>
+      <c r="H16" t="s">
+        <v>209</v>
+      </c>
+      <c r="M16" t="s">
+        <v>248</v>
+      </c>
+      <c r="N16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" t="s">
+        <v>184</v>
+      </c>
+      <c r="H17" t="s">
+        <v>210</v>
+      </c>
+      <c r="M17" t="s">
+        <v>249</v>
+      </c>
+      <c r="N17" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>163</v>
+      </c>
+      <c r="H18" t="s">
+        <v>211</v>
+      </c>
+      <c r="M18" t="s">
+        <v>250</v>
+      </c>
+      <c r="N18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>212</v>
+      </c>
+      <c r="M19" t="s">
+        <v>251</v>
+      </c>
+      <c r="N19" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>213</v>
+      </c>
+      <c r="M20" t="s">
+        <v>252</v>
+      </c>
+      <c r="N20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>214</v>
+      </c>
+      <c r="M21" t="s">
+        <v>253</v>
+      </c>
+      <c r="N21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>215</v>
+      </c>
+      <c r="M22" t="s">
+        <v>254</v>
+      </c>
+      <c r="N22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>216</v>
+      </c>
+      <c r="M23" t="s">
+        <v>255</v>
+      </c>
+      <c r="N23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>217</v>
+      </c>
+      <c r="M24" t="s">
+        <v>256</v>
+      </c>
+      <c r="N24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H25" t="s">
+        <v>202</v>
+      </c>
+      <c r="M25" t="s">
+        <v>257</v>
+      </c>
+      <c r="N25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>163</v>
+      </c>
+      <c r="M26" t="s">
+        <v>163</v>
+      </c>
+      <c r="N26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>218</v>
+      </c>
+      <c r="M27" t="s">
+        <v>218</v>
+      </c>
+      <c r="N27" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/template_examples/plasma_template.xlsx
+++ b/template_examples/plasma_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/code/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF861D42-81B0-0C49-B1B3-283F31064030}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5B1332-B70F-C34C-8004-C6E0F8A35203}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8820" yWindow="25140" windowWidth="21400" windowHeight="12740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shipment" sheetId="1" r:id="rId1"/>
@@ -589,7 +589,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -1652,7 +1652,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="354">
   <si>
     <t>#t</t>
   </si>
@@ -2615,24 +2615,12 @@
     <t>CTTTP01A1.00</t>
   </si>
   <si>
-    <t>TRIALGROUP 1</t>
-  </si>
-  <si>
-    <t>BIOBANK 1</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>TTTPP102</t>
-  </si>
-  <si>
-    <t>TRIALGROUP 2</t>
-  </si>
-  <si>
     <t>CTTTP01A2.00</t>
   </si>
   <si>
@@ -2642,48 +2630,24 @@
     <t>No comment</t>
   </si>
   <si>
-    <t>TTTPP103</t>
-  </si>
-  <si>
-    <t>TRIALGROUP 3</t>
-  </si>
-  <si>
     <t>CTTTP01A3.00</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>TTTPP201</t>
-  </si>
-  <si>
-    <t>TRIALGROUP 4</t>
-  </si>
-  <si>
     <t>CTTTP02A1.00</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>TTTPP202</t>
-  </si>
-  <si>
-    <t>TRIALGROUP 5</t>
-  </si>
-  <si>
     <t>CTTTP02A2.00</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>TTTPP203</t>
-  </si>
-  <si>
-    <t>TRIALGROUP 6</t>
-  </si>
-  <si>
     <t>CTTTP02A3.00</t>
   </si>
   <si>
@@ -2709,13 +2673,55 @@
   </si>
   <si>
     <t>Neoplasm, malignant</t>
+  </si>
+  <si>
+    <t>TTTPP1</t>
+  </si>
+  <si>
+    <t>TTTPP2</t>
+  </si>
+  <si>
+    <t>TTTPP1A1</t>
+  </si>
+  <si>
+    <t>TTTPP1A2</t>
+  </si>
+  <si>
+    <t>TTTPP1A3</t>
+  </si>
+  <si>
+    <t>TTTPP2A1</t>
+  </si>
+  <si>
+    <t>TTTPP2A2</t>
+  </si>
+  <si>
+    <t>TTTPP2A3</t>
+  </si>
+  <si>
+    <t>BIOBANK 1A1</t>
+  </si>
+  <si>
+    <t>BIOBANK 1A2</t>
+  </si>
+  <si>
+    <t>BIOBANK 1A3</t>
+  </si>
+  <si>
+    <t>BIOBANK 2A1</t>
+  </si>
+  <si>
+    <t>BIOBANK 2A2</t>
+  </si>
+  <si>
+    <t>BIOBANK 2A3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2742,6 +2748,12 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3174,14 +3186,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+    <sheetView topLeftCell="B6" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
-    <col min="2" max="101" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4485,10 +4499,10 @@
         <v>319</v>
       </c>
       <c r="E3" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F3" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="G3" t="s">
         <v>195</v>
@@ -4497,19 +4511,19 @@
         <v>219</v>
       </c>
       <c r="I3" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="J3" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="K3" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="L3" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="M3" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="N3" t="s">
         <v>223</v>
@@ -5548,14 +5562,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y202"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:Y8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
-    <col min="2" max="101" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.6640625" customWidth="1"/>
+    <col min="14" max="14" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
@@ -5681,13 +5718,13 @@
         <v>195</v>
       </c>
       <c r="E3" t="s">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="F3" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="G3" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="H3" t="s">
         <v>319</v>
@@ -5696,7 +5733,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K3" t="s">
         <v>261</v>
@@ -5741,7 +5778,7 @@
         <v>309</v>
       </c>
       <c r="Y3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -5752,28 +5789,28 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D4" t="s">
         <v>195</v>
       </c>
       <c r="E4" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="F4" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="G4" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="H4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="K4" t="s">
         <v>261</v>
@@ -5818,7 +5855,7 @@
         <v>309</v>
       </c>
       <c r="Y4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
@@ -5835,22 +5872,22 @@
         <v>195</v>
       </c>
       <c r="E5" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="F5" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="G5" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="H5" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="K5" t="s">
         <v>261</v>
@@ -5909,22 +5946,22 @@
         <v>195</v>
       </c>
       <c r="E6" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="F6" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="G6" t="s">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="H6" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="K6" t="s">
         <v>261</v>
@@ -5977,28 +6014,28 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="D7" t="s">
         <v>195</v>
       </c>
       <c r="E7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="G7" t="s">
-        <v>321</v>
+        <v>352</v>
       </c>
       <c r="H7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="K7" t="s">
         <v>261</v>
@@ -6060,19 +6097,19 @@
         <v>341</v>
       </c>
       <c r="F8" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="G8" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="H8" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="K8" t="s">
         <v>261</v>
@@ -7093,6 +7130,7 @@
     <mergeCell ref="I1:P1"/>
     <mergeCell ref="Q1:Y1"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="12">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C202" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Arm_A,Arm_B,Arm_C,Arm_D,Arm_E,Arm_F,Arm_G,Arm_H,Arm_I,Arm_X,Arm_Y,Arm_Z,Arm_1,Arm_2,EAY131-Z1D,NSCLC_A,NSCLC_B,NSCLC_C,CRC_A,CRC_B,Dose_A,Dose_B,Dose_C,Dose_D,Other,Not_reported"</formula1>

--- a/template_examples/plasma_template.xlsx
+++ b/template_examples/plasma_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/code/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5B1332-B70F-C34C-8004-C6E0F8A35203}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72FC0CD-7FBE-EC45-8B56-A6086163D0F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8820" yWindow="25140" windowWidth="21400" windowHeight="12740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -524,7 +524,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -1652,7 +1652,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="353">
   <si>
     <t>#t</t>
   </si>
@@ -2607,9 +2607,6 @@
   </si>
   <si>
     <t>ship to</t>
-  </si>
-  <si>
-    <t>TTTPP101</t>
   </si>
   <si>
     <t>CTTTP01A1.00</t>
@@ -4403,7 +4400,7 @@
   <dimension ref="A1:P202"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:P3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4493,16 +4490,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D3" t="s">
         <v>318</v>
       </c>
-      <c r="D3" t="s">
-        <v>319</v>
-      </c>
       <c r="E3" t="s">
+        <v>332</v>
+      </c>
+      <c r="F3" t="s">
         <v>333</v>
-      </c>
-      <c r="F3" t="s">
-        <v>334</v>
       </c>
       <c r="G3" t="s">
         <v>195</v>
@@ -4511,19 +4508,19 @@
         <v>219</v>
       </c>
       <c r="I3" t="s">
+        <v>334</v>
+      </c>
+      <c r="J3" t="s">
         <v>335</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>336</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>337</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>338</v>
-      </c>
-      <c r="M3" t="s">
-        <v>339</v>
       </c>
       <c r="N3" t="s">
         <v>223</v>
@@ -5563,7 +5560,7 @@
   <dimension ref="A1:Y202"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5718,22 +5715,22 @@
         <v>195</v>
       </c>
       <c r="E3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K3" t="s">
         <v>261</v>
@@ -5778,7 +5775,7 @@
         <v>309</v>
       </c>
       <c r="Y3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -5795,22 +5792,22 @@
         <v>195</v>
       </c>
       <c r="E4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K4" t="s">
         <v>261</v>
@@ -5855,7 +5852,7 @@
         <v>309</v>
       </c>
       <c r="Y4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
@@ -5872,22 +5869,22 @@
         <v>195</v>
       </c>
       <c r="E5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K5" t="s">
         <v>261</v>
@@ -5946,22 +5943,22 @@
         <v>195</v>
       </c>
       <c r="E6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K6" t="s">
         <v>261</v>
@@ -6020,22 +6017,22 @@
         <v>195</v>
       </c>
       <c r="E7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K7" t="s">
         <v>261</v>
@@ -6094,22 +6091,22 @@
         <v>195</v>
       </c>
       <c r="E8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K8" t="s">
         <v>261</v>

--- a/template_examples/plasma_template.xlsx
+++ b/template_examples/plasma_template.xlsx
@@ -1193,7 +1193,7 @@
     <row r="1" ht="16" customHeight="1" thickBot="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>#t</t>
+          <t>#title</t>
         </is>
       </c>
       <c r="B1" s="6" t="inlineStr">
@@ -1206,7 +1206,7 @@
     <row r="2" ht="17" customHeight="1" thickBot="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -1223,7 +1223,7 @@
     <row r="3" ht="17" customHeight="1" thickBot="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -1240,7 +1240,7 @@
     <row r="4" ht="17" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
     <row r="5" ht="17" customHeight="1" thickBot="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -1272,7 +1272,7 @@
     <row r="6" ht="17" customHeight="1" thickBot="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -1289,7 +1289,7 @@
     <row r="7" ht="17" customHeight="1" thickBot="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -1306,7 +1306,7 @@
     <row r="8" ht="17" customHeight="1" thickBot="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -1323,7 +1323,7 @@
     <row r="9" ht="17" customHeight="1" thickBot="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -1340,7 +1340,7 @@
     <row r="10" ht="17" customHeight="1" thickBot="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -1357,7 +1357,7 @@
     <row r="11" ht="17" customHeight="1" thickBot="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -1372,7 +1372,7 @@
     <row r="12" ht="17" customHeight="1" thickBot="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -1387,7 +1387,7 @@
     <row r="13" ht="33" customHeight="1" thickBot="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="14" ht="17" customHeight="1" thickBot="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1421,7 +1421,7 @@
     <row r="15" ht="17" customHeight="1" thickBot="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1439,1414 +1439,1414 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>#mh</t>
+          <t>#skip</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>#h</t>
+          <t>#header</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
@@ -2903,7 +2903,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>#mh</t>
+          <t>#skip</t>
         </is>
       </c>
       <c r="B1" s="6" t="inlineStr">
@@ -2937,7 +2937,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>#h</t>
+          <t>#header</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -3019,7 +3019,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -3099,1393 +3099,1393 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
@@ -4561,7 +4561,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>#mh</t>
+          <t>#skip</t>
         </is>
       </c>
       <c r="B1" s="6" t="inlineStr">
@@ -4604,7 +4604,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>#h</t>
+          <t>#header</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -4731,7 +4731,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -4848,7 +4848,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -4965,7 +4965,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -5077,7 +5077,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -5189,7 +5189,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -5301,7 +5301,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -5413,1358 +5413,1358 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>

--- a/template_examples/plasma_template.xlsx
+++ b/template_examples/plasma_template.xlsx
@@ -1184,7 +1184,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col hidden="1" min="1" max="1"/>
+    <col hidden="1" width="30" customWidth="1" min="1" max="1"/>
     <col width="30.6640625" customWidth="1" min="2" max="2"/>
     <col width="27" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="30.6640625" customWidth="1" min="4" max="101"/>
@@ -1435,7 +1435,6 @@
         </is>
       </c>
     </row>
-    <row r="16"/>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
@@ -2896,7 +2895,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col hidden="1" min="1" max="1"/>
+    <col hidden="1" width="30" customWidth="1" min="1" max="1"/>
     <col width="30.6640625" customWidth="1" min="2" max="101"/>
   </cols>
   <sheetData>
@@ -4531,7 +4530,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col hidden="1" min="1" max="1"/>
+    <col hidden="1" width="30" customWidth="1" min="1" max="1"/>
     <col width="8.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="12.1640625" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="19.83203125" bestFit="1" customWidth="1" min="4" max="4"/>
@@ -6823,7 +6822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E63"/>
+  <dimension ref="B1:E63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6831,6 +6830,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
     <col width="30.6640625" customWidth="1" min="2" max="101"/>
   </cols>
   <sheetData>
@@ -7958,7 +7958,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y27"/>
+  <dimension ref="B1:Y27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7966,6 +7966,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
     <col width="30.6640625" customWidth="1" min="2" max="101"/>
   </cols>
   <sheetData>

--- a/template_examples/plasma_template.xlsx
+++ b/template_examples/plasma_template.xlsx
@@ -933,7 +933,7 @@
     <t xml:space="preserve">Ethnic group</t>
   </si>
   <si>
-    <t xml:space="preserve">TTTPP1</t>
+    <t xml:space="preserve">TTTP01</t>
   </si>
   <si>
     <t xml:space="preserve">CTTTP01A1.00</t>
@@ -969,10 +969,10 @@
     <t xml:space="preserve">Female</t>
   </si>
   <si>
-    <t xml:space="preserve">Black/African American</t>
+    <t xml:space="preserve">Asian</t>
   </si>
   <si>
-    <t xml:space="preserve">Not Hispanic or Latino</t>
+    <t xml:space="preserve">Hispanic or Latino</t>
   </si>
   <si>
     <t xml:space="preserve">IDs</t>
@@ -1044,7 +1044,7 @@
     <t xml:space="preserve">Comments</t>
   </si>
   <si>
-    <t xml:space="preserve">Arm_A</t>
+    <t xml:space="preserve">Arm_Z</t>
   </si>
   <si>
     <t xml:space="preserve">TTTPP1A1</t>
@@ -1116,10 +1116,10 @@
     <t xml:space="preserve">A3</t>
   </si>
   <si>
-    <t xml:space="preserve">Arm_Z</t>
+    <t xml:space="preserve">Arm_A</t>
   </si>
   <si>
-    <t xml:space="preserve">TTTPP2</t>
+    <t xml:space="preserve">TTTP02</t>
   </si>
   <si>
     <t xml:space="preserve">TTTPP2A1</t>
@@ -1429,9 +1429,6 @@
     <t xml:space="preserve">American Indian/Alaska Native</t>
   </si>
   <si>
-    <t xml:space="preserve">Hispanic or Latino</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tumor Tissue</t>
   </si>
   <si>
@@ -1468,7 +1465,7 @@
     <t xml:space="preserve">Local pathology review was consistent with site of tissue procurement diagnostic pathology report</t>
   </si>
   <si>
-    <t xml:space="preserve">Asian</t>
+    <t xml:space="preserve">Not Hispanic or Latino</t>
   </si>
   <si>
     <t xml:space="preserve">Normal Tissue</t>
@@ -1514,6 +1511,9 @@
   </si>
   <si>
     <t xml:space="preserve">Not Specified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black/African American</t>
   </si>
   <si>
     <t xml:space="preserve">Not reported</t>
@@ -1982,10 +1982,10 @@
   <dimension ref="A1:C2018"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="B3:Y8 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="C3:C8 C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.30859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="1" style="0" width="30.7"/>
   </cols>
@@ -12216,10 +12216,10 @@
   <dimension ref="A1:P2002"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3:Y8"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="C3:C8 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.30859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="1" style="0" width="30.7"/>
   </cols>
@@ -22408,10 +22408,10 @@
   <dimension ref="A1:Y2002"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3:Y8"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.30859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="1" style="0" width="30.7"/>
   </cols>
@@ -32999,10 +32999,6 @@
       <formula1>'Data Dictionary'!$V$2:$V$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C3:C8" type="list">
-      <formula1>"Arm_A,Arm_B,Arm_C,Arm_D,Arm_E,Arm_F,Arm_G,Arm_H,Arm_I,Arm_X,Arm_Y,Arm_Z,Arm_1,Arm_2,EAY131-Z1D,NSCLC_A,NSCLC_B,NSCLC_C,CRC_A,CRC_B,Dose_A,Dose_B,Dose_C,Dose_D,Other,Not_reported"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="false" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D3:D8" type="list">
       <formula1>"Baseline,Pre_Day_1_Cycle_2,Restaging,Off_study,Cycle_2_Week_3,Cycle_4_Week_7,Cycle_5_Week_9,Progression,Cycle_3,End_of_treatment,On_Treatment,Response,Relapse,Day_8,Cycle_2_Day_1,T0,T1,T2,T3,T4,T5,T6,End_of_Treatment,Progression,Other,Not_reported"</formula1>
       <formula2>0</formula2>
@@ -33047,6 +33043,10 @@
       <formula1>"Sample Returned,Sample Sent to Another Lab,Sample received from CIMAC,Not Reported,Other"</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="false" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C3:C8" type="list">
+      <formula1>"Arm_A,Arm_B,Arm_C,Arm_D,Arm_E,Arm_F,Arm_G,Arm_H,Arm_I,Arm_X,Arm_Y,Arm_Z,Arm_1,Arm_2,EAY131-Z1D,NSCLC_A,NSCLC_B,NSCLC_C,CRC_A,CRC_B,Dose_A,Dose_B,Dose_C,Dose_D,Other,Not_reported"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -33067,10 +33067,10 @@
   <dimension ref="B1:E63"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B3:Y8 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C3:C8 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.30859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.7"/>
   </cols>
@@ -33797,10 +33797,10 @@
   <dimension ref="B1:V18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B3:Y8 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C3:C8 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.30859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.7"/>
   </cols>
@@ -33899,31 +33899,31 @@
         <v>213</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="M2" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="N2" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="O2" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="P2" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="Q2" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="S2" s="0" t="s">
         <v>219</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="S2" s="0" t="s">
-        <v>220</v>
       </c>
       <c r="T2" s="0" t="s">
         <v>97</v>
@@ -33937,43 +33937,43 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>222</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>223</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>225</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>226</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>60</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="L3" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" s="0" t="s">
+      <c r="M3" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="N3" s="0" t="s">
         <v>229</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>230</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>93</v>
@@ -33988,45 +33988,45 @@
         <v>95</v>
       </c>
       <c r="S3" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="T3" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="T3" s="0" t="s">
+      <c r="U3" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="U3" s="0" t="s">
+      <c r="V3" s="0" t="s">
         <v>233</v>
-      </c>
-      <c r="V3" s="0" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="H4" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="I4" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="J4" s="0" t="s">
         <v>242</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>61</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>243</v>
@@ -34044,7 +34044,7 @@
         <v>246</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="0" t="s">
         <v>247</v>
@@ -34056,7 +34056,7 @@
         <v>96</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U4" s="0" t="s">
         <v>248</v>
@@ -34085,7 +34085,7 @@
         <v>94</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>94</v>
@@ -34124,10 +34124,10 @@
         <v>94</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34141,7 +34141,7 @@
         <v>263</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>94</v>
@@ -34194,7 +34194,7 @@
         <v>94</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>273</v>
@@ -34203,7 +34203,7 @@
         <v>274</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O7" s="0" t="s">
         <v>275</v>
@@ -34215,7 +34215,7 @@
         <v>276</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34276,10 +34276,10 @@
         <v>289</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34339,10 +34339,10 @@
         <v>304</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O12" s="0" t="s">
         <v>305</v>
@@ -34365,7 +34365,7 @@
         <v>94</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34397,7 +34397,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>315</v>
